--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>321400</v>
+        <v>319200</v>
       </c>
       <c r="E8" s="3">
-        <v>314500</v>
+        <v>313500</v>
       </c>
       <c r="F8" s="3">
-        <v>1511000</v>
+        <v>306800</v>
       </c>
       <c r="G8" s="3">
-        <v>1100600</v>
+        <v>1473900</v>
       </c>
       <c r="H8" s="3">
-        <v>507200</v>
+        <v>1073600</v>
       </c>
       <c r="I8" s="3">
-        <v>279700</v>
+        <v>494800</v>
       </c>
       <c r="J8" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K8" s="3">
         <v>159700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>152800</v>
+        <v>168000</v>
       </c>
       <c r="E9" s="3">
-        <v>147000</v>
+        <v>149100</v>
       </c>
       <c r="F9" s="3">
-        <v>1419300</v>
+        <v>143300</v>
       </c>
       <c r="G9" s="3">
-        <v>1048700</v>
+        <v>1384400</v>
       </c>
       <c r="H9" s="3">
-        <v>474700</v>
+        <v>1023000</v>
       </c>
       <c r="I9" s="3">
-        <v>262500</v>
+        <v>463100</v>
       </c>
       <c r="J9" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K9" s="3">
         <v>154100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>110100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>168600</v>
+        <v>151300</v>
       </c>
       <c r="E10" s="3">
-        <v>167600</v>
+        <v>164500</v>
       </c>
       <c r="F10" s="3">
-        <v>91700</v>
+        <v>163500</v>
       </c>
       <c r="G10" s="3">
-        <v>51900</v>
+        <v>89500</v>
       </c>
       <c r="H10" s="3">
-        <v>32400</v>
+        <v>50700</v>
       </c>
       <c r="I10" s="3">
-        <v>17200</v>
+        <v>31700</v>
       </c>
       <c r="J10" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="E12" s="3">
-        <v>77600</v>
+        <v>44100</v>
       </c>
       <c r="F12" s="3">
-        <v>86300</v>
+        <v>75700</v>
       </c>
       <c r="G12" s="3">
-        <v>42800</v>
+        <v>84200</v>
       </c>
       <c r="H12" s="3">
-        <v>15000</v>
+        <v>41700</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>14700</v>
       </c>
       <c r="J12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>371500</v>
+        <v>441100</v>
       </c>
       <c r="E17" s="3">
-        <v>441300</v>
+        <v>362400</v>
       </c>
       <c r="F17" s="3">
-        <v>1869500</v>
+        <v>430500</v>
       </c>
       <c r="G17" s="3">
-        <v>1310000</v>
+        <v>1823700</v>
       </c>
       <c r="H17" s="3">
-        <v>575100</v>
+        <v>1277800</v>
       </c>
       <c r="I17" s="3">
-        <v>293700</v>
+        <v>561000</v>
       </c>
       <c r="J17" s="3">
+        <v>286500</v>
+      </c>
+      <c r="K17" s="3">
         <v>176000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-50100</v>
+        <v>-121900</v>
       </c>
       <c r="E18" s="3">
-        <v>-126800</v>
+        <v>-48800</v>
       </c>
       <c r="F18" s="3">
-        <v>-358600</v>
+        <v>-123600</v>
       </c>
       <c r="G18" s="3">
-        <v>-209300</v>
+        <v>-349800</v>
       </c>
       <c r="H18" s="3">
-        <v>-67900</v>
+        <v>-204200</v>
       </c>
       <c r="I18" s="3">
-        <v>-13900</v>
+        <v>-66200</v>
       </c>
       <c r="J18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,146 +1049,159 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>21500</v>
+        <v>24700</v>
       </c>
       <c r="E20" s="3">
-        <v>18300</v>
+        <v>21000</v>
       </c>
       <c r="F20" s="3">
-        <v>10800</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>3600</v>
-      </c>
       <c r="I20" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3000</v>
+        <v>-63300</v>
       </c>
       <c r="E21" s="3">
-        <v>-77500</v>
+        <v>2800</v>
       </c>
       <c r="F21" s="3">
-        <v>-317500</v>
+        <v>-75700</v>
       </c>
       <c r="G21" s="3">
-        <v>-198200</v>
+        <v>-309800</v>
       </c>
       <c r="H21" s="3">
-        <v>-62600</v>
+        <v>-193300</v>
       </c>
       <c r="I21" s="3">
-        <v>-10100</v>
+        <v>-61000</v>
       </c>
       <c r="J21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-28600</v>
+        <v>-102000</v>
       </c>
       <c r="E23" s="3">
-        <v>-108400</v>
+        <v>-27900</v>
       </c>
       <c r="F23" s="3">
-        <v>-347800</v>
+        <v>-105800</v>
       </c>
       <c r="G23" s="3">
-        <v>-210500</v>
+        <v>-339300</v>
       </c>
       <c r="H23" s="3">
-        <v>-64300</v>
+        <v>-205300</v>
       </c>
       <c r="I23" s="3">
-        <v>-11400</v>
+        <v>-62700</v>
       </c>
       <c r="J23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1166,9 +1211,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-28600</v>
+        <v>-102100</v>
       </c>
       <c r="E26" s="3">
-        <v>-110700</v>
+        <v>-27900</v>
       </c>
       <c r="F26" s="3">
-        <v>-347600</v>
+        <v>-108000</v>
       </c>
       <c r="G26" s="3">
-        <v>-210400</v>
+        <v>-339000</v>
       </c>
       <c r="H26" s="3">
-        <v>-64300</v>
+        <v>-205200</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
+        <v>-62700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-27000</v>
+        <v>-97900</v>
       </c>
       <c r="E27" s="3">
-        <v>-110900</v>
+        <v>-26300</v>
       </c>
       <c r="F27" s="3">
-        <v>-345400</v>
+        <v>-108200</v>
       </c>
       <c r="G27" s="3">
-        <v>-210000</v>
+        <v>-336900</v>
       </c>
       <c r="H27" s="3">
-        <v>-66500</v>
+        <v>-204800</v>
       </c>
       <c r="I27" s="3">
-        <v>-20000</v>
+        <v>-64900</v>
       </c>
       <c r="J27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-21500</v>
+        <v>-24700</v>
       </c>
       <c r="E32" s="3">
-        <v>-18300</v>
+        <v>-21000</v>
       </c>
       <c r="F32" s="3">
-        <v>-10800</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-27000</v>
+        <v>-97900</v>
       </c>
       <c r="E33" s="3">
-        <v>-110900</v>
+        <v>-26300</v>
       </c>
       <c r="F33" s="3">
-        <v>-345400</v>
+        <v>-108200</v>
       </c>
       <c r="G33" s="3">
-        <v>-210000</v>
+        <v>-336900</v>
       </c>
       <c r="H33" s="3">
-        <v>-66500</v>
+        <v>-204800</v>
       </c>
       <c r="I33" s="3">
-        <v>-20000</v>
+        <v>-64900</v>
       </c>
       <c r="J33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-27000</v>
+        <v>-97900</v>
       </c>
       <c r="E35" s="3">
-        <v>-110900</v>
+        <v>-26300</v>
       </c>
       <c r="F35" s="3">
-        <v>-345400</v>
+        <v>-108200</v>
       </c>
       <c r="G35" s="3">
-        <v>-210000</v>
+        <v>-336900</v>
       </c>
       <c r="H35" s="3">
-        <v>-66500</v>
+        <v>-204800</v>
       </c>
       <c r="I35" s="3">
-        <v>-20000</v>
+        <v>-64900</v>
       </c>
       <c r="J35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,98 +1645,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>80400</v>
+        <v>41400</v>
       </c>
       <c r="E41" s="3">
-        <v>69500</v>
+        <v>78500</v>
       </c>
       <c r="F41" s="3">
-        <v>155700</v>
+        <v>67900</v>
       </c>
       <c r="G41" s="3">
-        <v>301500</v>
+        <v>152100</v>
       </c>
       <c r="H41" s="3">
-        <v>209200</v>
+        <v>294500</v>
       </c>
       <c r="I41" s="3">
-        <v>60200</v>
+        <v>204300</v>
       </c>
       <c r="J41" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K41" s="3">
         <v>42900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>123300</v>
+        <v>183000</v>
       </c>
       <c r="E42" s="3">
-        <v>442600</v>
+        <v>120400</v>
       </c>
       <c r="F42" s="3">
-        <v>517000</v>
+        <v>432300</v>
       </c>
       <c r="G42" s="3">
-        <v>176000</v>
+        <v>505100</v>
       </c>
       <c r="H42" s="3">
-        <v>67200</v>
+        <v>171900</v>
       </c>
       <c r="I42" s="3">
-        <v>46900</v>
+        <v>65700</v>
       </c>
       <c r="J42" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4300</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>263400</v>
+        <v>175800</v>
       </c>
       <c r="E43" s="3">
-        <v>88000</v>
+        <v>257300</v>
       </c>
       <c r="F43" s="3">
-        <v>159100</v>
+        <v>86000</v>
       </c>
       <c r="G43" s="3">
-        <v>28600</v>
+        <v>155400</v>
       </c>
       <c r="H43" s="3">
-        <v>2200</v>
+        <v>28000</v>
       </c>
       <c r="I43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1679,83 +1774,92 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>165400</v>
+        <v>135700</v>
       </c>
       <c r="E45" s="3">
-        <v>130200</v>
+        <v>161600</v>
       </c>
       <c r="F45" s="3">
-        <v>481500</v>
+        <v>127100</v>
       </c>
       <c r="G45" s="3">
-        <v>288700</v>
+        <v>470300</v>
       </c>
       <c r="H45" s="3">
-        <v>170500</v>
+        <v>282000</v>
       </c>
       <c r="I45" s="3">
-        <v>41900</v>
+        <v>166500</v>
       </c>
       <c r="J45" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>632400</v>
+        <v>535900</v>
       </c>
       <c r="E46" s="3">
-        <v>730200</v>
+        <v>617800</v>
       </c>
       <c r="F46" s="3">
-        <v>1079100</v>
+        <v>713300</v>
       </c>
       <c r="G46" s="3">
-        <v>794800</v>
+        <v>1054200</v>
       </c>
       <c r="H46" s="3">
-        <v>366500</v>
+        <v>776400</v>
       </c>
       <c r="I46" s="3">
-        <v>149800</v>
+        <v>358000</v>
       </c>
       <c r="J46" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K46" s="3">
         <v>67300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>187500</v>
+        <v>261100</v>
       </c>
       <c r="E47" s="3">
-        <v>69600</v>
+        <v>182600</v>
       </c>
       <c r="F47" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>40</v>
+        <v>68000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>17300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>40</v>
@@ -1769,59 +1873,65 @@
       <c r="K47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26900</v>
+        <v>46100</v>
       </c>
       <c r="E48" s="3">
-        <v>21300</v>
+        <v>26300</v>
       </c>
       <c r="F48" s="3">
-        <v>51000</v>
+        <v>20800</v>
       </c>
       <c r="G48" s="3">
-        <v>20800</v>
+        <v>49800</v>
       </c>
       <c r="H48" s="3">
-        <v>20800</v>
+        <v>20300</v>
       </c>
       <c r="I48" s="3">
-        <v>3600</v>
+        <v>20300</v>
       </c>
       <c r="J48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>82300</v>
+        <v>55800</v>
       </c>
       <c r="E49" s="3">
-        <v>87300</v>
+        <v>66900</v>
       </c>
       <c r="F49" s="3">
-        <v>191100</v>
+        <v>85300</v>
       </c>
       <c r="G49" s="3">
-        <v>122300</v>
+        <v>186700</v>
       </c>
       <c r="H49" s="3">
+        <v>119400</v>
+      </c>
+      <c r="I49" s="3">
         <v>400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>40</v>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11600</v>
+        <v>25600</v>
       </c>
       <c r="E52" s="3">
-        <v>46900</v>
+        <v>25500</v>
       </c>
       <c r="F52" s="3">
-        <v>87400</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>93200</v>
+        <v>85400</v>
       </c>
       <c r="H52" s="3">
+        <v>91000</v>
+      </c>
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
-        <v>1000</v>
-      </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>700</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>940800</v>
+        <v>924600</v>
       </c>
       <c r="E54" s="3">
-        <v>955300</v>
+        <v>919000</v>
       </c>
       <c r="F54" s="3">
-        <v>1315900</v>
+        <v>933200</v>
       </c>
       <c r="G54" s="3">
-        <v>1031100</v>
+        <v>1285500</v>
       </c>
       <c r="H54" s="3">
-        <v>379500</v>
+        <v>1007200</v>
       </c>
       <c r="I54" s="3">
-        <v>154300</v>
+        <v>370700</v>
       </c>
       <c r="J54" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K54" s="3">
         <v>72100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,46 +2137,50 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>187300</v>
+        <v>183900</v>
       </c>
       <c r="E57" s="3">
-        <v>122300</v>
+        <v>183000</v>
       </c>
       <c r="F57" s="3">
-        <v>146700</v>
+        <v>119500</v>
       </c>
       <c r="G57" s="3">
-        <v>110100</v>
+        <v>143300</v>
       </c>
       <c r="H57" s="3">
-        <v>54900</v>
+        <v>107500</v>
       </c>
       <c r="I57" s="3">
-        <v>41500</v>
+        <v>53600</v>
       </c>
       <c r="J57" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K57" s="3">
         <v>18300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>28600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>40</v>
@@ -2055,86 +2188,95 @@
       <c r="G58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>250800</v>
+        <v>313000</v>
       </c>
       <c r="E59" s="3">
-        <v>296800</v>
+        <v>245000</v>
       </c>
       <c r="F59" s="3">
-        <v>587300</v>
+        <v>290000</v>
       </c>
       <c r="G59" s="3">
-        <v>433800</v>
+        <v>573800</v>
       </c>
       <c r="H59" s="3">
-        <v>135000</v>
+        <v>423700</v>
       </c>
       <c r="I59" s="3">
-        <v>68500</v>
+        <v>131900</v>
       </c>
       <c r="J59" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>445200</v>
+        <v>525400</v>
       </c>
       <c r="E60" s="3">
-        <v>419100</v>
+        <v>434900</v>
       </c>
       <c r="F60" s="3">
-        <v>649500</v>
+        <v>409400</v>
       </c>
       <c r="G60" s="3">
-        <v>543900</v>
+        <v>634500</v>
       </c>
       <c r="H60" s="3">
-        <v>174200</v>
+        <v>531300</v>
       </c>
       <c r="I60" s="3">
-        <v>109600</v>
+        <v>170200</v>
       </c>
       <c r="J60" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K60" s="3">
         <v>60600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5800</v>
+        <v>12500</v>
       </c>
       <c r="E62" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="F62" s="3">
-        <v>11200</v>
+        <v>6000</v>
       </c>
       <c r="G62" s="3">
-        <v>8300</v>
+        <v>11000</v>
       </c>
       <c r="H62" s="3">
-        <v>3200</v>
+        <v>8100</v>
       </c>
       <c r="I62" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>460100</v>
+        <v>544700</v>
       </c>
       <c r="E66" s="3">
-        <v>439400</v>
+        <v>449400</v>
       </c>
       <c r="F66" s="3">
-        <v>670500</v>
+        <v>429300</v>
       </c>
       <c r="G66" s="3">
-        <v>554500</v>
+        <v>654900</v>
       </c>
       <c r="H66" s="3">
-        <v>177400</v>
+        <v>541700</v>
       </c>
       <c r="I66" s="3">
-        <v>112500</v>
+        <v>173300</v>
       </c>
       <c r="J66" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K66" s="3">
         <v>62200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2403,17 +2570,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>102800</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K70" s="3">
         <v>50300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>52100</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-816600</v>
+        <v>-895100</v>
       </c>
       <c r="E72" s="3">
-        <v>-790000</v>
+        <v>-797700</v>
       </c>
       <c r="F72" s="3">
-        <v>-679900</v>
+        <v>-771700</v>
       </c>
       <c r="G72" s="3">
-        <v>-334100</v>
+        <v>-664200</v>
       </c>
       <c r="H72" s="3">
-        <v>-124700</v>
+        <v>-326400</v>
       </c>
       <c r="I72" s="3">
-        <v>-58200</v>
+        <v>-121800</v>
       </c>
       <c r="J72" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-38200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>480700</v>
+        <v>379900</v>
       </c>
       <c r="E76" s="3">
-        <v>515800</v>
+        <v>469600</v>
       </c>
       <c r="F76" s="3">
-        <v>645500</v>
+        <v>503900</v>
       </c>
       <c r="G76" s="3">
-        <v>476600</v>
+        <v>630600</v>
       </c>
       <c r="H76" s="3">
-        <v>202100</v>
+        <v>465500</v>
       </c>
       <c r="I76" s="3">
-        <v>-61000</v>
+        <v>197400</v>
       </c>
       <c r="J76" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-40300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-25900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-27000</v>
+        <v>-97900</v>
       </c>
       <c r="E81" s="3">
-        <v>-110900</v>
+        <v>-26300</v>
       </c>
       <c r="F81" s="3">
-        <v>-345400</v>
+        <v>-108200</v>
       </c>
       <c r="G81" s="3">
-        <v>-210000</v>
+        <v>-336900</v>
       </c>
       <c r="H81" s="3">
-        <v>-66500</v>
+        <v>-204800</v>
       </c>
       <c r="I81" s="3">
-        <v>-20000</v>
+        <v>-64900</v>
       </c>
       <c r="J81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31600</v>
+        <v>34000</v>
       </c>
       <c r="E83" s="3">
-        <v>31000</v>
+        <v>30800</v>
       </c>
       <c r="F83" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="G83" s="3">
-        <v>12300</v>
+        <v>29600</v>
       </c>
       <c r="H83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38500</v>
+        <v>-16900</v>
       </c>
       <c r="E89" s="3">
-        <v>-60100</v>
+        <v>37500</v>
       </c>
       <c r="F89" s="3">
-        <v>-321300</v>
+        <v>-58600</v>
       </c>
       <c r="G89" s="3">
-        <v>-73900</v>
+        <v>-313400</v>
       </c>
       <c r="H89" s="3">
-        <v>-38900</v>
+        <v>-72000</v>
       </c>
       <c r="I89" s="3">
-        <v>16700</v>
+        <v>-37900</v>
       </c>
       <c r="J89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,8 +3144,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2934,29 +3154,32 @@
         <v>-17100</v>
       </c>
       <c r="E91" s="3">
-        <v>-23000</v>
+        <v>-16700</v>
       </c>
       <c r="F91" s="3">
-        <v>-16900</v>
+        <v>-22500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22300</v>
+        <v>-16500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7300</v>
+        <v>-21800</v>
       </c>
       <c r="I91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>22100</v>
+        <v>-80900</v>
       </c>
       <c r="E94" s="3">
-        <v>88300</v>
+        <v>21600</v>
       </c>
       <c r="F94" s="3">
-        <v>-391500</v>
+        <v>86200</v>
       </c>
       <c r="G94" s="3">
-        <v>-274800</v>
+        <v>-381900</v>
       </c>
       <c r="H94" s="3">
-        <v>-32700</v>
+        <v>-268000</v>
       </c>
       <c r="I94" s="3">
-        <v>-43600</v>
+        <v>-31900</v>
       </c>
       <c r="J94" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20800</v>
+        <v>67900</v>
       </c>
       <c r="E100" s="3">
-        <v>-112600</v>
+        <v>-20300</v>
       </c>
       <c r="F100" s="3">
-        <v>520400</v>
+        <v>-109800</v>
       </c>
       <c r="G100" s="3">
-        <v>431300</v>
+        <v>507600</v>
       </c>
       <c r="H100" s="3">
-        <v>221000</v>
+        <v>420700</v>
       </c>
       <c r="I100" s="3">
-        <v>44000</v>
+        <v>215600</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
+        <v>42900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-6600</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>-6400</v>
       </c>
       <c r="G101" s="3">
-        <v>9700</v>
+        <v>15500</v>
       </c>
       <c r="H101" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36600</v>
+        <v>-29200</v>
       </c>
       <c r="E102" s="3">
-        <v>-90900</v>
+        <v>35700</v>
       </c>
       <c r="F102" s="3">
-        <v>-176500</v>
+        <v>-88700</v>
       </c>
       <c r="G102" s="3">
-        <v>92300</v>
+        <v>-172200</v>
       </c>
       <c r="H102" s="3">
-        <v>149000</v>
+        <v>90100</v>
       </c>
       <c r="I102" s="3">
-        <v>17200</v>
+        <v>145300</v>
       </c>
       <c r="J102" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>319200</v>
+        <v>331300</v>
       </c>
       <c r="E8" s="3">
-        <v>313500</v>
+        <v>325300</v>
       </c>
       <c r="F8" s="3">
-        <v>306800</v>
+        <v>318400</v>
       </c>
       <c r="G8" s="3">
-        <v>1473900</v>
+        <v>1529400</v>
       </c>
       <c r="H8" s="3">
-        <v>1073600</v>
+        <v>1114100</v>
       </c>
       <c r="I8" s="3">
-        <v>494800</v>
+        <v>513400</v>
       </c>
       <c r="J8" s="3">
-        <v>272900</v>
+        <v>283200</v>
       </c>
       <c r="K8" s="3">
         <v>159700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>168000</v>
+        <v>174300</v>
       </c>
       <c r="E9" s="3">
-        <v>149100</v>
+        <v>154700</v>
       </c>
       <c r="F9" s="3">
-        <v>143300</v>
+        <v>148700</v>
       </c>
       <c r="G9" s="3">
-        <v>1384400</v>
+        <v>1436600</v>
       </c>
       <c r="H9" s="3">
-        <v>1023000</v>
+        <v>1061500</v>
       </c>
       <c r="I9" s="3">
-        <v>463100</v>
+        <v>480500</v>
       </c>
       <c r="J9" s="3">
-        <v>256100</v>
+        <v>265700</v>
       </c>
       <c r="K9" s="3">
         <v>154100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>151300</v>
+        <v>157000</v>
       </c>
       <c r="E10" s="3">
-        <v>164500</v>
+        <v>170700</v>
       </c>
       <c r="F10" s="3">
-        <v>163500</v>
+        <v>169600</v>
       </c>
       <c r="G10" s="3">
-        <v>89500</v>
+        <v>92800</v>
       </c>
       <c r="H10" s="3">
-        <v>50700</v>
+        <v>52600</v>
       </c>
       <c r="I10" s="3">
-        <v>31700</v>
+        <v>32800</v>
       </c>
       <c r="J10" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="K10" s="3">
         <v>5600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42500</v>
+        <v>44100</v>
       </c>
       <c r="E12" s="3">
-        <v>44100</v>
+        <v>45800</v>
       </c>
       <c r="F12" s="3">
-        <v>75700</v>
+        <v>78600</v>
       </c>
       <c r="G12" s="3">
-        <v>84200</v>
+        <v>87300</v>
       </c>
       <c r="H12" s="3">
-        <v>41700</v>
+        <v>43300</v>
       </c>
       <c r="I12" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="J12" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K12" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>441100</v>
+        <v>457700</v>
       </c>
       <c r="E17" s="3">
-        <v>362400</v>
+        <v>376000</v>
       </c>
       <c r="F17" s="3">
-        <v>430500</v>
+        <v>446700</v>
       </c>
       <c r="G17" s="3">
-        <v>1823700</v>
+        <v>1892300</v>
       </c>
       <c r="H17" s="3">
-        <v>1277800</v>
+        <v>1326000</v>
       </c>
       <c r="I17" s="3">
-        <v>561000</v>
+        <v>582100</v>
       </c>
       <c r="J17" s="3">
-        <v>286500</v>
+        <v>297200</v>
       </c>
       <c r="K17" s="3">
         <v>176000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-121900</v>
+        <v>-126500</v>
       </c>
       <c r="E18" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F18" s="3">
-        <v>-123600</v>
+        <v>-128300</v>
       </c>
       <c r="G18" s="3">
-        <v>-349800</v>
+        <v>-362900</v>
       </c>
       <c r="H18" s="3">
-        <v>-204200</v>
+        <v>-211900</v>
       </c>
       <c r="I18" s="3">
-        <v>-66200</v>
+        <v>-68700</v>
       </c>
       <c r="J18" s="3">
-        <v>-13600</v>
+        <v>-14100</v>
       </c>
       <c r="K18" s="3">
         <v>-16300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="E20" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="F20" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I20" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-321400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-63300</v>
       </c>
-      <c r="E21" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-75700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-309800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-193300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-61000</v>
-      </c>
       <c r="J21" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="K21" s="3">
         <v>-13800</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-102000</v>
+        <v>-105800</v>
       </c>
       <c r="E23" s="3">
-        <v>-27900</v>
+        <v>-28900</v>
       </c>
       <c r="F23" s="3">
-        <v>-105800</v>
+        <v>-109700</v>
       </c>
       <c r="G23" s="3">
-        <v>-339300</v>
+        <v>-352000</v>
       </c>
       <c r="H23" s="3">
-        <v>-205300</v>
+        <v>-213000</v>
       </c>
       <c r="I23" s="3">
-        <v>-62700</v>
+        <v>-65000</v>
       </c>
       <c r="J23" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="K23" s="3">
         <v>-15400</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-102100</v>
+        <v>-105900</v>
       </c>
       <c r="E26" s="3">
-        <v>-27900</v>
+        <v>-29000</v>
       </c>
       <c r="F26" s="3">
-        <v>-108000</v>
+        <v>-112000</v>
       </c>
       <c r="G26" s="3">
-        <v>-339000</v>
+        <v>-351800</v>
       </c>
       <c r="H26" s="3">
-        <v>-205200</v>
+        <v>-212900</v>
       </c>
       <c r="I26" s="3">
-        <v>-62700</v>
+        <v>-65000</v>
       </c>
       <c r="J26" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="K26" s="3">
         <v>-15400</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-97900</v>
+        <v>-101500</v>
       </c>
       <c r="E27" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="F27" s="3">
-        <v>-108200</v>
+        <v>-112300</v>
       </c>
       <c r="G27" s="3">
-        <v>-336900</v>
+        <v>-349600</v>
       </c>
       <c r="H27" s="3">
-        <v>-204800</v>
+        <v>-212500</v>
       </c>
       <c r="I27" s="3">
-        <v>-64900</v>
+        <v>-67300</v>
       </c>
       <c r="J27" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="K27" s="3">
         <v>-15400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="E32" s="3">
-        <v>-21000</v>
+        <v>-21800</v>
       </c>
       <c r="F32" s="3">
-        <v>-17900</v>
+        <v>-18600</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="H32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-97900</v>
+        <v>-101500</v>
       </c>
       <c r="E33" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="F33" s="3">
-        <v>-108200</v>
+        <v>-112300</v>
       </c>
       <c r="G33" s="3">
-        <v>-336900</v>
+        <v>-349600</v>
       </c>
       <c r="H33" s="3">
-        <v>-204800</v>
+        <v>-212500</v>
       </c>
       <c r="I33" s="3">
-        <v>-64900</v>
+        <v>-67300</v>
       </c>
       <c r="J33" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="K33" s="3">
         <v>-15400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-97900</v>
+        <v>-101500</v>
       </c>
       <c r="E35" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="F35" s="3">
-        <v>-108200</v>
+        <v>-112300</v>
       </c>
       <c r="G35" s="3">
-        <v>-336900</v>
+        <v>-349600</v>
       </c>
       <c r="H35" s="3">
-        <v>-204800</v>
+        <v>-212500</v>
       </c>
       <c r="I35" s="3">
-        <v>-64900</v>
+        <v>-67300</v>
       </c>
       <c r="J35" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="K35" s="3">
         <v>-15400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="E41" s="3">
-        <v>78500</v>
+        <v>81400</v>
       </c>
       <c r="F41" s="3">
-        <v>67900</v>
+        <v>70300</v>
       </c>
       <c r="G41" s="3">
-        <v>152100</v>
+        <v>157600</v>
       </c>
       <c r="H41" s="3">
-        <v>294500</v>
+        <v>305200</v>
       </c>
       <c r="I41" s="3">
-        <v>204300</v>
+        <v>211700</v>
       </c>
       <c r="J41" s="3">
-        <v>58800</v>
+        <v>60900</v>
       </c>
       <c r="K41" s="3">
         <v>42900</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>183000</v>
+        <v>189600</v>
       </c>
       <c r="E42" s="3">
-        <v>120400</v>
+        <v>124800</v>
       </c>
       <c r="F42" s="3">
-        <v>432300</v>
+        <v>448000</v>
       </c>
       <c r="G42" s="3">
-        <v>505100</v>
+        <v>523300</v>
       </c>
       <c r="H42" s="3">
-        <v>171900</v>
+        <v>178100</v>
       </c>
       <c r="I42" s="3">
-        <v>65700</v>
+        <v>68100</v>
       </c>
       <c r="J42" s="3">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="K42" s="3">
         <v>4300</v>
@@ -1718,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>175800</v>
+        <v>182100</v>
       </c>
       <c r="E43" s="3">
-        <v>257300</v>
+        <v>266600</v>
       </c>
       <c r="F43" s="3">
-        <v>86000</v>
+        <v>89100</v>
       </c>
       <c r="G43" s="3">
-        <v>155400</v>
+        <v>161100</v>
       </c>
       <c r="H43" s="3">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="I43" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>135700</v>
+        <v>140600</v>
       </c>
       <c r="E45" s="3">
-        <v>161600</v>
+        <v>167400</v>
       </c>
       <c r="F45" s="3">
-        <v>127100</v>
+        <v>131700</v>
       </c>
       <c r="G45" s="3">
-        <v>470300</v>
+        <v>487300</v>
       </c>
       <c r="H45" s="3">
-        <v>282000</v>
+        <v>292200</v>
       </c>
       <c r="I45" s="3">
-        <v>166500</v>
+        <v>172500</v>
       </c>
       <c r="J45" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="K45" s="3">
         <v>19200</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>535900</v>
+        <v>555300</v>
       </c>
       <c r="E46" s="3">
-        <v>617800</v>
+        <v>640200</v>
       </c>
       <c r="F46" s="3">
-        <v>713300</v>
+        <v>739100</v>
       </c>
       <c r="G46" s="3">
-        <v>1054200</v>
+        <v>1092300</v>
       </c>
       <c r="H46" s="3">
-        <v>776400</v>
+        <v>804500</v>
       </c>
       <c r="I46" s="3">
-        <v>358000</v>
+        <v>371000</v>
       </c>
       <c r="J46" s="3">
-        <v>146300</v>
+        <v>151600</v>
       </c>
       <c r="K46" s="3">
         <v>67300</v>
@@ -1850,16 +1850,16 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>261100</v>
+        <v>270600</v>
       </c>
       <c r="E47" s="3">
-        <v>182600</v>
+        <v>189200</v>
       </c>
       <c r="F47" s="3">
-        <v>68000</v>
+        <v>70400</v>
       </c>
       <c r="G47" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>40</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46100</v>
+        <v>47800</v>
       </c>
       <c r="E48" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="F48" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="G48" s="3">
-        <v>49800</v>
+        <v>51600</v>
       </c>
       <c r="H48" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="I48" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="J48" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K48" s="3">
         <v>4100</v>
@@ -1916,19 +1916,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55800</v>
+        <v>57800</v>
       </c>
       <c r="E49" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="F49" s="3">
-        <v>85300</v>
+        <v>88300</v>
       </c>
       <c r="G49" s="3">
-        <v>186700</v>
+        <v>193500</v>
       </c>
       <c r="H49" s="3">
-        <v>119400</v>
+        <v>123800</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="E52" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="F52" s="3">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="G52" s="3">
-        <v>85400</v>
+        <v>88500</v>
       </c>
       <c r="H52" s="3">
-        <v>91000</v>
+        <v>94300</v>
       </c>
       <c r="I52" s="3">
         <v>2200</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>924600</v>
+        <v>958000</v>
       </c>
       <c r="E54" s="3">
-        <v>919000</v>
+        <v>952300</v>
       </c>
       <c r="F54" s="3">
-        <v>933200</v>
+        <v>966900</v>
       </c>
       <c r="G54" s="3">
-        <v>1285500</v>
+        <v>1332000</v>
       </c>
       <c r="H54" s="3">
-        <v>1007200</v>
+        <v>1043600</v>
       </c>
       <c r="I54" s="3">
-        <v>370700</v>
+        <v>384100</v>
       </c>
       <c r="J54" s="3">
-        <v>150700</v>
+        <v>156200</v>
       </c>
       <c r="K54" s="3">
         <v>72100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>183900</v>
+        <v>190500</v>
       </c>
       <c r="E57" s="3">
-        <v>183000</v>
+        <v>189600</v>
       </c>
       <c r="F57" s="3">
-        <v>119500</v>
+        <v>123800</v>
       </c>
       <c r="G57" s="3">
-        <v>143300</v>
+        <v>148500</v>
       </c>
       <c r="H57" s="3">
-        <v>107500</v>
+        <v>111400</v>
       </c>
       <c r="I57" s="3">
-        <v>53600</v>
+        <v>55600</v>
       </c>
       <c r="J57" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="K57" s="3">
         <v>18300</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>40</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>313000</v>
+        <v>324300</v>
       </c>
       <c r="E59" s="3">
-        <v>245000</v>
+        <v>253800</v>
       </c>
       <c r="F59" s="3">
-        <v>290000</v>
+        <v>300500</v>
       </c>
       <c r="G59" s="3">
-        <v>573800</v>
+        <v>594500</v>
       </c>
       <c r="H59" s="3">
-        <v>423700</v>
+        <v>439100</v>
       </c>
       <c r="I59" s="3">
-        <v>131900</v>
+        <v>136700</v>
       </c>
       <c r="J59" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="K59" s="3">
         <v>42300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>525400</v>
+        <v>544400</v>
       </c>
       <c r="E60" s="3">
-        <v>434900</v>
+        <v>450600</v>
       </c>
       <c r="F60" s="3">
-        <v>409400</v>
+        <v>424300</v>
       </c>
       <c r="G60" s="3">
-        <v>634500</v>
+        <v>657500</v>
       </c>
       <c r="H60" s="3">
-        <v>531300</v>
+        <v>550500</v>
       </c>
       <c r="I60" s="3">
-        <v>170200</v>
+        <v>176300</v>
       </c>
       <c r="J60" s="3">
-        <v>107100</v>
+        <v>111000</v>
       </c>
       <c r="K60" s="3">
         <v>60600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="E62" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F62" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G62" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="H62" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>544700</v>
+        <v>564400</v>
       </c>
       <c r="E66" s="3">
-        <v>449400</v>
+        <v>465700</v>
       </c>
       <c r="F66" s="3">
-        <v>429300</v>
+        <v>444800</v>
       </c>
       <c r="G66" s="3">
-        <v>654900</v>
+        <v>678600</v>
       </c>
       <c r="H66" s="3">
-        <v>541700</v>
+        <v>561300</v>
       </c>
       <c r="I66" s="3">
-        <v>173300</v>
+        <v>179500</v>
       </c>
       <c r="J66" s="3">
-        <v>109900</v>
+        <v>113900</v>
       </c>
       <c r="K66" s="3">
         <v>62200</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>100400</v>
+        <v>104000</v>
       </c>
       <c r="K70" s="3">
         <v>50300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-895100</v>
+        <v>-927400</v>
       </c>
       <c r="E72" s="3">
-        <v>-797700</v>
+        <v>-826600</v>
       </c>
       <c r="F72" s="3">
-        <v>-771700</v>
+        <v>-799600</v>
       </c>
       <c r="G72" s="3">
-        <v>-664200</v>
+        <v>-688200</v>
       </c>
       <c r="H72" s="3">
-        <v>-326400</v>
+        <v>-338200</v>
       </c>
       <c r="I72" s="3">
-        <v>-121800</v>
+        <v>-126200</v>
       </c>
       <c r="J72" s="3">
-        <v>-56800</v>
+        <v>-58900</v>
       </c>
       <c r="K72" s="3">
         <v>-38200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>379900</v>
+        <v>393700</v>
       </c>
       <c r="E76" s="3">
-        <v>469600</v>
+        <v>486600</v>
       </c>
       <c r="F76" s="3">
-        <v>503900</v>
+        <v>522100</v>
       </c>
       <c r="G76" s="3">
-        <v>630600</v>
+        <v>653400</v>
       </c>
       <c r="H76" s="3">
-        <v>465500</v>
+        <v>482400</v>
       </c>
       <c r="I76" s="3">
-        <v>197400</v>
+        <v>204600</v>
       </c>
       <c r="J76" s="3">
-        <v>-59600</v>
+        <v>-61700</v>
       </c>
       <c r="K76" s="3">
         <v>-40300</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-97900</v>
+        <v>-101500</v>
       </c>
       <c r="E81" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="F81" s="3">
-        <v>-108200</v>
+        <v>-112300</v>
       </c>
       <c r="G81" s="3">
-        <v>-336900</v>
+        <v>-349600</v>
       </c>
       <c r="H81" s="3">
-        <v>-204800</v>
+        <v>-212500</v>
       </c>
       <c r="I81" s="3">
-        <v>-64900</v>
+        <v>-67300</v>
       </c>
       <c r="J81" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="K81" s="3">
         <v>-15400</v>
@@ -2905,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="E83" s="3">
-        <v>30800</v>
+        <v>32000</v>
       </c>
       <c r="F83" s="3">
-        <v>30200</v>
+        <v>31300</v>
       </c>
       <c r="G83" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="H83" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="E89" s="3">
-        <v>37500</v>
+        <v>38900</v>
       </c>
       <c r="F89" s="3">
-        <v>-58600</v>
+        <v>-60800</v>
       </c>
       <c r="G89" s="3">
-        <v>-313400</v>
+        <v>-325200</v>
       </c>
       <c r="H89" s="3">
-        <v>-72000</v>
+        <v>-74800</v>
       </c>
       <c r="I89" s="3">
-        <v>-37900</v>
+        <v>-39400</v>
       </c>
       <c r="J89" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="K89" s="3">
         <v>2100</v>
@@ -3151,22 +3151,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-17100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-16500</v>
-      </c>
       <c r="H91" s="3">
-        <v>-21800</v>
+        <v>-22600</v>
       </c>
       <c r="I91" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80900</v>
+        <v>-84000</v>
       </c>
       <c r="E94" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="F94" s="3">
-        <v>86200</v>
+        <v>89400</v>
       </c>
       <c r="G94" s="3">
-        <v>-381900</v>
+        <v>-396300</v>
       </c>
       <c r="H94" s="3">
-        <v>-268000</v>
+        <v>-278100</v>
       </c>
       <c r="I94" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="J94" s="3">
-        <v>-42600</v>
+        <v>-44200</v>
       </c>
       <c r="K94" s="3">
         <v>-6700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>67900</v>
+        <v>70500</v>
       </c>
       <c r="E100" s="3">
-        <v>-20300</v>
+        <v>-21100</v>
       </c>
       <c r="F100" s="3">
-        <v>-109800</v>
+        <v>-114000</v>
       </c>
       <c r="G100" s="3">
-        <v>507600</v>
+        <v>526800</v>
       </c>
       <c r="H100" s="3">
-        <v>420700</v>
+        <v>436500</v>
       </c>
       <c r="I100" s="3">
-        <v>215600</v>
+        <v>223700</v>
       </c>
       <c r="J100" s="3">
-        <v>42900</v>
+        <v>44500</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="G101" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H101" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29200</v>
+        <v>-30300</v>
       </c>
       <c r="E102" s="3">
-        <v>35700</v>
+        <v>37100</v>
       </c>
       <c r="F102" s="3">
-        <v>-88700</v>
+        <v>-92100</v>
       </c>
       <c r="G102" s="3">
-        <v>-172200</v>
+        <v>-178700</v>
       </c>
       <c r="H102" s="3">
-        <v>90100</v>
+        <v>93500</v>
       </c>
       <c r="I102" s="3">
-        <v>145300</v>
+        <v>150800</v>
       </c>
       <c r="J102" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="K102" s="3">
         <v>-4700</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>331300</v>
+        <v>347000</v>
       </c>
       <c r="E8" s="3">
-        <v>325300</v>
+        <v>340800</v>
       </c>
       <c r="F8" s="3">
-        <v>318400</v>
+        <v>333500</v>
       </c>
       <c r="G8" s="3">
-        <v>1529400</v>
+        <v>1602000</v>
       </c>
       <c r="H8" s="3">
-        <v>1114100</v>
+        <v>1166900</v>
       </c>
       <c r="I8" s="3">
-        <v>513400</v>
+        <v>537700</v>
       </c>
       <c r="J8" s="3">
-        <v>283200</v>
+        <v>296600</v>
       </c>
       <c r="K8" s="3">
         <v>159700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>174300</v>
+        <v>182500</v>
       </c>
       <c r="E9" s="3">
-        <v>154700</v>
+        <v>162000</v>
       </c>
       <c r="F9" s="3">
-        <v>148700</v>
+        <v>155800</v>
       </c>
       <c r="G9" s="3">
-        <v>1436600</v>
+        <v>1504700</v>
       </c>
       <c r="H9" s="3">
-        <v>1061500</v>
+        <v>1111900</v>
       </c>
       <c r="I9" s="3">
-        <v>480500</v>
+        <v>503300</v>
       </c>
       <c r="J9" s="3">
-        <v>265700</v>
+        <v>278300</v>
       </c>
       <c r="K9" s="3">
         <v>154100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>157000</v>
+        <v>164400</v>
       </c>
       <c r="E10" s="3">
-        <v>170700</v>
+        <v>178800</v>
       </c>
       <c r="F10" s="3">
-        <v>169600</v>
+        <v>177700</v>
       </c>
       <c r="G10" s="3">
-        <v>92800</v>
+        <v>97200</v>
       </c>
       <c r="H10" s="3">
-        <v>52600</v>
+        <v>55100</v>
       </c>
       <c r="I10" s="3">
-        <v>32800</v>
+        <v>34400</v>
       </c>
       <c r="J10" s="3">
-        <v>17400</v>
+        <v>18300</v>
       </c>
       <c r="K10" s="3">
         <v>5600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>44100</v>
+        <v>46200</v>
       </c>
       <c r="E12" s="3">
-        <v>45800</v>
+        <v>48000</v>
       </c>
       <c r="F12" s="3">
-        <v>78600</v>
+        <v>82300</v>
       </c>
       <c r="G12" s="3">
-        <v>87300</v>
+        <v>91500</v>
       </c>
       <c r="H12" s="3">
-        <v>43300</v>
+        <v>45400</v>
       </c>
       <c r="I12" s="3">
-        <v>15200</v>
+        <v>16000</v>
       </c>
       <c r="J12" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="K12" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>457700</v>
+        <v>479500</v>
       </c>
       <c r="E17" s="3">
-        <v>376000</v>
+        <v>393900</v>
       </c>
       <c r="F17" s="3">
-        <v>446700</v>
+        <v>467800</v>
       </c>
       <c r="G17" s="3">
-        <v>1892300</v>
+        <v>1982100</v>
       </c>
       <c r="H17" s="3">
-        <v>1326000</v>
+        <v>1388900</v>
       </c>
       <c r="I17" s="3">
-        <v>582100</v>
+        <v>609700</v>
       </c>
       <c r="J17" s="3">
-        <v>297200</v>
+        <v>311300</v>
       </c>
       <c r="K17" s="3">
         <v>176000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-126500</v>
+        <v>-132500</v>
       </c>
       <c r="E18" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F18" s="3">
-        <v>-128300</v>
+        <v>-134400</v>
       </c>
       <c r="G18" s="3">
-        <v>-362900</v>
+        <v>-380200</v>
       </c>
       <c r="H18" s="3">
-        <v>-211900</v>
+        <v>-221900</v>
       </c>
       <c r="I18" s="3">
-        <v>-68700</v>
+        <v>-72000</v>
       </c>
       <c r="J18" s="3">
-        <v>-14100</v>
+        <v>-14800</v>
       </c>
       <c r="K18" s="3">
         <v>-16300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="E20" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="F20" s="3">
-        <v>18600</v>
+        <v>19400</v>
       </c>
       <c r="G20" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="H20" s="3">
         <v>-1200</v>
       </c>
       <c r="I20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-65700</v>
+        <v>-68700</v>
       </c>
       <c r="E21" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="F21" s="3">
-        <v>-78500</v>
+        <v>-82100</v>
       </c>
       <c r="G21" s="3">
-        <v>-321400</v>
+        <v>-336600</v>
       </c>
       <c r="H21" s="3">
-        <v>-200600</v>
+        <v>-210100</v>
       </c>
       <c r="I21" s="3">
-        <v>-63300</v>
+        <v>-66300</v>
       </c>
       <c r="J21" s="3">
-        <v>-10200</v>
+        <v>-10700</v>
       </c>
       <c r="K21" s="3">
         <v>-13800</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-105800</v>
+        <v>-110800</v>
       </c>
       <c r="E23" s="3">
-        <v>-28900</v>
+        <v>-30300</v>
       </c>
       <c r="F23" s="3">
-        <v>-109700</v>
+        <v>-115000</v>
       </c>
       <c r="G23" s="3">
-        <v>-352000</v>
+        <v>-368700</v>
       </c>
       <c r="H23" s="3">
-        <v>-213000</v>
+        <v>-223100</v>
       </c>
       <c r="I23" s="3">
-        <v>-65000</v>
+        <v>-68100</v>
       </c>
       <c r="J23" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="K23" s="3">
         <v>-15400</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-105900</v>
+        <v>-111000</v>
       </c>
       <c r="E26" s="3">
-        <v>-29000</v>
+        <v>-30300</v>
       </c>
       <c r="F26" s="3">
-        <v>-112000</v>
+        <v>-117300</v>
       </c>
       <c r="G26" s="3">
-        <v>-351800</v>
+        <v>-368500</v>
       </c>
       <c r="H26" s="3">
-        <v>-212900</v>
+        <v>-223100</v>
       </c>
       <c r="I26" s="3">
-        <v>-65000</v>
+        <v>-68100</v>
       </c>
       <c r="J26" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="K26" s="3">
         <v>-15400</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-101500</v>
+        <v>-106400</v>
       </c>
       <c r="E27" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="F27" s="3">
-        <v>-112300</v>
+        <v>-117600</v>
       </c>
       <c r="G27" s="3">
-        <v>-349600</v>
+        <v>-366200</v>
       </c>
       <c r="H27" s="3">
-        <v>-212500</v>
+        <v>-222600</v>
       </c>
       <c r="I27" s="3">
-        <v>-67300</v>
+        <v>-70500</v>
       </c>
       <c r="J27" s="3">
-        <v>-20200</v>
+        <v>-21200</v>
       </c>
       <c r="K27" s="3">
         <v>-15400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-25600</v>
+        <v>-26800</v>
       </c>
       <c r="E32" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="F32" s="3">
-        <v>-18600</v>
+        <v>-19400</v>
       </c>
       <c r="G32" s="3">
-        <v>-10900</v>
+        <v>-11400</v>
       </c>
       <c r="H32" s="3">
         <v>1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-101500</v>
+        <v>-106400</v>
       </c>
       <c r="E33" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="F33" s="3">
-        <v>-112300</v>
+        <v>-117600</v>
       </c>
       <c r="G33" s="3">
-        <v>-349600</v>
+        <v>-366200</v>
       </c>
       <c r="H33" s="3">
-        <v>-212500</v>
+        <v>-222600</v>
       </c>
       <c r="I33" s="3">
-        <v>-67300</v>
+        <v>-70500</v>
       </c>
       <c r="J33" s="3">
-        <v>-20200</v>
+        <v>-21200</v>
       </c>
       <c r="K33" s="3">
         <v>-15400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-101500</v>
+        <v>-106400</v>
       </c>
       <c r="E35" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="F35" s="3">
-        <v>-112300</v>
+        <v>-117600</v>
       </c>
       <c r="G35" s="3">
-        <v>-349600</v>
+        <v>-366200</v>
       </c>
       <c r="H35" s="3">
-        <v>-212500</v>
+        <v>-222600</v>
       </c>
       <c r="I35" s="3">
-        <v>-67300</v>
+        <v>-70500</v>
       </c>
       <c r="J35" s="3">
-        <v>-20200</v>
+        <v>-21200</v>
       </c>
       <c r="K35" s="3">
         <v>-15400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>42900</v>
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>81400</v>
+        <v>85200</v>
       </c>
       <c r="F41" s="3">
-        <v>70300</v>
+        <v>73600</v>
       </c>
       <c r="G41" s="3">
-        <v>157600</v>
+        <v>165100</v>
       </c>
       <c r="H41" s="3">
-        <v>305200</v>
+        <v>319600</v>
       </c>
       <c r="I41" s="3">
-        <v>211700</v>
+        <v>221700</v>
       </c>
       <c r="J41" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="K41" s="3">
         <v>42900</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>189600</v>
+        <v>198600</v>
       </c>
       <c r="E42" s="3">
-        <v>124800</v>
+        <v>130700</v>
       </c>
       <c r="F42" s="3">
-        <v>448000</v>
+        <v>469200</v>
       </c>
       <c r="G42" s="3">
-        <v>523300</v>
+        <v>548200</v>
       </c>
       <c r="H42" s="3">
-        <v>178100</v>
+        <v>186600</v>
       </c>
       <c r="I42" s="3">
-        <v>68100</v>
+        <v>71300</v>
       </c>
       <c r="J42" s="3">
-        <v>47500</v>
+        <v>49700</v>
       </c>
       <c r="K42" s="3">
         <v>4300</v>
@@ -1718,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>182100</v>
+        <v>190800</v>
       </c>
       <c r="E43" s="3">
-        <v>266600</v>
+        <v>279200</v>
       </c>
       <c r="F43" s="3">
-        <v>89100</v>
+        <v>93300</v>
       </c>
       <c r="G43" s="3">
-        <v>161100</v>
+        <v>168700</v>
       </c>
       <c r="H43" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="I43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>140600</v>
+        <v>147300</v>
       </c>
       <c r="E45" s="3">
-        <v>167400</v>
+        <v>175400</v>
       </c>
       <c r="F45" s="3">
-        <v>131700</v>
+        <v>138000</v>
       </c>
       <c r="G45" s="3">
-        <v>487300</v>
+        <v>510500</v>
       </c>
       <c r="H45" s="3">
-        <v>292200</v>
+        <v>306100</v>
       </c>
       <c r="I45" s="3">
-        <v>172500</v>
+        <v>180700</v>
       </c>
       <c r="J45" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="K45" s="3">
         <v>19200</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>555300</v>
+        <v>581600</v>
       </c>
       <c r="E46" s="3">
-        <v>640200</v>
+        <v>670500</v>
       </c>
       <c r="F46" s="3">
-        <v>739100</v>
+        <v>774200</v>
       </c>
       <c r="G46" s="3">
-        <v>1092300</v>
+        <v>1144100</v>
       </c>
       <c r="H46" s="3">
-        <v>804500</v>
+        <v>842600</v>
       </c>
       <c r="I46" s="3">
-        <v>371000</v>
+        <v>388600</v>
       </c>
       <c r="J46" s="3">
-        <v>151600</v>
+        <v>158800</v>
       </c>
       <c r="K46" s="3">
         <v>67300</v>
@@ -1850,16 +1850,16 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>270600</v>
+        <v>283400</v>
       </c>
       <c r="E47" s="3">
-        <v>189200</v>
+        <v>198100</v>
       </c>
       <c r="F47" s="3">
-        <v>70400</v>
+        <v>73800</v>
       </c>
       <c r="G47" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>40</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47800</v>
+        <v>50100</v>
       </c>
       <c r="E48" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="F48" s="3">
-        <v>21500</v>
+        <v>22600</v>
       </c>
       <c r="G48" s="3">
-        <v>51600</v>
+        <v>54100</v>
       </c>
       <c r="H48" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="I48" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J48" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K48" s="3">
         <v>4100</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57800</v>
+        <v>60600</v>
       </c>
       <c r="E49" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="F49" s="3">
-        <v>88300</v>
+        <v>92500</v>
       </c>
       <c r="G49" s="3">
-        <v>193500</v>
+        <v>202700</v>
       </c>
       <c r="H49" s="3">
-        <v>123800</v>
+        <v>129600</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>40</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26500</v>
+        <v>27800</v>
       </c>
       <c r="E52" s="3">
-        <v>26400</v>
+        <v>27700</v>
       </c>
       <c r="F52" s="3">
-        <v>47500</v>
+        <v>49700</v>
       </c>
       <c r="G52" s="3">
-        <v>88500</v>
+        <v>92700</v>
       </c>
       <c r="H52" s="3">
-        <v>94300</v>
+        <v>98800</v>
       </c>
       <c r="I52" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>958000</v>
+        <v>1003500</v>
       </c>
       <c r="E54" s="3">
-        <v>952300</v>
+        <v>997400</v>
       </c>
       <c r="F54" s="3">
-        <v>966900</v>
+        <v>1012800</v>
       </c>
       <c r="G54" s="3">
-        <v>1332000</v>
+        <v>1395200</v>
       </c>
       <c r="H54" s="3">
-        <v>1043600</v>
+        <v>1093200</v>
       </c>
       <c r="I54" s="3">
-        <v>384100</v>
+        <v>402400</v>
       </c>
       <c r="J54" s="3">
-        <v>156200</v>
+        <v>163600</v>
       </c>
       <c r="K54" s="3">
         <v>72100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>190500</v>
+        <v>199600</v>
       </c>
       <c r="E57" s="3">
-        <v>189600</v>
+        <v>198600</v>
       </c>
       <c r="F57" s="3">
-        <v>123800</v>
+        <v>129700</v>
       </c>
       <c r="G57" s="3">
-        <v>148500</v>
+        <v>155600</v>
       </c>
       <c r="H57" s="3">
-        <v>111400</v>
+        <v>116700</v>
       </c>
       <c r="I57" s="3">
-        <v>55600</v>
+        <v>58200</v>
       </c>
       <c r="J57" s="3">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="K57" s="3">
         <v>18300</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>40</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>324300</v>
+        <v>339700</v>
       </c>
       <c r="E59" s="3">
-        <v>253800</v>
+        <v>265900</v>
       </c>
       <c r="F59" s="3">
-        <v>300500</v>
+        <v>314700</v>
       </c>
       <c r="G59" s="3">
-        <v>594500</v>
+        <v>622700</v>
       </c>
       <c r="H59" s="3">
-        <v>439100</v>
+        <v>459900</v>
       </c>
       <c r="I59" s="3">
-        <v>136700</v>
+        <v>143200</v>
       </c>
       <c r="J59" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="K59" s="3">
         <v>42300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>544400</v>
+        <v>570300</v>
       </c>
       <c r="E60" s="3">
-        <v>450600</v>
+        <v>472000</v>
       </c>
       <c r="F60" s="3">
-        <v>424300</v>
+        <v>444400</v>
       </c>
       <c r="G60" s="3">
-        <v>657500</v>
+        <v>688600</v>
       </c>
       <c r="H60" s="3">
-        <v>550500</v>
+        <v>576600</v>
       </c>
       <c r="I60" s="3">
-        <v>176300</v>
+        <v>184700</v>
       </c>
       <c r="J60" s="3">
-        <v>111000</v>
+        <v>116200</v>
       </c>
       <c r="K60" s="3">
         <v>60600</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="E62" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F62" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="G62" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="H62" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="I62" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>564400</v>
+        <v>591100</v>
       </c>
       <c r="E66" s="3">
-        <v>465700</v>
+        <v>487800</v>
       </c>
       <c r="F66" s="3">
-        <v>444800</v>
+        <v>465900</v>
       </c>
       <c r="G66" s="3">
-        <v>678600</v>
+        <v>710800</v>
       </c>
       <c r="H66" s="3">
-        <v>561300</v>
+        <v>587900</v>
       </c>
       <c r="I66" s="3">
-        <v>179500</v>
+        <v>188100</v>
       </c>
       <c r="J66" s="3">
-        <v>113900</v>
+        <v>119300</v>
       </c>
       <c r="K66" s="3">
         <v>62200</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>104000</v>
+        <v>109000</v>
       </c>
       <c r="K70" s="3">
         <v>50300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-927400</v>
+        <v>-971400</v>
       </c>
       <c r="E72" s="3">
-        <v>-826600</v>
+        <v>-865800</v>
       </c>
       <c r="F72" s="3">
-        <v>-799600</v>
+        <v>-837600</v>
       </c>
       <c r="G72" s="3">
-        <v>-688200</v>
+        <v>-720800</v>
       </c>
       <c r="H72" s="3">
-        <v>-338200</v>
+        <v>-354200</v>
       </c>
       <c r="I72" s="3">
-        <v>-126200</v>
+        <v>-132200</v>
       </c>
       <c r="J72" s="3">
-        <v>-58900</v>
+        <v>-61700</v>
       </c>
       <c r="K72" s="3">
         <v>-38200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>393700</v>
+        <v>412300</v>
       </c>
       <c r="E76" s="3">
-        <v>486600</v>
+        <v>509700</v>
       </c>
       <c r="F76" s="3">
-        <v>522100</v>
+        <v>546900</v>
       </c>
       <c r="G76" s="3">
-        <v>653400</v>
+        <v>684400</v>
       </c>
       <c r="H76" s="3">
-        <v>482400</v>
+        <v>505300</v>
       </c>
       <c r="I76" s="3">
-        <v>204600</v>
+        <v>214300</v>
       </c>
       <c r="J76" s="3">
-        <v>-61700</v>
+        <v>-64700</v>
       </c>
       <c r="K76" s="3">
         <v>-40300</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-101500</v>
+        <v>-106400</v>
       </c>
       <c r="E81" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="F81" s="3">
-        <v>-112300</v>
+        <v>-117600</v>
       </c>
       <c r="G81" s="3">
-        <v>-349600</v>
+        <v>-366200</v>
       </c>
       <c r="H81" s="3">
-        <v>-212500</v>
+        <v>-222600</v>
       </c>
       <c r="I81" s="3">
-        <v>-67300</v>
+        <v>-70500</v>
       </c>
       <c r="J81" s="3">
-        <v>-20200</v>
+        <v>-21200</v>
       </c>
       <c r="K81" s="3">
         <v>-15400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35300</v>
+        <v>36900</v>
       </c>
       <c r="E83" s="3">
-        <v>32000</v>
+        <v>33500</v>
       </c>
       <c r="F83" s="3">
-        <v>31300</v>
+        <v>32800</v>
       </c>
       <c r="G83" s="3">
-        <v>30700</v>
+        <v>32200</v>
       </c>
       <c r="H83" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>1500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17500</v>
+        <v>-18300</v>
       </c>
       <c r="E89" s="3">
-        <v>38900</v>
+        <v>40800</v>
       </c>
       <c r="F89" s="3">
-        <v>-60800</v>
+        <v>-63700</v>
       </c>
       <c r="G89" s="3">
-        <v>-325200</v>
+        <v>-340700</v>
       </c>
       <c r="H89" s="3">
-        <v>-74800</v>
+        <v>-78300</v>
       </c>
       <c r="I89" s="3">
-        <v>-39400</v>
+        <v>-41200</v>
       </c>
       <c r="J89" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="K89" s="3">
         <v>2100</v>
@@ -3151,22 +3151,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17800</v>
+        <v>-18600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17300</v>
+        <v>-18200</v>
       </c>
       <c r="F91" s="3">
-        <v>-23300</v>
+        <v>-24400</v>
       </c>
       <c r="G91" s="3">
-        <v>-17100</v>
+        <v>-17900</v>
       </c>
       <c r="H91" s="3">
-        <v>-22600</v>
+        <v>-23700</v>
       </c>
       <c r="I91" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84000</v>
+        <v>-87900</v>
       </c>
       <c r="E94" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="F94" s="3">
-        <v>89400</v>
+        <v>93600</v>
       </c>
       <c r="G94" s="3">
-        <v>-396300</v>
+        <v>-415100</v>
       </c>
       <c r="H94" s="3">
-        <v>-278100</v>
+        <v>-291300</v>
       </c>
       <c r="I94" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="J94" s="3">
-        <v>-44200</v>
+        <v>-46300</v>
       </c>
       <c r="K94" s="3">
         <v>-6700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>70500</v>
+        <v>73800</v>
       </c>
       <c r="E100" s="3">
-        <v>-21100</v>
+        <v>-22100</v>
       </c>
       <c r="F100" s="3">
-        <v>-114000</v>
+        <v>-119400</v>
       </c>
       <c r="G100" s="3">
-        <v>526800</v>
+        <v>551700</v>
       </c>
       <c r="H100" s="3">
-        <v>436500</v>
+        <v>457200</v>
       </c>
       <c r="I100" s="3">
-        <v>223700</v>
+        <v>234300</v>
       </c>
       <c r="J100" s="3">
-        <v>44500</v>
+        <v>46600</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G101" s="3">
-        <v>16100</v>
+        <v>16800</v>
       </c>
       <c r="H101" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="I101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30300</v>
+        <v>-31700</v>
       </c>
       <c r="E102" s="3">
-        <v>37100</v>
+        <v>38800</v>
       </c>
       <c r="F102" s="3">
-        <v>-92100</v>
+        <v>-96400</v>
       </c>
       <c r="G102" s="3">
-        <v>-178700</v>
+        <v>-187200</v>
       </c>
       <c r="H102" s="3">
-        <v>93500</v>
+        <v>97900</v>
       </c>
       <c r="I102" s="3">
-        <v>150800</v>
+        <v>157900</v>
       </c>
       <c r="J102" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="K102" s="3">
         <v>-4700</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>347000</v>
+        <v>68800</v>
       </c>
       <c r="E8" s="3">
-        <v>340800</v>
+        <v>348500</v>
       </c>
       <c r="F8" s="3">
-        <v>333500</v>
+        <v>342200</v>
       </c>
       <c r="G8" s="3">
-        <v>1602000</v>
+        <v>334900</v>
       </c>
       <c r="H8" s="3">
-        <v>1166900</v>
+        <v>1608900</v>
       </c>
       <c r="I8" s="3">
-        <v>537700</v>
+        <v>1172000</v>
       </c>
       <c r="J8" s="3">
+        <v>540100</v>
+      </c>
+      <c r="K8" s="3">
         <v>296600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>159700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>182500</v>
+        <v>36200</v>
       </c>
       <c r="E9" s="3">
-        <v>162000</v>
+        <v>183300</v>
       </c>
       <c r="F9" s="3">
-        <v>155800</v>
+        <v>162700</v>
       </c>
       <c r="G9" s="3">
-        <v>1504700</v>
+        <v>156500</v>
       </c>
       <c r="H9" s="3">
-        <v>1111900</v>
+        <v>1511300</v>
       </c>
       <c r="I9" s="3">
-        <v>503300</v>
+        <v>1116700</v>
       </c>
       <c r="J9" s="3">
+        <v>505500</v>
+      </c>
+      <c r="K9" s="3">
         <v>278300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>154100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>110100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>164400</v>
+        <v>32600</v>
       </c>
       <c r="E10" s="3">
-        <v>178800</v>
+        <v>165200</v>
       </c>
       <c r="F10" s="3">
-        <v>177700</v>
+        <v>179500</v>
       </c>
       <c r="G10" s="3">
-        <v>97200</v>
+        <v>178400</v>
       </c>
       <c r="H10" s="3">
-        <v>55100</v>
+        <v>97700</v>
       </c>
       <c r="I10" s="3">
-        <v>34400</v>
+        <v>55300</v>
       </c>
       <c r="J10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K10" s="3">
         <v>18300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46200</v>
+        <v>14900</v>
       </c>
       <c r="E12" s="3">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="F12" s="3">
-        <v>82300</v>
+        <v>48200</v>
       </c>
       <c r="G12" s="3">
-        <v>91500</v>
+        <v>82700</v>
       </c>
       <c r="H12" s="3">
-        <v>45400</v>
+        <v>91900</v>
       </c>
       <c r="I12" s="3">
+        <v>45600</v>
+      </c>
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,32 +942,35 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>479500</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="3">
-        <v>393900</v>
+        <v>481500</v>
       </c>
       <c r="F17" s="3">
-        <v>467800</v>
+        <v>395600</v>
       </c>
       <c r="G17" s="3">
-        <v>1982100</v>
+        <v>469900</v>
       </c>
       <c r="H17" s="3">
-        <v>1388900</v>
+        <v>1990700</v>
       </c>
       <c r="I17" s="3">
-        <v>609700</v>
+        <v>1394900</v>
       </c>
       <c r="J17" s="3">
+        <v>612300</v>
+      </c>
+      <c r="K17" s="3">
         <v>311300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>176000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>128500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-132500</v>
+        <v>-204800</v>
       </c>
       <c r="E18" s="3">
-        <v>-53100</v>
+        <v>-133000</v>
       </c>
       <c r="F18" s="3">
-        <v>-134400</v>
+        <v>-53300</v>
       </c>
       <c r="G18" s="3">
-        <v>-380200</v>
+        <v>-135000</v>
       </c>
       <c r="H18" s="3">
-        <v>-221900</v>
+        <v>-381800</v>
       </c>
       <c r="I18" s="3">
-        <v>-72000</v>
+        <v>-222900</v>
       </c>
       <c r="J18" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,83 +1082,90 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>26800</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
-        <v>22800</v>
+        <v>27000</v>
       </c>
       <c r="F20" s="3">
-        <v>19400</v>
+        <v>22900</v>
       </c>
       <c r="G20" s="3">
-        <v>11400</v>
+        <v>19500</v>
       </c>
       <c r="H20" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-68700</v>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>3200</v>
+        <v>-68900</v>
       </c>
       <c r="F21" s="3">
-        <v>-82100</v>
+        <v>3300</v>
       </c>
       <c r="G21" s="3">
-        <v>-336600</v>
+        <v>-82400</v>
       </c>
       <c r="H21" s="3">
-        <v>-210100</v>
+        <v>-337900</v>
       </c>
       <c r="I21" s="3">
-        <v>-66300</v>
+        <v>-210900</v>
       </c>
       <c r="J21" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1142,69 +1181,75 @@
       <c r="J22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-110800</v>
+        <v>-206300</v>
       </c>
       <c r="E23" s="3">
-        <v>-30300</v>
+        <v>-111300</v>
       </c>
       <c r="F23" s="3">
-        <v>-115000</v>
+        <v>-30400</v>
       </c>
       <c r="G23" s="3">
-        <v>-368700</v>
+        <v>-115500</v>
       </c>
       <c r="H23" s="3">
-        <v>-223100</v>
+        <v>-370300</v>
       </c>
       <c r="I23" s="3">
-        <v>-68100</v>
+        <v>-224100</v>
       </c>
       <c r="J23" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1214,9 +1259,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-111000</v>
+        <v>-205300</v>
       </c>
       <c r="E26" s="3">
-        <v>-30300</v>
+        <v>-111400</v>
       </c>
       <c r="F26" s="3">
-        <v>-117300</v>
+        <v>-30500</v>
       </c>
       <c r="G26" s="3">
-        <v>-368500</v>
+        <v>-117800</v>
       </c>
       <c r="H26" s="3">
-        <v>-223100</v>
+        <v>-370100</v>
       </c>
       <c r="I26" s="3">
-        <v>-68100</v>
+        <v>-224000</v>
       </c>
       <c r="J26" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-106400</v>
+        <v>-199800</v>
       </c>
       <c r="E27" s="3">
-        <v>-28600</v>
+        <v>-106800</v>
       </c>
       <c r="F27" s="3">
-        <v>-117600</v>
+        <v>-28700</v>
       </c>
       <c r="G27" s="3">
-        <v>-366200</v>
+        <v>-118100</v>
       </c>
       <c r="H27" s="3">
-        <v>-222600</v>
+        <v>-367800</v>
       </c>
       <c r="I27" s="3">
-        <v>-70500</v>
+        <v>-223600</v>
       </c>
       <c r="J27" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-26800</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22800</v>
+        <v>-27000</v>
       </c>
       <c r="F32" s="3">
-        <v>-19400</v>
+        <v>-22900</v>
       </c>
       <c r="G32" s="3">
-        <v>-11400</v>
+        <v>-19500</v>
       </c>
       <c r="H32" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-106400</v>
+        <v>-199800</v>
       </c>
       <c r="E33" s="3">
-        <v>-28600</v>
+        <v>-106800</v>
       </c>
       <c r="F33" s="3">
-        <v>-117600</v>
+        <v>-28700</v>
       </c>
       <c r="G33" s="3">
-        <v>-366200</v>
+        <v>-118100</v>
       </c>
       <c r="H33" s="3">
-        <v>-222600</v>
+        <v>-367800</v>
       </c>
       <c r="I33" s="3">
-        <v>-70500</v>
+        <v>-223600</v>
       </c>
       <c r="J33" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-106400</v>
+        <v>-199800</v>
       </c>
       <c r="E35" s="3">
-        <v>-28600</v>
+        <v>-106800</v>
       </c>
       <c r="F35" s="3">
-        <v>-117600</v>
+        <v>-28700</v>
       </c>
       <c r="G35" s="3">
-        <v>-366200</v>
+        <v>-118100</v>
       </c>
       <c r="H35" s="3">
-        <v>-222600</v>
+        <v>-367800</v>
       </c>
       <c r="I35" s="3">
-        <v>-70500</v>
+        <v>-223600</v>
       </c>
       <c r="J35" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,107 +1731,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>44900</v>
+        <v>32600</v>
       </c>
       <c r="E41" s="3">
-        <v>85200</v>
+        <v>45100</v>
       </c>
       <c r="F41" s="3">
-        <v>73600</v>
+        <v>85600</v>
       </c>
       <c r="G41" s="3">
-        <v>165100</v>
+        <v>74000</v>
       </c>
       <c r="H41" s="3">
-        <v>319600</v>
+        <v>165800</v>
       </c>
       <c r="I41" s="3">
-        <v>221700</v>
+        <v>321000</v>
       </c>
       <c r="J41" s="3">
+        <v>222700</v>
+      </c>
+      <c r="K41" s="3">
         <v>63800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>198600</v>
+        <v>206800</v>
       </c>
       <c r="E42" s="3">
-        <v>130700</v>
+        <v>199400</v>
       </c>
       <c r="F42" s="3">
-        <v>469200</v>
+        <v>131300</v>
       </c>
       <c r="G42" s="3">
-        <v>548200</v>
+        <v>471300</v>
       </c>
       <c r="H42" s="3">
-        <v>186600</v>
+        <v>550500</v>
       </c>
       <c r="I42" s="3">
-        <v>71300</v>
+        <v>187400</v>
       </c>
       <c r="J42" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K42" s="3">
         <v>49700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>190800</v>
+        <v>44000</v>
       </c>
       <c r="E43" s="3">
-        <v>279200</v>
+        <v>191600</v>
       </c>
       <c r="F43" s="3">
-        <v>93300</v>
+        <v>280400</v>
       </c>
       <c r="G43" s="3">
-        <v>168700</v>
+        <v>93700</v>
       </c>
       <c r="H43" s="3">
-        <v>30400</v>
+        <v>169400</v>
       </c>
       <c r="I43" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1777,92 +1872,101 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>147300</v>
+        <v>65600</v>
       </c>
       <c r="E45" s="3">
-        <v>175400</v>
+        <v>147900</v>
       </c>
       <c r="F45" s="3">
-        <v>138000</v>
+        <v>176100</v>
       </c>
       <c r="G45" s="3">
-        <v>510500</v>
+        <v>138600</v>
       </c>
       <c r="H45" s="3">
-        <v>306100</v>
+        <v>512700</v>
       </c>
       <c r="I45" s="3">
-        <v>180700</v>
+        <v>307400</v>
       </c>
       <c r="J45" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K45" s="3">
         <v>44400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>581600</v>
+        <v>349000</v>
       </c>
       <c r="E46" s="3">
-        <v>670500</v>
+        <v>584100</v>
       </c>
       <c r="F46" s="3">
-        <v>774200</v>
+        <v>673400</v>
       </c>
       <c r="G46" s="3">
-        <v>1144100</v>
+        <v>777500</v>
       </c>
       <c r="H46" s="3">
-        <v>842600</v>
+        <v>1149100</v>
       </c>
       <c r="I46" s="3">
-        <v>388600</v>
+        <v>846300</v>
       </c>
       <c r="J46" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K46" s="3">
         <v>158800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>283400</v>
+        <v>40800</v>
       </c>
       <c r="E47" s="3">
-        <v>198100</v>
+        <v>284700</v>
       </c>
       <c r="F47" s="3">
-        <v>73800</v>
+        <v>199000</v>
       </c>
       <c r="G47" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>40</v>
+        <v>74100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>18900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>40</v>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50100</v>
+        <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>28500</v>
+        <v>50300</v>
       </c>
       <c r="F48" s="3">
-        <v>22600</v>
+        <v>28600</v>
       </c>
       <c r="G48" s="3">
-        <v>54100</v>
+        <v>22700</v>
       </c>
       <c r="H48" s="3">
+        <v>54300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J48" s="3">
         <v>22100</v>
       </c>
-      <c r="I48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="E49" s="3">
-        <v>72600</v>
+        <v>60800</v>
       </c>
       <c r="F49" s="3">
-        <v>92500</v>
+        <v>72900</v>
       </c>
       <c r="G49" s="3">
-        <v>202700</v>
+        <v>92900</v>
       </c>
       <c r="H49" s="3">
-        <v>129600</v>
+        <v>203500</v>
       </c>
       <c r="I49" s="3">
+        <v>130200</v>
+      </c>
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F52" s="3">
         <v>27800</v>
       </c>
-      <c r="E52" s="3">
-        <v>27700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>49700</v>
-      </c>
       <c r="G52" s="3">
-        <v>92700</v>
+        <v>50000</v>
       </c>
       <c r="H52" s="3">
-        <v>98800</v>
+        <v>93100</v>
       </c>
       <c r="I52" s="3">
+        <v>99200</v>
+      </c>
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1003500</v>
+        <v>488400</v>
       </c>
       <c r="E54" s="3">
-        <v>997400</v>
+        <v>1007800</v>
       </c>
       <c r="F54" s="3">
-        <v>1012800</v>
+        <v>1001800</v>
       </c>
       <c r="G54" s="3">
-        <v>1395200</v>
+        <v>1017200</v>
       </c>
       <c r="H54" s="3">
-        <v>1093200</v>
+        <v>1401200</v>
       </c>
       <c r="I54" s="3">
-        <v>402400</v>
+        <v>1097900</v>
       </c>
       <c r="J54" s="3">
+        <v>404100</v>
+      </c>
+      <c r="K54" s="3">
         <v>163600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,149 +2267,162 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>199600</v>
+        <v>107800</v>
       </c>
       <c r="E57" s="3">
-        <v>198600</v>
+        <v>200400</v>
       </c>
       <c r="F57" s="3">
-        <v>129700</v>
+        <v>199500</v>
       </c>
       <c r="G57" s="3">
-        <v>155600</v>
+        <v>130200</v>
       </c>
       <c r="H57" s="3">
-        <v>116700</v>
+        <v>156200</v>
       </c>
       <c r="I57" s="3">
-        <v>58200</v>
+        <v>117200</v>
       </c>
       <c r="J57" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K57" s="3">
         <v>44000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31000</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>40</v>
+      <c r="I58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>339700</v>
+        <v>149400</v>
       </c>
       <c r="E59" s="3">
-        <v>265900</v>
+        <v>341200</v>
       </c>
       <c r="F59" s="3">
-        <v>314700</v>
+        <v>267000</v>
       </c>
       <c r="G59" s="3">
-        <v>622700</v>
+        <v>316100</v>
       </c>
       <c r="H59" s="3">
-        <v>459900</v>
+        <v>625400</v>
       </c>
       <c r="I59" s="3">
-        <v>143200</v>
+        <v>461900</v>
       </c>
       <c r="J59" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K59" s="3">
         <v>72600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>570300</v>
+        <v>266500</v>
       </c>
       <c r="E60" s="3">
-        <v>472000</v>
+        <v>572700</v>
       </c>
       <c r="F60" s="3">
-        <v>444400</v>
+        <v>474000</v>
       </c>
       <c r="G60" s="3">
-        <v>688600</v>
+        <v>446300</v>
       </c>
       <c r="H60" s="3">
-        <v>576600</v>
+        <v>691600</v>
       </c>
       <c r="I60" s="3">
-        <v>184700</v>
+        <v>579100</v>
       </c>
       <c r="J60" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K60" s="3">
         <v>116200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3">
-        <v>6100</v>
-      </c>
       <c r="F62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G62" s="3">
         <v>6500</v>
       </c>
-      <c r="G62" s="3">
-        <v>11900</v>
-      </c>
       <c r="H62" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>591100</v>
+        <v>276800</v>
       </c>
       <c r="E66" s="3">
-        <v>487800</v>
+        <v>593700</v>
       </c>
       <c r="F66" s="3">
-        <v>465900</v>
+        <v>489900</v>
       </c>
       <c r="G66" s="3">
-        <v>710800</v>
+        <v>467900</v>
       </c>
       <c r="H66" s="3">
-        <v>587900</v>
+        <v>713900</v>
       </c>
       <c r="I66" s="3">
-        <v>188100</v>
+        <v>590500</v>
       </c>
       <c r="J66" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K66" s="3">
         <v>119300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2573,17 +2740,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>109000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>50300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>52100</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-971400</v>
+        <v>-1178400</v>
       </c>
       <c r="E72" s="3">
-        <v>-865800</v>
+        <v>-975600</v>
       </c>
       <c r="F72" s="3">
-        <v>-837600</v>
+        <v>-869500</v>
       </c>
       <c r="G72" s="3">
-        <v>-720800</v>
+        <v>-841200</v>
       </c>
       <c r="H72" s="3">
-        <v>-354200</v>
+        <v>-724000</v>
       </c>
       <c r="I72" s="3">
-        <v>-132200</v>
+        <v>-355700</v>
       </c>
       <c r="J72" s="3">
+        <v>-132800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-61700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>412300</v>
+        <v>211600</v>
       </c>
       <c r="E76" s="3">
-        <v>509700</v>
+        <v>414100</v>
       </c>
       <c r="F76" s="3">
-        <v>546900</v>
+        <v>511900</v>
       </c>
       <c r="G76" s="3">
-        <v>684400</v>
+        <v>549300</v>
       </c>
       <c r="H76" s="3">
-        <v>505300</v>
+        <v>687300</v>
       </c>
       <c r="I76" s="3">
-        <v>214300</v>
+        <v>507400</v>
       </c>
       <c r="J76" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-64700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-40300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-25900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-106400</v>
+        <v>-199800</v>
       </c>
       <c r="E81" s="3">
-        <v>-28600</v>
+        <v>-106800</v>
       </c>
       <c r="F81" s="3">
-        <v>-117600</v>
+        <v>-28700</v>
       </c>
       <c r="G81" s="3">
-        <v>-366200</v>
+        <v>-118100</v>
       </c>
       <c r="H81" s="3">
-        <v>-222600</v>
+        <v>-367800</v>
       </c>
       <c r="I81" s="3">
-        <v>-70500</v>
+        <v>-223600</v>
       </c>
       <c r="J81" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>36900</v>
+      <c r="D83" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E83" s="3">
-        <v>33500</v>
+        <v>37100</v>
       </c>
       <c r="F83" s="3">
-        <v>32800</v>
+        <v>33600</v>
       </c>
       <c r="G83" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="H83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-18300</v>
+      <c r="D89" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E89" s="3">
-        <v>40800</v>
+        <v>-18400</v>
       </c>
       <c r="F89" s="3">
-        <v>-63700</v>
+        <v>41000</v>
       </c>
       <c r="G89" s="3">
-        <v>-340700</v>
+        <v>-64000</v>
       </c>
       <c r="H89" s="3">
-        <v>-78300</v>
+        <v>-342100</v>
       </c>
       <c r="I89" s="3">
-        <v>-41200</v>
+        <v>-78600</v>
       </c>
       <c r="J89" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K89" s="3">
         <v>17800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-18600</v>
+      <c r="D91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-24400</v>
-      </c>
       <c r="G91" s="3">
-        <v>-17900</v>
+        <v>-24500</v>
       </c>
       <c r="H91" s="3">
-        <v>-23700</v>
+        <v>-18000</v>
       </c>
       <c r="I91" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-87900</v>
+      <c r="D94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E94" s="3">
-        <v>23400</v>
+        <v>-88300</v>
       </c>
       <c r="F94" s="3">
-        <v>93600</v>
+        <v>23500</v>
       </c>
       <c r="G94" s="3">
-        <v>-415100</v>
+        <v>94000</v>
       </c>
       <c r="H94" s="3">
-        <v>-291300</v>
+        <v>-416900</v>
       </c>
       <c r="I94" s="3">
-        <v>-34700</v>
+        <v>-292600</v>
       </c>
       <c r="J94" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-46300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>73800</v>
+      <c r="D100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E100" s="3">
-        <v>-22100</v>
+        <v>74100</v>
       </c>
       <c r="F100" s="3">
-        <v>-119400</v>
+        <v>-22200</v>
       </c>
       <c r="G100" s="3">
-        <v>551700</v>
+        <v>-119900</v>
       </c>
       <c r="H100" s="3">
-        <v>457200</v>
+        <v>554100</v>
       </c>
       <c r="I100" s="3">
-        <v>234300</v>
+        <v>459200</v>
       </c>
       <c r="J100" s="3">
+        <v>235300</v>
+      </c>
+      <c r="K100" s="3">
         <v>46600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
-        <v>16800</v>
-      </c>
       <c r="H101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I101" s="3">
         <v>10300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-31700</v>
+      <c r="D102" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E102" s="3">
-        <v>38800</v>
+        <v>-31900</v>
       </c>
       <c r="F102" s="3">
-        <v>-96400</v>
+        <v>39000</v>
       </c>
       <c r="G102" s="3">
-        <v>-187200</v>
+        <v>-96800</v>
       </c>
       <c r="H102" s="3">
-        <v>97900</v>
+        <v>-188000</v>
       </c>
       <c r="I102" s="3">
-        <v>157900</v>
+        <v>98300</v>
       </c>
       <c r="J102" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K102" s="3">
         <v>18300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>68800</v>
+        <v>70200</v>
       </c>
       <c r="E8" s="3">
-        <v>348500</v>
+        <v>355900</v>
       </c>
       <c r="F8" s="3">
-        <v>342200</v>
+        <v>349500</v>
       </c>
       <c r="G8" s="3">
-        <v>334900</v>
+        <v>342000</v>
       </c>
       <c r="H8" s="3">
-        <v>1608900</v>
+        <v>1642900</v>
       </c>
       <c r="I8" s="3">
-        <v>1172000</v>
+        <v>1196800</v>
       </c>
       <c r="J8" s="3">
-        <v>540100</v>
+        <v>551500</v>
       </c>
       <c r="K8" s="3">
         <v>296600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="E9" s="3">
-        <v>183300</v>
+        <v>187200</v>
       </c>
       <c r="F9" s="3">
-        <v>162700</v>
+        <v>166200</v>
       </c>
       <c r="G9" s="3">
-        <v>156500</v>
+        <v>159800</v>
       </c>
       <c r="H9" s="3">
-        <v>1511300</v>
+        <v>1543200</v>
       </c>
       <c r="I9" s="3">
-        <v>1116700</v>
+        <v>1140300</v>
       </c>
       <c r="J9" s="3">
-        <v>505500</v>
+        <v>516200</v>
       </c>
       <c r="K9" s="3">
         <v>278300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32600</v>
+        <v>33300</v>
       </c>
       <c r="E10" s="3">
-        <v>165200</v>
+        <v>168600</v>
       </c>
       <c r="F10" s="3">
-        <v>179500</v>
+        <v>183300</v>
       </c>
       <c r="G10" s="3">
-        <v>178400</v>
+        <v>182200</v>
       </c>
       <c r="H10" s="3">
-        <v>97700</v>
+        <v>99700</v>
       </c>
       <c r="I10" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="J10" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="K10" s="3">
         <v>18300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14900</v>
+        <v>15700</v>
       </c>
       <c r="E12" s="3">
-        <v>46400</v>
+        <v>47400</v>
       </c>
       <c r="F12" s="3">
-        <v>48200</v>
+        <v>49200</v>
       </c>
       <c r="G12" s="3">
-        <v>82700</v>
+        <v>84400</v>
       </c>
       <c r="H12" s="3">
-        <v>91900</v>
+        <v>93800</v>
       </c>
       <c r="I12" s="3">
-        <v>45600</v>
+        <v>46500</v>
       </c>
       <c r="J12" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>273600</v>
+        <v>279400</v>
       </c>
       <c r="E17" s="3">
-        <v>481500</v>
+        <v>491700</v>
       </c>
       <c r="F17" s="3">
-        <v>395600</v>
+        <v>403900</v>
       </c>
       <c r="G17" s="3">
-        <v>469900</v>
+        <v>479800</v>
       </c>
       <c r="H17" s="3">
-        <v>1990700</v>
+        <v>2032800</v>
       </c>
       <c r="I17" s="3">
-        <v>1394900</v>
+        <v>1424400</v>
       </c>
       <c r="J17" s="3">
-        <v>612300</v>
+        <v>625300</v>
       </c>
       <c r="K17" s="3">
         <v>311300</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-204800</v>
+        <v>-209200</v>
       </c>
       <c r="E18" s="3">
-        <v>-133000</v>
+        <v>-135900</v>
       </c>
       <c r="F18" s="3">
-        <v>-53300</v>
+        <v>-54400</v>
       </c>
       <c r="G18" s="3">
-        <v>-135000</v>
+        <v>-137800</v>
       </c>
       <c r="H18" s="3">
-        <v>-381800</v>
+        <v>-389900</v>
       </c>
       <c r="I18" s="3">
-        <v>-222900</v>
+        <v>-227600</v>
       </c>
       <c r="J18" s="3">
-        <v>-72300</v>
+        <v>-73800</v>
       </c>
       <c r="K18" s="3">
         <v>-14800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="F20" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="G20" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="H20" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="3">
         <v>-1200</v>
       </c>
       <c r="J20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K20" s="3">
         <v>2600</v>
@@ -1124,26 +1124,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
+      <c r="D21" s="3">
+        <v>-175300</v>
       </c>
       <c r="E21" s="3">
-        <v>-68900</v>
+        <v>-70500</v>
       </c>
       <c r="F21" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G21" s="3">
-        <v>-82400</v>
+        <v>-84300</v>
       </c>
       <c r="H21" s="3">
-        <v>-337900</v>
+        <v>-345200</v>
       </c>
       <c r="I21" s="3">
-        <v>-210900</v>
+        <v>-215500</v>
       </c>
       <c r="J21" s="3">
-        <v>-66600</v>
+        <v>-68000</v>
       </c>
       <c r="K21" s="3">
         <v>-10700</v>
@@ -1161,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>40</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-206300</v>
+        <v>-210700</v>
       </c>
       <c r="E23" s="3">
-        <v>-111300</v>
+        <v>-113600</v>
       </c>
       <c r="F23" s="3">
-        <v>-30400</v>
+        <v>-31100</v>
       </c>
       <c r="G23" s="3">
-        <v>-115500</v>
+        <v>-117900</v>
       </c>
       <c r="H23" s="3">
-        <v>-370300</v>
+        <v>-378200</v>
       </c>
       <c r="I23" s="3">
-        <v>-224100</v>
+        <v>-228800</v>
       </c>
       <c r="J23" s="3">
-        <v>-68400</v>
+        <v>-69900</v>
       </c>
       <c r="K23" s="3">
         <v>-12100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-205300</v>
+        <v>-209600</v>
       </c>
       <c r="E26" s="3">
-        <v>-111400</v>
+        <v>-113800</v>
       </c>
       <c r="F26" s="3">
-        <v>-30500</v>
+        <v>-31100</v>
       </c>
       <c r="G26" s="3">
-        <v>-117800</v>
+        <v>-120300</v>
       </c>
       <c r="H26" s="3">
-        <v>-370100</v>
+        <v>-377900</v>
       </c>
       <c r="I26" s="3">
-        <v>-224000</v>
+        <v>-228800</v>
       </c>
       <c r="J26" s="3">
-        <v>-68400</v>
+        <v>-69900</v>
       </c>
       <c r="K26" s="3">
         <v>-12100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-199800</v>
+        <v>-204100</v>
       </c>
       <c r="E27" s="3">
-        <v>-106800</v>
+        <v>-109100</v>
       </c>
       <c r="F27" s="3">
-        <v>-28700</v>
+        <v>-29300</v>
       </c>
       <c r="G27" s="3">
-        <v>-118100</v>
+        <v>-120600</v>
       </c>
       <c r="H27" s="3">
-        <v>-367800</v>
+        <v>-375600</v>
       </c>
       <c r="I27" s="3">
-        <v>-223600</v>
+        <v>-228300</v>
       </c>
       <c r="J27" s="3">
-        <v>-70800</v>
+        <v>-72300</v>
       </c>
       <c r="K27" s="3">
         <v>-21200</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27000</v>
+        <v>-27500</v>
       </c>
       <c r="F32" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="G32" s="3">
-        <v>-19500</v>
+        <v>-19900</v>
       </c>
       <c r="H32" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="I32" s="3">
         <v>1200</v>
       </c>
       <c r="J32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K32" s="3">
         <v>-2600</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-199800</v>
+        <v>-204100</v>
       </c>
       <c r="E33" s="3">
-        <v>-106800</v>
+        <v>-109100</v>
       </c>
       <c r="F33" s="3">
-        <v>-28700</v>
+        <v>-29300</v>
       </c>
       <c r="G33" s="3">
-        <v>-118100</v>
+        <v>-120600</v>
       </c>
       <c r="H33" s="3">
-        <v>-367800</v>
+        <v>-375600</v>
       </c>
       <c r="I33" s="3">
-        <v>-223600</v>
+        <v>-228300</v>
       </c>
       <c r="J33" s="3">
-        <v>-70800</v>
+        <v>-72300</v>
       </c>
       <c r="K33" s="3">
         <v>-21200</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-199800</v>
+        <v>-204100</v>
       </c>
       <c r="E35" s="3">
-        <v>-106800</v>
+        <v>-109100</v>
       </c>
       <c r="F35" s="3">
-        <v>-28700</v>
+        <v>-29300</v>
       </c>
       <c r="G35" s="3">
-        <v>-118100</v>
+        <v>-120600</v>
       </c>
       <c r="H35" s="3">
-        <v>-367800</v>
+        <v>-375600</v>
       </c>
       <c r="I35" s="3">
-        <v>-223600</v>
+        <v>-228300</v>
       </c>
       <c r="J35" s="3">
-        <v>-70800</v>
+        <v>-72300</v>
       </c>
       <c r="K35" s="3">
         <v>-21200</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>32600</v>
+        <v>33300</v>
       </c>
       <c r="E41" s="3">
-        <v>45100</v>
+        <v>46100</v>
       </c>
       <c r="F41" s="3">
-        <v>85600</v>
+        <v>87400</v>
       </c>
       <c r="G41" s="3">
-        <v>74000</v>
+        <v>75500</v>
       </c>
       <c r="H41" s="3">
-        <v>165800</v>
+        <v>169300</v>
       </c>
       <c r="I41" s="3">
-        <v>321000</v>
+        <v>327800</v>
       </c>
       <c r="J41" s="3">
-        <v>222700</v>
+        <v>227400</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>206800</v>
+        <v>211200</v>
       </c>
       <c r="E42" s="3">
-        <v>199400</v>
+        <v>203700</v>
       </c>
       <c r="F42" s="3">
-        <v>131300</v>
+        <v>134000</v>
       </c>
       <c r="G42" s="3">
-        <v>471300</v>
+        <v>481200</v>
       </c>
       <c r="H42" s="3">
-        <v>550500</v>
+        <v>562200</v>
       </c>
       <c r="I42" s="3">
-        <v>187400</v>
+        <v>191300</v>
       </c>
       <c r="J42" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="K42" s="3">
         <v>49700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>44000</v>
+        <v>63800</v>
       </c>
       <c r="E43" s="3">
-        <v>191600</v>
+        <v>195700</v>
       </c>
       <c r="F43" s="3">
-        <v>280400</v>
+        <v>286400</v>
       </c>
       <c r="G43" s="3">
-        <v>93700</v>
+        <v>95700</v>
       </c>
       <c r="H43" s="3">
-        <v>169400</v>
+        <v>173000</v>
       </c>
       <c r="I43" s="3">
-        <v>30500</v>
+        <v>31100</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>65600</v>
+        <v>48100</v>
       </c>
       <c r="E45" s="3">
-        <v>147900</v>
+        <v>151100</v>
       </c>
       <c r="F45" s="3">
-        <v>176100</v>
+        <v>179800</v>
       </c>
       <c r="G45" s="3">
-        <v>138600</v>
+        <v>141500</v>
       </c>
       <c r="H45" s="3">
-        <v>512700</v>
+        <v>523500</v>
       </c>
       <c r="I45" s="3">
-        <v>307400</v>
+        <v>313900</v>
       </c>
       <c r="J45" s="3">
-        <v>181500</v>
+        <v>185400</v>
       </c>
       <c r="K45" s="3">
         <v>44400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>349000</v>
+        <v>356400</v>
       </c>
       <c r="E46" s="3">
-        <v>584100</v>
+        <v>596500</v>
       </c>
       <c r="F46" s="3">
-        <v>673400</v>
+        <v>687700</v>
       </c>
       <c r="G46" s="3">
-        <v>777500</v>
+        <v>794000</v>
       </c>
       <c r="H46" s="3">
-        <v>1149100</v>
+        <v>1173400</v>
       </c>
       <c r="I46" s="3">
-        <v>846300</v>
+        <v>864200</v>
       </c>
       <c r="J46" s="3">
-        <v>390200</v>
+        <v>398500</v>
       </c>
       <c r="K46" s="3">
         <v>158800</v>
@@ -1954,19 +1954,19 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="E47" s="3">
-        <v>284700</v>
+        <v>290700</v>
       </c>
       <c r="F47" s="3">
-        <v>199000</v>
+        <v>203200</v>
       </c>
       <c r="G47" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="H47" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>40</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="E48" s="3">
-        <v>50300</v>
+        <v>51400</v>
       </c>
       <c r="F48" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="G48" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>55500</v>
+      </c>
+      <c r="I48" s="3">
         <v>22700</v>
       </c>
-      <c r="H48" s="3">
-        <v>54300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>22200</v>
-      </c>
       <c r="J48" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="K48" s="3">
         <v>3800</v>
@@ -2026,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61100</v>
+        <v>62400</v>
       </c>
       <c r="E49" s="3">
-        <v>60800</v>
+        <v>62100</v>
       </c>
       <c r="F49" s="3">
-        <v>72900</v>
+        <v>74500</v>
       </c>
       <c r="G49" s="3">
-        <v>92900</v>
+        <v>94900</v>
       </c>
       <c r="H49" s="3">
-        <v>203500</v>
+        <v>207800</v>
       </c>
       <c r="I49" s="3">
-        <v>130200</v>
+        <v>132900</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="E52" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="F52" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="G52" s="3">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="H52" s="3">
-        <v>93100</v>
+        <v>95000</v>
       </c>
       <c r="I52" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="J52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>488400</v>
+        <v>498700</v>
       </c>
       <c r="E54" s="3">
-        <v>1007800</v>
+        <v>1029100</v>
       </c>
       <c r="F54" s="3">
-        <v>1001800</v>
+        <v>1022900</v>
       </c>
       <c r="G54" s="3">
-        <v>1017200</v>
+        <v>1038700</v>
       </c>
       <c r="H54" s="3">
-        <v>1401200</v>
+        <v>1430900</v>
       </c>
       <c r="I54" s="3">
-        <v>1097900</v>
+        <v>1121100</v>
       </c>
       <c r="J54" s="3">
-        <v>404100</v>
+        <v>412600</v>
       </c>
       <c r="K54" s="3">
         <v>163600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107800</v>
+        <v>110100</v>
       </c>
       <c r="E57" s="3">
-        <v>200400</v>
+        <v>204700</v>
       </c>
       <c r="F57" s="3">
-        <v>199500</v>
+        <v>203700</v>
       </c>
       <c r="G57" s="3">
-        <v>130200</v>
+        <v>133000</v>
       </c>
       <c r="H57" s="3">
-        <v>156200</v>
+        <v>159600</v>
       </c>
       <c r="I57" s="3">
-        <v>117200</v>
+        <v>119700</v>
       </c>
       <c r="J57" s="3">
-        <v>58500</v>
+        <v>59700</v>
       </c>
       <c r="K57" s="3">
         <v>44000</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E58" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>40</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149400</v>
+        <v>152600</v>
       </c>
       <c r="E59" s="3">
-        <v>341200</v>
+        <v>348400</v>
       </c>
       <c r="F59" s="3">
-        <v>267000</v>
+        <v>272700</v>
       </c>
       <c r="G59" s="3">
-        <v>316100</v>
+        <v>322800</v>
       </c>
       <c r="H59" s="3">
-        <v>625400</v>
+        <v>638600</v>
       </c>
       <c r="I59" s="3">
-        <v>461900</v>
+        <v>471700</v>
       </c>
       <c r="J59" s="3">
-        <v>143800</v>
+        <v>146800</v>
       </c>
       <c r="K59" s="3">
         <v>72600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>266500</v>
+        <v>272200</v>
       </c>
       <c r="E60" s="3">
-        <v>572700</v>
+        <v>584800</v>
       </c>
       <c r="F60" s="3">
-        <v>474000</v>
+        <v>484000</v>
       </c>
       <c r="G60" s="3">
-        <v>446300</v>
+        <v>455800</v>
       </c>
       <c r="H60" s="3">
-        <v>691600</v>
+        <v>706300</v>
       </c>
       <c r="I60" s="3">
-        <v>579100</v>
+        <v>591400</v>
       </c>
       <c r="J60" s="3">
-        <v>185500</v>
+        <v>189400</v>
       </c>
       <c r="K60" s="3">
         <v>116200</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="F62" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G62" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H62" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I62" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K62" s="3">
         <v>3000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>276800</v>
+        <v>282700</v>
       </c>
       <c r="E66" s="3">
-        <v>593700</v>
+        <v>606300</v>
       </c>
       <c r="F66" s="3">
-        <v>489900</v>
+        <v>500300</v>
       </c>
       <c r="G66" s="3">
-        <v>467900</v>
+        <v>477800</v>
       </c>
       <c r="H66" s="3">
-        <v>713900</v>
+        <v>729000</v>
       </c>
       <c r="I66" s="3">
-        <v>590500</v>
+        <v>602900</v>
       </c>
       <c r="J66" s="3">
-        <v>188900</v>
+        <v>192900</v>
       </c>
       <c r="K66" s="3">
         <v>119300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1178400</v>
+        <v>-1203400</v>
       </c>
       <c r="E72" s="3">
-        <v>-975600</v>
+        <v>-996300</v>
       </c>
       <c r="F72" s="3">
-        <v>-869500</v>
+        <v>-887900</v>
       </c>
       <c r="G72" s="3">
-        <v>-841200</v>
+        <v>-859000</v>
       </c>
       <c r="H72" s="3">
-        <v>-724000</v>
+        <v>-739300</v>
       </c>
       <c r="I72" s="3">
-        <v>-355700</v>
+        <v>-363300</v>
       </c>
       <c r="J72" s="3">
-        <v>-132800</v>
+        <v>-135600</v>
       </c>
       <c r="K72" s="3">
         <v>-61700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>211600</v>
+        <v>216000</v>
       </c>
       <c r="E76" s="3">
-        <v>414100</v>
+        <v>422900</v>
       </c>
       <c r="F76" s="3">
-        <v>511900</v>
+        <v>522700</v>
       </c>
       <c r="G76" s="3">
-        <v>549300</v>
+        <v>560900</v>
       </c>
       <c r="H76" s="3">
-        <v>687300</v>
+        <v>701900</v>
       </c>
       <c r="I76" s="3">
-        <v>507400</v>
+        <v>518200</v>
       </c>
       <c r="J76" s="3">
-        <v>215200</v>
+        <v>219800</v>
       </c>
       <c r="K76" s="3">
         <v>-64700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-199800</v>
+        <v>-204100</v>
       </c>
       <c r="E81" s="3">
-        <v>-106800</v>
+        <v>-109100</v>
       </c>
       <c r="F81" s="3">
-        <v>-28700</v>
+        <v>-29300</v>
       </c>
       <c r="G81" s="3">
-        <v>-118100</v>
+        <v>-120600</v>
       </c>
       <c r="H81" s="3">
-        <v>-367800</v>
+        <v>-375600</v>
       </c>
       <c r="I81" s="3">
-        <v>-223600</v>
+        <v>-228300</v>
       </c>
       <c r="J81" s="3">
-        <v>-70800</v>
+        <v>-72300</v>
       </c>
       <c r="K81" s="3">
         <v>-21200</v>
@@ -3102,23 +3102,23 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>40</v>
+      <c r="D83" s="3">
+        <v>30300</v>
       </c>
       <c r="E83" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="F83" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="G83" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H83" s="3">
         <v>33000</v>
       </c>
-      <c r="H83" s="3">
-        <v>32300</v>
-      </c>
       <c r="I83" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J83" s="3">
         <v>1800</v>
@@ -3318,26 +3318,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>40</v>
+      <c r="D89" s="3">
+        <v>-204900</v>
       </c>
       <c r="E89" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="F89" s="3">
-        <v>41000</v>
+        <v>41800</v>
       </c>
       <c r="G89" s="3">
-        <v>-64000</v>
+        <v>-65300</v>
       </c>
       <c r="H89" s="3">
-        <v>-342100</v>
+        <v>-349400</v>
       </c>
       <c r="I89" s="3">
-        <v>-78600</v>
+        <v>-80300</v>
       </c>
       <c r="J89" s="3">
-        <v>-41400</v>
+        <v>-42300</v>
       </c>
       <c r="K89" s="3">
         <v>17800</v>
@@ -3370,26 +3370,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>40</v>
+      <c r="D91" s="3">
+        <v>-4400</v>
       </c>
       <c r="E91" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="F91" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="G91" s="3">
-        <v>-24500</v>
+        <v>-25000</v>
       </c>
       <c r="H91" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="I91" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -3478,26 +3478,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>40</v>
+      <c r="D94" s="3">
+        <v>180800</v>
       </c>
       <c r="E94" s="3">
-        <v>-88300</v>
+        <v>-90200</v>
       </c>
       <c r="F94" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="G94" s="3">
-        <v>94000</v>
+        <v>96000</v>
       </c>
       <c r="H94" s="3">
-        <v>-416900</v>
+        <v>-425700</v>
       </c>
       <c r="I94" s="3">
-        <v>-292600</v>
+        <v>-298800</v>
       </c>
       <c r="J94" s="3">
-        <v>-34800</v>
+        <v>-35600</v>
       </c>
       <c r="K94" s="3">
         <v>-46300</v>
@@ -3674,26 +3674,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>40</v>
+      <c r="D100" s="3">
+        <v>-32700</v>
       </c>
       <c r="E100" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="F100" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="G100" s="3">
-        <v>-119900</v>
+        <v>-122400</v>
       </c>
       <c r="H100" s="3">
-        <v>554100</v>
+        <v>565900</v>
       </c>
       <c r="I100" s="3">
-        <v>459200</v>
+        <v>468900</v>
       </c>
       <c r="J100" s="3">
-        <v>235300</v>
+        <v>240300</v>
       </c>
       <c r="K100" s="3">
         <v>46600</v>
@@ -3710,23 +3710,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>40</v>
+      <c r="D101" s="3">
+        <v>800</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="H101" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="I101" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3746,26 +3746,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>40</v>
+      <c r="D102" s="3">
+        <v>-55900</v>
       </c>
       <c r="E102" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="G102" s="3">
-        <v>-96800</v>
+        <v>-98900</v>
       </c>
       <c r="H102" s="3">
-        <v>-188000</v>
+        <v>-192000</v>
       </c>
       <c r="I102" s="3">
-        <v>98300</v>
+        <v>100400</v>
       </c>
       <c r="J102" s="3">
-        <v>158600</v>
+        <v>162000</v>
       </c>
       <c r="K102" s="3">
         <v>18300</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70200</v>
+        <v>69300</v>
       </c>
       <c r="E8" s="3">
-        <v>355900</v>
+        <v>351200</v>
       </c>
       <c r="F8" s="3">
-        <v>349500</v>
+        <v>344900</v>
       </c>
       <c r="G8" s="3">
-        <v>342000</v>
+        <v>337500</v>
       </c>
       <c r="H8" s="3">
-        <v>1642900</v>
+        <v>1621600</v>
       </c>
       <c r="I8" s="3">
-        <v>1196800</v>
+        <v>1181200</v>
       </c>
       <c r="J8" s="3">
-        <v>551500</v>
+        <v>544300</v>
       </c>
       <c r="K8" s="3">
         <v>296600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="E9" s="3">
-        <v>187200</v>
+        <v>184800</v>
       </c>
       <c r="F9" s="3">
-        <v>166200</v>
+        <v>164000</v>
       </c>
       <c r="G9" s="3">
-        <v>159800</v>
+        <v>157700</v>
       </c>
       <c r="H9" s="3">
-        <v>1543200</v>
+        <v>1523100</v>
       </c>
       <c r="I9" s="3">
-        <v>1140300</v>
+        <v>1125400</v>
       </c>
       <c r="J9" s="3">
-        <v>516200</v>
+        <v>509500</v>
       </c>
       <c r="K9" s="3">
         <v>278300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33300</v>
+        <v>32800</v>
       </c>
       <c r="E10" s="3">
-        <v>168600</v>
+        <v>166400</v>
       </c>
       <c r="F10" s="3">
-        <v>183300</v>
+        <v>180900</v>
       </c>
       <c r="G10" s="3">
-        <v>182200</v>
+        <v>179800</v>
       </c>
       <c r="H10" s="3">
-        <v>99700</v>
+        <v>98400</v>
       </c>
       <c r="I10" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="J10" s="3">
-        <v>35300</v>
+        <v>34800</v>
       </c>
       <c r="K10" s="3">
         <v>18300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="E12" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="F12" s="3">
-        <v>49200</v>
+        <v>48500</v>
       </c>
       <c r="G12" s="3">
-        <v>84400</v>
+        <v>83300</v>
       </c>
       <c r="H12" s="3">
-        <v>93800</v>
+        <v>92600</v>
       </c>
       <c r="I12" s="3">
-        <v>46500</v>
+        <v>45900</v>
       </c>
       <c r="J12" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>279400</v>
+        <v>275800</v>
       </c>
       <c r="E17" s="3">
-        <v>491700</v>
+        <v>485300</v>
       </c>
       <c r="F17" s="3">
-        <v>403900</v>
+        <v>398700</v>
       </c>
       <c r="G17" s="3">
-        <v>479800</v>
+        <v>473600</v>
       </c>
       <c r="H17" s="3">
-        <v>2032800</v>
+        <v>2006400</v>
       </c>
       <c r="I17" s="3">
-        <v>1424400</v>
+        <v>1405800</v>
       </c>
       <c r="J17" s="3">
-        <v>625300</v>
+        <v>617100</v>
       </c>
       <c r="K17" s="3">
         <v>311300</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-209200</v>
+        <v>-206500</v>
       </c>
       <c r="E18" s="3">
-        <v>-135900</v>
+        <v>-134100</v>
       </c>
       <c r="F18" s="3">
-        <v>-54400</v>
+        <v>-53700</v>
       </c>
       <c r="G18" s="3">
-        <v>-137800</v>
+        <v>-136000</v>
       </c>
       <c r="H18" s="3">
-        <v>-389900</v>
+        <v>-384800</v>
       </c>
       <c r="I18" s="3">
-        <v>-227600</v>
+        <v>-224600</v>
       </c>
       <c r="J18" s="3">
-        <v>-73800</v>
+        <v>-72800</v>
       </c>
       <c r="K18" s="3">
         <v>-14800</v>
@@ -1089,19 +1089,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="F20" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="G20" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I20" s="3">
         <v>-1200</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-175300</v>
+        <v>-173000</v>
       </c>
       <c r="E21" s="3">
-        <v>-70500</v>
+        <v>-69500</v>
       </c>
       <c r="F21" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G21" s="3">
-        <v>-84300</v>
+        <v>-83100</v>
       </c>
       <c r="H21" s="3">
-        <v>-345200</v>
+        <v>-340600</v>
       </c>
       <c r="I21" s="3">
-        <v>-215500</v>
+        <v>-212600</v>
       </c>
       <c r="J21" s="3">
-        <v>-68000</v>
+        <v>-67100</v>
       </c>
       <c r="K21" s="3">
         <v>-10700</v>
@@ -1164,7 +1164,7 @@
         <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>40</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-210700</v>
+        <v>-207900</v>
       </c>
       <c r="E23" s="3">
-        <v>-113600</v>
+        <v>-112200</v>
       </c>
       <c r="F23" s="3">
-        <v>-31100</v>
+        <v>-30700</v>
       </c>
       <c r="G23" s="3">
-        <v>-117900</v>
+        <v>-116400</v>
       </c>
       <c r="H23" s="3">
-        <v>-378200</v>
+        <v>-373300</v>
       </c>
       <c r="I23" s="3">
-        <v>-228800</v>
+        <v>-225900</v>
       </c>
       <c r="J23" s="3">
-        <v>-69900</v>
+        <v>-69000</v>
       </c>
       <c r="K23" s="3">
         <v>-12100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-209600</v>
+        <v>-206900</v>
       </c>
       <c r="E26" s="3">
-        <v>-113800</v>
+        <v>-112300</v>
       </c>
       <c r="F26" s="3">
-        <v>-31100</v>
+        <v>-30700</v>
       </c>
       <c r="G26" s="3">
-        <v>-120300</v>
+        <v>-118800</v>
       </c>
       <c r="H26" s="3">
-        <v>-377900</v>
+        <v>-373000</v>
       </c>
       <c r="I26" s="3">
-        <v>-228800</v>
+        <v>-225800</v>
       </c>
       <c r="J26" s="3">
-        <v>-69900</v>
+        <v>-69000</v>
       </c>
       <c r="K26" s="3">
         <v>-12100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-204100</v>
+        <v>-201400</v>
       </c>
       <c r="E27" s="3">
-        <v>-109100</v>
+        <v>-107700</v>
       </c>
       <c r="F27" s="3">
-        <v>-29300</v>
+        <v>-28900</v>
       </c>
       <c r="G27" s="3">
-        <v>-120600</v>
+        <v>-119000</v>
       </c>
       <c r="H27" s="3">
-        <v>-375600</v>
+        <v>-370700</v>
       </c>
       <c r="I27" s="3">
-        <v>-228300</v>
+        <v>-225300</v>
       </c>
       <c r="J27" s="3">
-        <v>-72300</v>
+        <v>-71400</v>
       </c>
       <c r="K27" s="3">
         <v>-21200</v>
@@ -1521,19 +1521,19 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G32" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="I32" s="3">
         <v>1200</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-204100</v>
+        <v>-201400</v>
       </c>
       <c r="E33" s="3">
-        <v>-109100</v>
+        <v>-107700</v>
       </c>
       <c r="F33" s="3">
-        <v>-29300</v>
+        <v>-28900</v>
       </c>
       <c r="G33" s="3">
-        <v>-120600</v>
+        <v>-119000</v>
       </c>
       <c r="H33" s="3">
-        <v>-375600</v>
+        <v>-370700</v>
       </c>
       <c r="I33" s="3">
-        <v>-228300</v>
+        <v>-225300</v>
       </c>
       <c r="J33" s="3">
-        <v>-72300</v>
+        <v>-71400</v>
       </c>
       <c r="K33" s="3">
         <v>-21200</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-204100</v>
+        <v>-201400</v>
       </c>
       <c r="E35" s="3">
-        <v>-109100</v>
+        <v>-107700</v>
       </c>
       <c r="F35" s="3">
-        <v>-29300</v>
+        <v>-28900</v>
       </c>
       <c r="G35" s="3">
-        <v>-120600</v>
+        <v>-119000</v>
       </c>
       <c r="H35" s="3">
-        <v>-375600</v>
+        <v>-370700</v>
       </c>
       <c r="I35" s="3">
-        <v>-228300</v>
+        <v>-225300</v>
       </c>
       <c r="J35" s="3">
-        <v>-72300</v>
+        <v>-71400</v>
       </c>
       <c r="K35" s="3">
         <v>-21200</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="E41" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="F41" s="3">
-        <v>87400</v>
+        <v>86300</v>
       </c>
       <c r="G41" s="3">
-        <v>75500</v>
+        <v>74500</v>
       </c>
       <c r="H41" s="3">
-        <v>169300</v>
+        <v>167100</v>
       </c>
       <c r="I41" s="3">
-        <v>327800</v>
+        <v>323500</v>
       </c>
       <c r="J41" s="3">
-        <v>227400</v>
+        <v>224500</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>211200</v>
+        <v>208400</v>
       </c>
       <c r="E42" s="3">
-        <v>203700</v>
+        <v>201000</v>
       </c>
       <c r="F42" s="3">
-        <v>134000</v>
+        <v>132300</v>
       </c>
       <c r="G42" s="3">
-        <v>481200</v>
+        <v>475000</v>
       </c>
       <c r="H42" s="3">
-        <v>562200</v>
+        <v>554900</v>
       </c>
       <c r="I42" s="3">
-        <v>191300</v>
+        <v>188800</v>
       </c>
       <c r="J42" s="3">
-        <v>73100</v>
+        <v>72200</v>
       </c>
       <c r="K42" s="3">
         <v>49700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>63800</v>
+        <v>62900</v>
       </c>
       <c r="E43" s="3">
-        <v>195700</v>
+        <v>193100</v>
       </c>
       <c r="F43" s="3">
-        <v>286400</v>
+        <v>282600</v>
       </c>
       <c r="G43" s="3">
-        <v>95700</v>
+        <v>94500</v>
       </c>
       <c r="H43" s="3">
-        <v>173000</v>
+        <v>170800</v>
       </c>
       <c r="I43" s="3">
-        <v>31100</v>
+        <v>30700</v>
       </c>
       <c r="J43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="E45" s="3">
-        <v>151100</v>
+        <v>149100</v>
       </c>
       <c r="F45" s="3">
-        <v>179800</v>
+        <v>177500</v>
       </c>
       <c r="G45" s="3">
-        <v>141500</v>
+        <v>139700</v>
       </c>
       <c r="H45" s="3">
-        <v>523500</v>
+        <v>516700</v>
       </c>
       <c r="I45" s="3">
-        <v>313900</v>
+        <v>309800</v>
       </c>
       <c r="J45" s="3">
-        <v>185400</v>
+        <v>182900</v>
       </c>
       <c r="K45" s="3">
         <v>44400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>356400</v>
+        <v>351800</v>
       </c>
       <c r="E46" s="3">
-        <v>596500</v>
+        <v>588700</v>
       </c>
       <c r="F46" s="3">
-        <v>687700</v>
+        <v>678700</v>
       </c>
       <c r="G46" s="3">
-        <v>794000</v>
+        <v>783700</v>
       </c>
       <c r="H46" s="3">
-        <v>1173400</v>
+        <v>1158100</v>
       </c>
       <c r="I46" s="3">
-        <v>864200</v>
+        <v>852900</v>
       </c>
       <c r="J46" s="3">
-        <v>398500</v>
+        <v>393300</v>
       </c>
       <c r="K46" s="3">
         <v>158800</v>
@@ -1954,19 +1954,19 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41600</v>
+        <v>41100</v>
       </c>
       <c r="E47" s="3">
-        <v>290700</v>
+        <v>286900</v>
       </c>
       <c r="F47" s="3">
-        <v>203200</v>
+        <v>200600</v>
       </c>
       <c r="G47" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="H47" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>40</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="E48" s="3">
-        <v>51400</v>
+        <v>50700</v>
       </c>
       <c r="F48" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="G48" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="H48" s="3">
-        <v>55500</v>
+        <v>54800</v>
       </c>
       <c r="I48" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="J48" s="3">
-        <v>22600</v>
+        <v>22300</v>
       </c>
       <c r="K48" s="3">
         <v>3800</v>
@@ -2026,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62400</v>
+        <v>61600</v>
       </c>
       <c r="E49" s="3">
-        <v>62100</v>
+        <v>61300</v>
       </c>
       <c r="F49" s="3">
-        <v>74500</v>
+        <v>73500</v>
       </c>
       <c r="G49" s="3">
-        <v>94900</v>
+        <v>93700</v>
       </c>
       <c r="H49" s="3">
-        <v>207800</v>
+        <v>205100</v>
       </c>
       <c r="I49" s="3">
-        <v>132900</v>
+        <v>131200</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="E52" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="F52" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="G52" s="3">
-        <v>51000</v>
+        <v>50300</v>
       </c>
       <c r="H52" s="3">
-        <v>95000</v>
+        <v>93800</v>
       </c>
       <c r="I52" s="3">
-        <v>101300</v>
+        <v>100000</v>
       </c>
       <c r="J52" s="3">
         <v>2400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>498700</v>
+        <v>492200</v>
       </c>
       <c r="E54" s="3">
-        <v>1029100</v>
+        <v>1015700</v>
       </c>
       <c r="F54" s="3">
-        <v>1022900</v>
+        <v>1009600</v>
       </c>
       <c r="G54" s="3">
-        <v>1038700</v>
+        <v>1025200</v>
       </c>
       <c r="H54" s="3">
-        <v>1430900</v>
+        <v>1412300</v>
       </c>
       <c r="I54" s="3">
-        <v>1121100</v>
+        <v>1106500</v>
       </c>
       <c r="J54" s="3">
-        <v>412600</v>
+        <v>407300</v>
       </c>
       <c r="K54" s="3">
         <v>163600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110100</v>
+        <v>108700</v>
       </c>
       <c r="E57" s="3">
-        <v>204700</v>
+        <v>202000</v>
       </c>
       <c r="F57" s="3">
-        <v>203700</v>
+        <v>201000</v>
       </c>
       <c r="G57" s="3">
-        <v>133000</v>
+        <v>131300</v>
       </c>
       <c r="H57" s="3">
-        <v>159600</v>
+        <v>157500</v>
       </c>
       <c r="I57" s="3">
-        <v>119700</v>
+        <v>118100</v>
       </c>
       <c r="J57" s="3">
-        <v>59700</v>
+        <v>58900</v>
       </c>
       <c r="K57" s="3">
         <v>44000</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>40</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152600</v>
+        <v>150600</v>
       </c>
       <c r="E59" s="3">
-        <v>348400</v>
+        <v>343800</v>
       </c>
       <c r="F59" s="3">
-        <v>272700</v>
+        <v>269100</v>
       </c>
       <c r="G59" s="3">
-        <v>322800</v>
+        <v>318600</v>
       </c>
       <c r="H59" s="3">
-        <v>638600</v>
+        <v>630300</v>
       </c>
       <c r="I59" s="3">
-        <v>471700</v>
+        <v>465500</v>
       </c>
       <c r="J59" s="3">
-        <v>146800</v>
+        <v>144900</v>
       </c>
       <c r="K59" s="3">
         <v>72600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>272200</v>
+        <v>268600</v>
       </c>
       <c r="E60" s="3">
-        <v>584800</v>
+        <v>577200</v>
       </c>
       <c r="F60" s="3">
-        <v>484000</v>
+        <v>477700</v>
       </c>
       <c r="G60" s="3">
-        <v>455800</v>
+        <v>449800</v>
       </c>
       <c r="H60" s="3">
-        <v>706300</v>
+        <v>697100</v>
       </c>
       <c r="I60" s="3">
-        <v>591400</v>
+        <v>583700</v>
       </c>
       <c r="J60" s="3">
-        <v>189400</v>
+        <v>186900</v>
       </c>
       <c r="K60" s="3">
         <v>116200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="F62" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G62" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H62" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="I62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K62" s="3">
         <v>3000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282700</v>
+        <v>279000</v>
       </c>
       <c r="E66" s="3">
-        <v>606300</v>
+        <v>598400</v>
       </c>
       <c r="F66" s="3">
-        <v>500300</v>
+        <v>493700</v>
       </c>
       <c r="G66" s="3">
-        <v>477800</v>
+        <v>471600</v>
       </c>
       <c r="H66" s="3">
-        <v>729000</v>
+        <v>719500</v>
       </c>
       <c r="I66" s="3">
-        <v>602900</v>
+        <v>595100</v>
       </c>
       <c r="J66" s="3">
-        <v>192900</v>
+        <v>190400</v>
       </c>
       <c r="K66" s="3">
         <v>119300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1203400</v>
+        <v>-1187700</v>
       </c>
       <c r="E72" s="3">
-        <v>-996300</v>
+        <v>-983300</v>
       </c>
       <c r="F72" s="3">
-        <v>-887900</v>
+        <v>-876400</v>
       </c>
       <c r="G72" s="3">
-        <v>-859000</v>
+        <v>-847800</v>
       </c>
       <c r="H72" s="3">
-        <v>-739300</v>
+        <v>-729600</v>
       </c>
       <c r="I72" s="3">
-        <v>-363300</v>
+        <v>-358500</v>
       </c>
       <c r="J72" s="3">
-        <v>-135600</v>
+        <v>-133800</v>
       </c>
       <c r="K72" s="3">
         <v>-61700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216000</v>
+        <v>213200</v>
       </c>
       <c r="E76" s="3">
-        <v>422900</v>
+        <v>417400</v>
       </c>
       <c r="F76" s="3">
-        <v>522700</v>
+        <v>515900</v>
       </c>
       <c r="G76" s="3">
-        <v>560900</v>
+        <v>553600</v>
       </c>
       <c r="H76" s="3">
-        <v>701900</v>
+        <v>692700</v>
       </c>
       <c r="I76" s="3">
-        <v>518200</v>
+        <v>511400</v>
       </c>
       <c r="J76" s="3">
-        <v>219800</v>
+        <v>216900</v>
       </c>
       <c r="K76" s="3">
         <v>-64700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-204100</v>
+        <v>-201400</v>
       </c>
       <c r="E81" s="3">
-        <v>-109100</v>
+        <v>-107700</v>
       </c>
       <c r="F81" s="3">
-        <v>-29300</v>
+        <v>-28900</v>
       </c>
       <c r="G81" s="3">
-        <v>-120600</v>
+        <v>-119000</v>
       </c>
       <c r="H81" s="3">
-        <v>-375600</v>
+        <v>-370700</v>
       </c>
       <c r="I81" s="3">
-        <v>-228300</v>
+        <v>-225300</v>
       </c>
       <c r="J81" s="3">
-        <v>-72300</v>
+        <v>-71400</v>
       </c>
       <c r="K81" s="3">
         <v>-21200</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="E83" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="F83" s="3">
-        <v>34300</v>
+        <v>33900</v>
       </c>
       <c r="G83" s="3">
-        <v>33700</v>
+        <v>33200</v>
       </c>
       <c r="H83" s="3">
-        <v>33000</v>
+        <v>32600</v>
       </c>
       <c r="I83" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="J83" s="3">
         <v>1800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-204900</v>
+        <v>-202200</v>
       </c>
       <c r="E89" s="3">
-        <v>-18800</v>
+        <v>-18500</v>
       </c>
       <c r="F89" s="3">
-        <v>41800</v>
+        <v>41300</v>
       </c>
       <c r="G89" s="3">
-        <v>-65300</v>
+        <v>-64500</v>
       </c>
       <c r="H89" s="3">
-        <v>-349400</v>
+        <v>-344800</v>
       </c>
       <c r="I89" s="3">
-        <v>-80300</v>
+        <v>-79300</v>
       </c>
       <c r="J89" s="3">
-        <v>-42300</v>
+        <v>-41700</v>
       </c>
       <c r="K89" s="3">
         <v>17800</v>
@@ -3374,22 +3374,22 @@
         <v>-4400</v>
       </c>
       <c r="E91" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="F91" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="G91" s="3">
-        <v>-25000</v>
+        <v>-24700</v>
       </c>
       <c r="H91" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="I91" s="3">
-        <v>-24300</v>
+        <v>-23900</v>
       </c>
       <c r="J91" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>180800</v>
+        <v>178500</v>
       </c>
       <c r="E94" s="3">
-        <v>-90200</v>
+        <v>-89000</v>
       </c>
       <c r="F94" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="G94" s="3">
-        <v>96000</v>
+        <v>94800</v>
       </c>
       <c r="H94" s="3">
-        <v>-425700</v>
+        <v>-420200</v>
       </c>
       <c r="I94" s="3">
-        <v>-298800</v>
+        <v>-294900</v>
       </c>
       <c r="J94" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="K94" s="3">
         <v>-46300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32700</v>
+        <v>-32300</v>
       </c>
       <c r="E100" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="F100" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="G100" s="3">
-        <v>-122400</v>
+        <v>-120800</v>
       </c>
       <c r="H100" s="3">
-        <v>565900</v>
+        <v>558500</v>
       </c>
       <c r="I100" s="3">
-        <v>468900</v>
+        <v>462800</v>
       </c>
       <c r="J100" s="3">
-        <v>240300</v>
+        <v>237200</v>
       </c>
       <c r="K100" s="3">
         <v>46600</v>
@@ -3717,16 +3717,16 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="I101" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55900</v>
+        <v>-55200</v>
       </c>
       <c r="E102" s="3">
-        <v>-32500</v>
+        <v>-32100</v>
       </c>
       <c r="F102" s="3">
-        <v>39800</v>
+        <v>39300</v>
       </c>
       <c r="G102" s="3">
-        <v>-98900</v>
+        <v>-97600</v>
       </c>
       <c r="H102" s="3">
-        <v>-192000</v>
+        <v>-189500</v>
       </c>
       <c r="I102" s="3">
-        <v>100400</v>
+        <v>99100</v>
       </c>
       <c r="J102" s="3">
-        <v>162000</v>
+        <v>159900</v>
       </c>
       <c r="K102" s="3">
         <v>18300</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69300</v>
+        <v>70500</v>
       </c>
       <c r="E8" s="3">
-        <v>351200</v>
+        <v>357100</v>
       </c>
       <c r="F8" s="3">
-        <v>344900</v>
+        <v>350700</v>
       </c>
       <c r="G8" s="3">
-        <v>337500</v>
+        <v>343200</v>
       </c>
       <c r="H8" s="3">
-        <v>1621600</v>
+        <v>1648700</v>
       </c>
       <c r="I8" s="3">
-        <v>1181200</v>
+        <v>1201000</v>
       </c>
       <c r="J8" s="3">
-        <v>544300</v>
+        <v>553400</v>
       </c>
       <c r="K8" s="3">
         <v>296600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="E9" s="3">
-        <v>184800</v>
+        <v>187900</v>
       </c>
       <c r="F9" s="3">
-        <v>164000</v>
+        <v>166700</v>
       </c>
       <c r="G9" s="3">
-        <v>157700</v>
+        <v>160300</v>
       </c>
       <c r="H9" s="3">
-        <v>1523100</v>
+        <v>1548700</v>
       </c>
       <c r="I9" s="3">
-        <v>1125400</v>
+        <v>1144300</v>
       </c>
       <c r="J9" s="3">
-        <v>509500</v>
+        <v>518000</v>
       </c>
       <c r="K9" s="3">
         <v>278300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="E10" s="3">
-        <v>166400</v>
+        <v>169200</v>
       </c>
       <c r="F10" s="3">
-        <v>180900</v>
+        <v>184000</v>
       </c>
       <c r="G10" s="3">
-        <v>179800</v>
+        <v>182800</v>
       </c>
       <c r="H10" s="3">
-        <v>98400</v>
+        <v>100100</v>
       </c>
       <c r="I10" s="3">
-        <v>55700</v>
+        <v>56700</v>
       </c>
       <c r="J10" s="3">
-        <v>34800</v>
+        <v>35400</v>
       </c>
       <c r="K10" s="3">
         <v>18300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="E12" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>49400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>84700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>94200</v>
+      </c>
+      <c r="I12" s="3">
         <v>46700</v>
       </c>
-      <c r="F12" s="3">
-        <v>48500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>83300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>92600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45900</v>
-      </c>
       <c r="J12" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>275800</v>
+        <v>280400</v>
       </c>
       <c r="E17" s="3">
-        <v>485300</v>
+        <v>493500</v>
       </c>
       <c r="F17" s="3">
-        <v>398700</v>
+        <v>405400</v>
       </c>
       <c r="G17" s="3">
-        <v>473600</v>
+        <v>481500</v>
       </c>
       <c r="H17" s="3">
-        <v>2006400</v>
+        <v>2040000</v>
       </c>
       <c r="I17" s="3">
-        <v>1405800</v>
+        <v>1429400</v>
       </c>
       <c r="J17" s="3">
-        <v>617100</v>
+        <v>627500</v>
       </c>
       <c r="K17" s="3">
         <v>311300</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-206500</v>
+        <v>-209900</v>
       </c>
       <c r="E18" s="3">
-        <v>-134100</v>
+        <v>-136300</v>
       </c>
       <c r="F18" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G18" s="3">
-        <v>-136000</v>
+        <v>-138300</v>
       </c>
       <c r="H18" s="3">
-        <v>-384800</v>
+        <v>-391300</v>
       </c>
       <c r="I18" s="3">
-        <v>-224600</v>
+        <v>-228400</v>
       </c>
       <c r="J18" s="3">
-        <v>-72800</v>
+        <v>-74100</v>
       </c>
       <c r="K18" s="3">
         <v>-14800</v>
@@ -1089,19 +1089,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>27200</v>
+        <v>27600</v>
       </c>
       <c r="F20" s="3">
-        <v>23100</v>
+        <v>23400</v>
       </c>
       <c r="G20" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="H20" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="3">
         <v>-1200</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-173000</v>
+        <v>-175900</v>
       </c>
       <c r="E21" s="3">
-        <v>-69500</v>
+        <v>-70700</v>
       </c>
       <c r="F21" s="3">
         <v>3300</v>
       </c>
       <c r="G21" s="3">
-        <v>-83100</v>
+        <v>-84600</v>
       </c>
       <c r="H21" s="3">
-        <v>-340600</v>
+        <v>-346400</v>
       </c>
       <c r="I21" s="3">
-        <v>-212600</v>
+        <v>-216200</v>
       </c>
       <c r="J21" s="3">
-        <v>-67100</v>
+        <v>-68300</v>
       </c>
       <c r="K21" s="3">
         <v>-10700</v>
@@ -1161,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>40</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-207900</v>
+        <v>-211400</v>
       </c>
       <c r="E23" s="3">
-        <v>-112200</v>
+        <v>-114000</v>
       </c>
       <c r="F23" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="G23" s="3">
-        <v>-116400</v>
+        <v>-118300</v>
       </c>
       <c r="H23" s="3">
-        <v>-373300</v>
+        <v>-379500</v>
       </c>
       <c r="I23" s="3">
-        <v>-225900</v>
+        <v>-229700</v>
       </c>
       <c r="J23" s="3">
-        <v>-69000</v>
+        <v>-70100</v>
       </c>
       <c r="K23" s="3">
         <v>-12100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-206900</v>
+        <v>-210400</v>
       </c>
       <c r="E26" s="3">
-        <v>-112300</v>
+        <v>-114200</v>
       </c>
       <c r="F26" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="G26" s="3">
-        <v>-118800</v>
+        <v>-120800</v>
       </c>
       <c r="H26" s="3">
-        <v>-373000</v>
+        <v>-379200</v>
       </c>
       <c r="I26" s="3">
-        <v>-225800</v>
+        <v>-229600</v>
       </c>
       <c r="J26" s="3">
-        <v>-69000</v>
+        <v>-70100</v>
       </c>
       <c r="K26" s="3">
         <v>-12100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-201400</v>
+        <v>-204800</v>
       </c>
       <c r="E27" s="3">
-        <v>-107700</v>
+        <v>-109500</v>
       </c>
       <c r="F27" s="3">
-        <v>-28900</v>
+        <v>-29400</v>
       </c>
       <c r="G27" s="3">
-        <v>-119000</v>
+        <v>-121000</v>
       </c>
       <c r="H27" s="3">
-        <v>-370700</v>
+        <v>-376900</v>
       </c>
       <c r="I27" s="3">
-        <v>-225300</v>
+        <v>-229100</v>
       </c>
       <c r="J27" s="3">
-        <v>-71400</v>
+        <v>-72600</v>
       </c>
       <c r="K27" s="3">
         <v>-21200</v>
@@ -1521,19 +1521,19 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27200</v>
+        <v>-27600</v>
       </c>
       <c r="F32" s="3">
-        <v>-23100</v>
+        <v>-23400</v>
       </c>
       <c r="G32" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H32" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="I32" s="3">
         <v>1200</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-201400</v>
+        <v>-204800</v>
       </c>
       <c r="E33" s="3">
-        <v>-107700</v>
+        <v>-109500</v>
       </c>
       <c r="F33" s="3">
-        <v>-28900</v>
+        <v>-29400</v>
       </c>
       <c r="G33" s="3">
-        <v>-119000</v>
+        <v>-121000</v>
       </c>
       <c r="H33" s="3">
-        <v>-370700</v>
+        <v>-376900</v>
       </c>
       <c r="I33" s="3">
-        <v>-225300</v>
+        <v>-229100</v>
       </c>
       <c r="J33" s="3">
-        <v>-71400</v>
+        <v>-72600</v>
       </c>
       <c r="K33" s="3">
         <v>-21200</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-201400</v>
+        <v>-204800</v>
       </c>
       <c r="E35" s="3">
-        <v>-107700</v>
+        <v>-109500</v>
       </c>
       <c r="F35" s="3">
-        <v>-28900</v>
+        <v>-29400</v>
       </c>
       <c r="G35" s="3">
-        <v>-119000</v>
+        <v>-121000</v>
       </c>
       <c r="H35" s="3">
-        <v>-370700</v>
+        <v>-376900</v>
       </c>
       <c r="I35" s="3">
-        <v>-225300</v>
+        <v>-229100</v>
       </c>
       <c r="J35" s="3">
-        <v>-71400</v>
+        <v>-72600</v>
       </c>
       <c r="K35" s="3">
         <v>-21200</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>32900</v>
+        <v>33400</v>
       </c>
       <c r="E41" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="F41" s="3">
-        <v>86300</v>
+        <v>87700</v>
       </c>
       <c r="G41" s="3">
-        <v>74500</v>
+        <v>75800</v>
       </c>
       <c r="H41" s="3">
-        <v>167100</v>
+        <v>169900</v>
       </c>
       <c r="I41" s="3">
-        <v>323500</v>
+        <v>329000</v>
       </c>
       <c r="J41" s="3">
-        <v>224500</v>
+        <v>228200</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>208400</v>
+        <v>211900</v>
       </c>
       <c r="E42" s="3">
-        <v>201000</v>
+        <v>204400</v>
       </c>
       <c r="F42" s="3">
-        <v>132300</v>
+        <v>134500</v>
       </c>
       <c r="G42" s="3">
-        <v>475000</v>
+        <v>482900</v>
       </c>
       <c r="H42" s="3">
-        <v>554900</v>
+        <v>564200</v>
       </c>
       <c r="I42" s="3">
-        <v>188800</v>
+        <v>192000</v>
       </c>
       <c r="J42" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="K42" s="3">
         <v>49700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>62900</v>
+        <v>64000</v>
       </c>
       <c r="E43" s="3">
-        <v>193100</v>
+        <v>196300</v>
       </c>
       <c r="F43" s="3">
-        <v>282600</v>
+        <v>287400</v>
       </c>
       <c r="G43" s="3">
-        <v>94500</v>
+        <v>96000</v>
       </c>
       <c r="H43" s="3">
-        <v>170800</v>
+        <v>173600</v>
       </c>
       <c r="I43" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="E45" s="3">
-        <v>149100</v>
+        <v>151600</v>
       </c>
       <c r="F45" s="3">
-        <v>177500</v>
+        <v>180500</v>
       </c>
       <c r="G45" s="3">
-        <v>139700</v>
+        <v>142000</v>
       </c>
       <c r="H45" s="3">
-        <v>516700</v>
+        <v>525400</v>
       </c>
       <c r="I45" s="3">
-        <v>309800</v>
+        <v>315000</v>
       </c>
       <c r="J45" s="3">
-        <v>182900</v>
+        <v>186000</v>
       </c>
       <c r="K45" s="3">
         <v>44400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>351800</v>
+        <v>357700</v>
       </c>
       <c r="E46" s="3">
-        <v>588700</v>
+        <v>598600</v>
       </c>
       <c r="F46" s="3">
-        <v>678700</v>
+        <v>690100</v>
       </c>
       <c r="G46" s="3">
-        <v>783700</v>
+        <v>796800</v>
       </c>
       <c r="H46" s="3">
-        <v>1158100</v>
+        <v>1177500</v>
       </c>
       <c r="I46" s="3">
-        <v>852900</v>
+        <v>867200</v>
       </c>
       <c r="J46" s="3">
-        <v>393300</v>
+        <v>399900</v>
       </c>
       <c r="K46" s="3">
         <v>158800</v>
@@ -1954,19 +1954,19 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41100</v>
+        <v>41800</v>
       </c>
       <c r="E47" s="3">
-        <v>286900</v>
+        <v>291700</v>
       </c>
       <c r="F47" s="3">
-        <v>200600</v>
+        <v>203900</v>
       </c>
       <c r="G47" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="H47" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>40</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="E48" s="3">
-        <v>50700</v>
+        <v>51500</v>
       </c>
       <c r="F48" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="G48" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="H48" s="3">
-        <v>54800</v>
+        <v>55700</v>
       </c>
       <c r="I48" s="3">
-        <v>22400</v>
+        <v>22700</v>
       </c>
       <c r="J48" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="K48" s="3">
         <v>3800</v>
@@ -2026,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61600</v>
+        <v>62600</v>
       </c>
       <c r="E49" s="3">
-        <v>61300</v>
+        <v>62400</v>
       </c>
       <c r="F49" s="3">
-        <v>73500</v>
+        <v>74700</v>
       </c>
       <c r="G49" s="3">
-        <v>93700</v>
+        <v>95200</v>
       </c>
       <c r="H49" s="3">
-        <v>205100</v>
+        <v>208600</v>
       </c>
       <c r="I49" s="3">
-        <v>131200</v>
+        <v>133400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="F52" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="G52" s="3">
-        <v>50300</v>
+        <v>51200</v>
       </c>
       <c r="H52" s="3">
-        <v>93800</v>
+        <v>95400</v>
       </c>
       <c r="I52" s="3">
-        <v>100000</v>
+        <v>101700</v>
       </c>
       <c r="J52" s="3">
         <v>2400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>492200</v>
+        <v>500500</v>
       </c>
       <c r="E54" s="3">
-        <v>1015700</v>
+        <v>1032800</v>
       </c>
       <c r="F54" s="3">
-        <v>1009600</v>
+        <v>1026600</v>
       </c>
       <c r="G54" s="3">
-        <v>1025200</v>
+        <v>1042300</v>
       </c>
       <c r="H54" s="3">
-        <v>1412300</v>
+        <v>1435900</v>
       </c>
       <c r="I54" s="3">
-        <v>1106500</v>
+        <v>1125100</v>
       </c>
       <c r="J54" s="3">
-        <v>407300</v>
+        <v>414100</v>
       </c>
       <c r="K54" s="3">
         <v>163600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108700</v>
+        <v>110500</v>
       </c>
       <c r="E57" s="3">
-        <v>202000</v>
+        <v>205400</v>
       </c>
       <c r="F57" s="3">
-        <v>201000</v>
+        <v>204400</v>
       </c>
       <c r="G57" s="3">
-        <v>131300</v>
+        <v>133500</v>
       </c>
       <c r="H57" s="3">
-        <v>157500</v>
+        <v>160100</v>
       </c>
       <c r="I57" s="3">
-        <v>118100</v>
+        <v>120100</v>
       </c>
       <c r="J57" s="3">
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="K57" s="3">
         <v>44000</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E58" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>40</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150600</v>
+        <v>153100</v>
       </c>
       <c r="E59" s="3">
-        <v>343800</v>
+        <v>349600</v>
       </c>
       <c r="F59" s="3">
-        <v>269100</v>
+        <v>273600</v>
       </c>
       <c r="G59" s="3">
-        <v>318600</v>
+        <v>323900</v>
       </c>
       <c r="H59" s="3">
-        <v>630300</v>
+        <v>640900</v>
       </c>
       <c r="I59" s="3">
-        <v>465500</v>
+        <v>473300</v>
       </c>
       <c r="J59" s="3">
-        <v>144900</v>
+        <v>147300</v>
       </c>
       <c r="K59" s="3">
         <v>72600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268600</v>
+        <v>273100</v>
       </c>
       <c r="E60" s="3">
-        <v>577200</v>
+        <v>586900</v>
       </c>
       <c r="F60" s="3">
-        <v>477700</v>
+        <v>485800</v>
       </c>
       <c r="G60" s="3">
-        <v>449800</v>
+        <v>457400</v>
       </c>
       <c r="H60" s="3">
-        <v>697100</v>
+        <v>708700</v>
       </c>
       <c r="I60" s="3">
-        <v>583700</v>
+        <v>593500</v>
       </c>
       <c r="J60" s="3">
-        <v>186900</v>
+        <v>190100</v>
       </c>
       <c r="K60" s="3">
         <v>116200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="F62" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G62" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H62" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="I62" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="J62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K62" s="3">
         <v>3000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>279000</v>
+        <v>283700</v>
       </c>
       <c r="E66" s="3">
-        <v>598400</v>
+        <v>608400</v>
       </c>
       <c r="F66" s="3">
-        <v>493700</v>
+        <v>502000</v>
       </c>
       <c r="G66" s="3">
-        <v>471600</v>
+        <v>479500</v>
       </c>
       <c r="H66" s="3">
-        <v>719500</v>
+        <v>731600</v>
       </c>
       <c r="I66" s="3">
-        <v>595100</v>
+        <v>605100</v>
       </c>
       <c r="J66" s="3">
-        <v>190400</v>
+        <v>193600</v>
       </c>
       <c r="K66" s="3">
         <v>119300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1187700</v>
+        <v>-1207600</v>
       </c>
       <c r="E72" s="3">
-        <v>-983300</v>
+        <v>-999800</v>
       </c>
       <c r="F72" s="3">
-        <v>-876400</v>
+        <v>-891000</v>
       </c>
       <c r="G72" s="3">
-        <v>-847800</v>
+        <v>-862000</v>
       </c>
       <c r="H72" s="3">
-        <v>-729600</v>
+        <v>-741900</v>
       </c>
       <c r="I72" s="3">
-        <v>-358500</v>
+        <v>-364500</v>
       </c>
       <c r="J72" s="3">
-        <v>-133800</v>
+        <v>-136100</v>
       </c>
       <c r="K72" s="3">
         <v>-61700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>213200</v>
+        <v>216800</v>
       </c>
       <c r="E76" s="3">
-        <v>417400</v>
+        <v>424400</v>
       </c>
       <c r="F76" s="3">
-        <v>515900</v>
+        <v>524500</v>
       </c>
       <c r="G76" s="3">
-        <v>553600</v>
+        <v>562900</v>
       </c>
       <c r="H76" s="3">
-        <v>692700</v>
+        <v>704300</v>
       </c>
       <c r="I76" s="3">
-        <v>511400</v>
+        <v>520000</v>
       </c>
       <c r="J76" s="3">
-        <v>216900</v>
+        <v>220500</v>
       </c>
       <c r="K76" s="3">
         <v>-64700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-201400</v>
+        <v>-204800</v>
       </c>
       <c r="E81" s="3">
-        <v>-107700</v>
+        <v>-109500</v>
       </c>
       <c r="F81" s="3">
-        <v>-28900</v>
+        <v>-29400</v>
       </c>
       <c r="G81" s="3">
-        <v>-119000</v>
+        <v>-121000</v>
       </c>
       <c r="H81" s="3">
-        <v>-370700</v>
+        <v>-376900</v>
       </c>
       <c r="I81" s="3">
-        <v>-225300</v>
+        <v>-229100</v>
       </c>
       <c r="J81" s="3">
-        <v>-71400</v>
+        <v>-72600</v>
       </c>
       <c r="K81" s="3">
         <v>-21200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="E83" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="F83" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="G83" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="H83" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="I83" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="J83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-202200</v>
+        <v>-205600</v>
       </c>
       <c r="E89" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="F89" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="G89" s="3">
-        <v>-64500</v>
+        <v>-65500</v>
       </c>
       <c r="H89" s="3">
-        <v>-344800</v>
+        <v>-350600</v>
       </c>
       <c r="I89" s="3">
-        <v>-79300</v>
+        <v>-80600</v>
       </c>
       <c r="J89" s="3">
-        <v>-41700</v>
+        <v>-42400</v>
       </c>
       <c r="K89" s="3">
         <v>17800</v>
@@ -3374,22 +3374,22 @@
         <v>-4400</v>
       </c>
       <c r="E91" s="3">
-        <v>-18900</v>
+        <v>-19200</v>
       </c>
       <c r="F91" s="3">
-        <v>-18400</v>
+        <v>-18700</v>
       </c>
       <c r="G91" s="3">
-        <v>-24700</v>
+        <v>-25100</v>
       </c>
       <c r="H91" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="I91" s="3">
-        <v>-23900</v>
+        <v>-24300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>178500</v>
+        <v>181500</v>
       </c>
       <c r="E94" s="3">
-        <v>-89000</v>
+        <v>-90500</v>
       </c>
       <c r="F94" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="G94" s="3">
-        <v>94800</v>
+        <v>96400</v>
       </c>
       <c r="H94" s="3">
-        <v>-420200</v>
+        <v>-427200</v>
       </c>
       <c r="I94" s="3">
-        <v>-294900</v>
+        <v>-299800</v>
       </c>
       <c r="J94" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="K94" s="3">
         <v>-46300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32300</v>
+        <v>-32800</v>
       </c>
       <c r="E100" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="F100" s="3">
-        <v>-22400</v>
+        <v>-22700</v>
       </c>
       <c r="G100" s="3">
-        <v>-120800</v>
+        <v>-122900</v>
       </c>
       <c r="H100" s="3">
-        <v>558500</v>
+        <v>567900</v>
       </c>
       <c r="I100" s="3">
-        <v>462800</v>
+        <v>470600</v>
       </c>
       <c r="J100" s="3">
-        <v>237200</v>
+        <v>241200</v>
       </c>
       <c r="K100" s="3">
         <v>46600</v>
@@ -3717,16 +3717,16 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="H101" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I101" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55200</v>
+        <v>-56100</v>
       </c>
       <c r="E102" s="3">
-        <v>-32100</v>
+        <v>-32600</v>
       </c>
       <c r="F102" s="3">
-        <v>39300</v>
+        <v>39900</v>
       </c>
       <c r="G102" s="3">
-        <v>-97600</v>
+        <v>-99200</v>
       </c>
       <c r="H102" s="3">
-        <v>-189500</v>
+        <v>-192600</v>
       </c>
       <c r="I102" s="3">
-        <v>99100</v>
+        <v>100700</v>
       </c>
       <c r="J102" s="3">
-        <v>159900</v>
+        <v>162600</v>
       </c>
       <c r="K102" s="3">
         <v>18300</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="E8" s="3">
-        <v>357100</v>
+        <v>359800</v>
       </c>
       <c r="F8" s="3">
-        <v>350700</v>
+        <v>353400</v>
       </c>
       <c r="G8" s="3">
-        <v>343200</v>
+        <v>345800</v>
       </c>
       <c r="H8" s="3">
-        <v>1648700</v>
+        <v>1661400</v>
       </c>
       <c r="I8" s="3">
-        <v>1201000</v>
+        <v>1210200</v>
       </c>
       <c r="J8" s="3">
-        <v>553400</v>
+        <v>557700</v>
       </c>
       <c r="K8" s="3">
         <v>296600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="E9" s="3">
-        <v>187900</v>
+        <v>189300</v>
       </c>
       <c r="F9" s="3">
-        <v>166700</v>
+        <v>168000</v>
       </c>
       <c r="G9" s="3">
-        <v>160300</v>
+        <v>161600</v>
       </c>
       <c r="H9" s="3">
-        <v>1548700</v>
+        <v>1560500</v>
       </c>
       <c r="I9" s="3">
-        <v>1144300</v>
+        <v>1153100</v>
       </c>
       <c r="J9" s="3">
-        <v>518000</v>
+        <v>522000</v>
       </c>
       <c r="K9" s="3">
         <v>278300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="E10" s="3">
-        <v>169200</v>
+        <v>170500</v>
       </c>
       <c r="F10" s="3">
-        <v>184000</v>
+        <v>185400</v>
       </c>
       <c r="G10" s="3">
-        <v>182800</v>
+        <v>184200</v>
       </c>
       <c r="H10" s="3">
-        <v>100100</v>
+        <v>100800</v>
       </c>
       <c r="I10" s="3">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="J10" s="3">
-        <v>35400</v>
+        <v>35700</v>
       </c>
       <c r="K10" s="3">
         <v>18300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="E12" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="F12" s="3">
-        <v>49400</v>
+        <v>49700</v>
       </c>
       <c r="G12" s="3">
-        <v>84700</v>
+        <v>85400</v>
       </c>
       <c r="H12" s="3">
-        <v>94200</v>
+        <v>94900</v>
       </c>
       <c r="I12" s="3">
-        <v>46700</v>
+        <v>47000</v>
       </c>
       <c r="J12" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>280400</v>
+        <v>282600</v>
       </c>
       <c r="E17" s="3">
-        <v>493500</v>
+        <v>497200</v>
       </c>
       <c r="F17" s="3">
-        <v>405400</v>
+        <v>408500</v>
       </c>
       <c r="G17" s="3">
-        <v>481500</v>
+        <v>485200</v>
       </c>
       <c r="H17" s="3">
-        <v>2040000</v>
+        <v>2055600</v>
       </c>
       <c r="I17" s="3">
-        <v>1429400</v>
+        <v>1440400</v>
       </c>
       <c r="J17" s="3">
-        <v>627500</v>
+        <v>632300</v>
       </c>
       <c r="K17" s="3">
         <v>311300</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-209900</v>
+        <v>-211500</v>
       </c>
       <c r="E18" s="3">
-        <v>-136300</v>
+        <v>-137400</v>
       </c>
       <c r="F18" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G18" s="3">
-        <v>-138300</v>
+        <v>-139400</v>
       </c>
       <c r="H18" s="3">
-        <v>-391300</v>
+        <v>-394300</v>
       </c>
       <c r="I18" s="3">
-        <v>-228400</v>
+        <v>-230200</v>
       </c>
       <c r="J18" s="3">
-        <v>-74100</v>
+        <v>-74600</v>
       </c>
       <c r="K18" s="3">
         <v>-14800</v>
@@ -1092,22 +1092,22 @@
         <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K20" s="3">
         <v>2600</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-175900</v>
+        <v>-177200</v>
       </c>
       <c r="E21" s="3">
-        <v>-70700</v>
+        <v>-71100</v>
       </c>
       <c r="F21" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G21" s="3">
-        <v>-84600</v>
+        <v>-85100</v>
       </c>
       <c r="H21" s="3">
-        <v>-346400</v>
+        <v>-348900</v>
       </c>
       <c r="I21" s="3">
-        <v>-216200</v>
+        <v>-217800</v>
       </c>
       <c r="J21" s="3">
-        <v>-68300</v>
+        <v>-68800</v>
       </c>
       <c r="K21" s="3">
         <v>-10700</v>
@@ -1164,7 +1164,7 @@
         <v>5100</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>40</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-211400</v>
+        <v>-213000</v>
       </c>
       <c r="E23" s="3">
-        <v>-114000</v>
+        <v>-114900</v>
       </c>
       <c r="F23" s="3">
-        <v>-31200</v>
+        <v>-31400</v>
       </c>
       <c r="G23" s="3">
-        <v>-118300</v>
+        <v>-119200</v>
       </c>
       <c r="H23" s="3">
-        <v>-379500</v>
+        <v>-382400</v>
       </c>
       <c r="I23" s="3">
-        <v>-229700</v>
+        <v>-231400</v>
       </c>
       <c r="J23" s="3">
-        <v>-70100</v>
+        <v>-70700</v>
       </c>
       <c r="K23" s="3">
         <v>-12100</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H24" s="3">
         <v>-300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-210400</v>
+        <v>-212000</v>
       </c>
       <c r="E26" s="3">
-        <v>-114200</v>
+        <v>-115100</v>
       </c>
       <c r="F26" s="3">
-        <v>-31200</v>
+        <v>-31500</v>
       </c>
       <c r="G26" s="3">
-        <v>-120800</v>
+        <v>-121700</v>
       </c>
       <c r="H26" s="3">
-        <v>-379200</v>
+        <v>-382100</v>
       </c>
       <c r="I26" s="3">
-        <v>-229600</v>
+        <v>-231300</v>
       </c>
       <c r="J26" s="3">
-        <v>-70100</v>
+        <v>-70700</v>
       </c>
       <c r="K26" s="3">
         <v>-12100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-204800</v>
+        <v>-206300</v>
       </c>
       <c r="E27" s="3">
-        <v>-109500</v>
+        <v>-110300</v>
       </c>
       <c r="F27" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="G27" s="3">
-        <v>-121000</v>
+        <v>-122000</v>
       </c>
       <c r="H27" s="3">
-        <v>-376900</v>
+        <v>-379800</v>
       </c>
       <c r="I27" s="3">
-        <v>-229100</v>
+        <v>-230800</v>
       </c>
       <c r="J27" s="3">
-        <v>-72600</v>
+        <v>-73100</v>
       </c>
       <c r="K27" s="3">
         <v>-21200</v>
@@ -1524,22 +1524,22 @@
         <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23400</v>
+        <v>-23600</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-20200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K32" s="3">
         <v>-2600</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-204800</v>
+        <v>-206300</v>
       </c>
       <c r="E33" s="3">
-        <v>-109500</v>
+        <v>-110300</v>
       </c>
       <c r="F33" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="G33" s="3">
-        <v>-121000</v>
+        <v>-122000</v>
       </c>
       <c r="H33" s="3">
-        <v>-376900</v>
+        <v>-379800</v>
       </c>
       <c r="I33" s="3">
-        <v>-229100</v>
+        <v>-230800</v>
       </c>
       <c r="J33" s="3">
-        <v>-72600</v>
+        <v>-73100</v>
       </c>
       <c r="K33" s="3">
         <v>-21200</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-204800</v>
+        <v>-206300</v>
       </c>
       <c r="E35" s="3">
-        <v>-109500</v>
+        <v>-110300</v>
       </c>
       <c r="F35" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="G35" s="3">
-        <v>-121000</v>
+        <v>-122000</v>
       </c>
       <c r="H35" s="3">
-        <v>-376900</v>
+        <v>-379800</v>
       </c>
       <c r="I35" s="3">
-        <v>-229100</v>
+        <v>-230800</v>
       </c>
       <c r="J35" s="3">
-        <v>-72600</v>
+        <v>-73100</v>
       </c>
       <c r="K35" s="3">
         <v>-21200</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>33400</v>
+        <v>33700</v>
       </c>
       <c r="E41" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="F41" s="3">
-        <v>87700</v>
+        <v>88400</v>
       </c>
       <c r="G41" s="3">
-        <v>75800</v>
+        <v>76400</v>
       </c>
       <c r="H41" s="3">
-        <v>169900</v>
+        <v>171200</v>
       </c>
       <c r="I41" s="3">
-        <v>329000</v>
+        <v>331500</v>
       </c>
       <c r="J41" s="3">
-        <v>228200</v>
+        <v>230000</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>211900</v>
+        <v>213600</v>
       </c>
       <c r="E42" s="3">
-        <v>204400</v>
+        <v>205900</v>
       </c>
       <c r="F42" s="3">
-        <v>134500</v>
+        <v>135500</v>
       </c>
       <c r="G42" s="3">
-        <v>482900</v>
+        <v>486600</v>
       </c>
       <c r="H42" s="3">
-        <v>564200</v>
+        <v>568500</v>
       </c>
       <c r="I42" s="3">
-        <v>192000</v>
+        <v>193500</v>
       </c>
       <c r="J42" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="K42" s="3">
         <v>49700</v>
@@ -1810,22 +1810,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="E43" s="3">
-        <v>196300</v>
+        <v>197800</v>
       </c>
       <c r="F43" s="3">
-        <v>287400</v>
+        <v>289600</v>
       </c>
       <c r="G43" s="3">
-        <v>96000</v>
+        <v>96800</v>
       </c>
       <c r="H43" s="3">
-        <v>173600</v>
+        <v>175000</v>
       </c>
       <c r="I43" s="3">
-        <v>31300</v>
+        <v>31500</v>
       </c>
       <c r="J43" s="3">
         <v>2400</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="E45" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="F45" s="3">
-        <v>180500</v>
+        <v>181900</v>
       </c>
       <c r="G45" s="3">
-        <v>142000</v>
+        <v>143100</v>
       </c>
       <c r="H45" s="3">
-        <v>525400</v>
+        <v>529400</v>
       </c>
       <c r="I45" s="3">
-        <v>315000</v>
+        <v>317400</v>
       </c>
       <c r="J45" s="3">
-        <v>186000</v>
+        <v>187400</v>
       </c>
       <c r="K45" s="3">
         <v>44400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>357700</v>
+        <v>360400</v>
       </c>
       <c r="E46" s="3">
-        <v>598600</v>
+        <v>603200</v>
       </c>
       <c r="F46" s="3">
-        <v>690100</v>
+        <v>695400</v>
       </c>
       <c r="G46" s="3">
-        <v>796800</v>
+        <v>802900</v>
       </c>
       <c r="H46" s="3">
-        <v>1177500</v>
+        <v>1186500</v>
       </c>
       <c r="I46" s="3">
-        <v>867200</v>
+        <v>873900</v>
       </c>
       <c r="J46" s="3">
-        <v>399900</v>
+        <v>403000</v>
       </c>
       <c r="K46" s="3">
         <v>158800</v>
@@ -1954,19 +1954,19 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="E47" s="3">
-        <v>291700</v>
+        <v>293900</v>
       </c>
       <c r="F47" s="3">
-        <v>203900</v>
+        <v>205500</v>
       </c>
       <c r="G47" s="3">
-        <v>75900</v>
+        <v>76500</v>
       </c>
       <c r="H47" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>40</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>51500</v>
+        <v>51900</v>
       </c>
       <c r="F48" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="G48" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="H48" s="3">
-        <v>55700</v>
+        <v>56100</v>
       </c>
       <c r="I48" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="J48" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="K48" s="3">
         <v>3800</v>
@@ -2026,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="E49" s="3">
-        <v>62400</v>
+        <v>62800</v>
       </c>
       <c r="F49" s="3">
-        <v>74700</v>
+        <v>75300</v>
       </c>
       <c r="G49" s="3">
-        <v>95200</v>
+        <v>96000</v>
       </c>
       <c r="H49" s="3">
-        <v>208600</v>
+        <v>210200</v>
       </c>
       <c r="I49" s="3">
-        <v>133400</v>
+        <v>134400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="E52" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="F52" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="G52" s="3">
-        <v>51200</v>
+        <v>51600</v>
       </c>
       <c r="H52" s="3">
-        <v>95400</v>
+        <v>96100</v>
       </c>
       <c r="I52" s="3">
-        <v>101700</v>
+        <v>102500</v>
       </c>
       <c r="J52" s="3">
         <v>2400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500500</v>
+        <v>504300</v>
       </c>
       <c r="E54" s="3">
-        <v>1032800</v>
+        <v>1040700</v>
       </c>
       <c r="F54" s="3">
-        <v>1026600</v>
+        <v>1034400</v>
       </c>
       <c r="G54" s="3">
-        <v>1042300</v>
+        <v>1050300</v>
       </c>
       <c r="H54" s="3">
-        <v>1435900</v>
+        <v>1446900</v>
       </c>
       <c r="I54" s="3">
-        <v>1125100</v>
+        <v>1133700</v>
       </c>
       <c r="J54" s="3">
-        <v>414100</v>
+        <v>417300</v>
       </c>
       <c r="K54" s="3">
         <v>163600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110500</v>
+        <v>111400</v>
       </c>
       <c r="E57" s="3">
-        <v>205400</v>
+        <v>207000</v>
       </c>
       <c r="F57" s="3">
-        <v>204400</v>
+        <v>206000</v>
       </c>
       <c r="G57" s="3">
-        <v>133500</v>
+        <v>134500</v>
       </c>
       <c r="H57" s="3">
-        <v>160100</v>
+        <v>161300</v>
       </c>
       <c r="I57" s="3">
-        <v>120100</v>
+        <v>121100</v>
       </c>
       <c r="J57" s="3">
-        <v>59900</v>
+        <v>60400</v>
       </c>
       <c r="K57" s="3">
         <v>44000</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E58" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>40</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153100</v>
+        <v>154300</v>
       </c>
       <c r="E59" s="3">
-        <v>349600</v>
+        <v>352300</v>
       </c>
       <c r="F59" s="3">
-        <v>273600</v>
+        <v>275700</v>
       </c>
       <c r="G59" s="3">
-        <v>323900</v>
+        <v>326400</v>
       </c>
       <c r="H59" s="3">
-        <v>640900</v>
+        <v>645800</v>
       </c>
       <c r="I59" s="3">
-        <v>473300</v>
+        <v>477000</v>
       </c>
       <c r="J59" s="3">
-        <v>147300</v>
+        <v>148500</v>
       </c>
       <c r="K59" s="3">
         <v>72600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>273100</v>
+        <v>275200</v>
       </c>
       <c r="E60" s="3">
-        <v>586900</v>
+        <v>591400</v>
       </c>
       <c r="F60" s="3">
-        <v>485800</v>
+        <v>489500</v>
       </c>
       <c r="G60" s="3">
-        <v>457400</v>
+        <v>460900</v>
       </c>
       <c r="H60" s="3">
-        <v>708700</v>
+        <v>714200</v>
       </c>
       <c r="I60" s="3">
-        <v>593500</v>
+        <v>598000</v>
       </c>
       <c r="J60" s="3">
-        <v>190100</v>
+        <v>191500</v>
       </c>
       <c r="K60" s="3">
         <v>116200</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
@@ -2457,19 +2457,19 @@
         <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="F62" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G62" s="3">
         <v>6700</v>
       </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I62" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J62" s="3">
         <v>3500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>283700</v>
+        <v>285900</v>
       </c>
       <c r="E66" s="3">
-        <v>608400</v>
+        <v>613100</v>
       </c>
       <c r="F66" s="3">
-        <v>502000</v>
+        <v>505900</v>
       </c>
       <c r="G66" s="3">
-        <v>479500</v>
+        <v>483200</v>
       </c>
       <c r="H66" s="3">
-        <v>731600</v>
+        <v>737200</v>
       </c>
       <c r="I66" s="3">
-        <v>605100</v>
+        <v>609700</v>
       </c>
       <c r="J66" s="3">
-        <v>193600</v>
+        <v>195000</v>
       </c>
       <c r="K66" s="3">
         <v>119300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1207600</v>
+        <v>-1216900</v>
       </c>
       <c r="E72" s="3">
-        <v>-999800</v>
+        <v>-1007500</v>
       </c>
       <c r="F72" s="3">
-        <v>-891000</v>
+        <v>-897900</v>
       </c>
       <c r="G72" s="3">
-        <v>-862000</v>
+        <v>-868600</v>
       </c>
       <c r="H72" s="3">
-        <v>-741900</v>
+        <v>-747600</v>
       </c>
       <c r="I72" s="3">
-        <v>-364500</v>
+        <v>-367300</v>
       </c>
       <c r="J72" s="3">
-        <v>-136100</v>
+        <v>-137100</v>
       </c>
       <c r="K72" s="3">
         <v>-61700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216800</v>
+        <v>218400</v>
       </c>
       <c r="E76" s="3">
-        <v>424400</v>
+        <v>427600</v>
       </c>
       <c r="F76" s="3">
-        <v>524500</v>
+        <v>528600</v>
       </c>
       <c r="G76" s="3">
-        <v>562900</v>
+        <v>567200</v>
       </c>
       <c r="H76" s="3">
-        <v>704300</v>
+        <v>709700</v>
       </c>
       <c r="I76" s="3">
-        <v>520000</v>
+        <v>524000</v>
       </c>
       <c r="J76" s="3">
-        <v>220500</v>
+        <v>222200</v>
       </c>
       <c r="K76" s="3">
         <v>-64700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-204800</v>
+        <v>-206300</v>
       </c>
       <c r="E81" s="3">
-        <v>-109500</v>
+        <v>-110300</v>
       </c>
       <c r="F81" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="G81" s="3">
-        <v>-121000</v>
+        <v>-122000</v>
       </c>
       <c r="H81" s="3">
-        <v>-376900</v>
+        <v>-379800</v>
       </c>
       <c r="I81" s="3">
-        <v>-229100</v>
+        <v>-230800</v>
       </c>
       <c r="J81" s="3">
-        <v>-72600</v>
+        <v>-73100</v>
       </c>
       <c r="K81" s="3">
         <v>-21200</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="E83" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="F83" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="G83" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="H83" s="3">
-        <v>33100</v>
+        <v>33400</v>
       </c>
       <c r="I83" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-205600</v>
+        <v>-207200</v>
       </c>
       <c r="E89" s="3">
-        <v>-18900</v>
+        <v>-19000</v>
       </c>
       <c r="F89" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="G89" s="3">
-        <v>-65500</v>
+        <v>-66000</v>
       </c>
       <c r="H89" s="3">
-        <v>-350600</v>
+        <v>-353300</v>
       </c>
       <c r="I89" s="3">
-        <v>-80600</v>
+        <v>-81200</v>
       </c>
       <c r="J89" s="3">
-        <v>-42400</v>
+        <v>-42800</v>
       </c>
       <c r="K89" s="3">
         <v>17800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="E91" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="F91" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="G91" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="H91" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="I91" s="3">
-        <v>-24300</v>
+        <v>-24500</v>
       </c>
       <c r="J91" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>181500</v>
+        <v>182900</v>
       </c>
       <c r="E94" s="3">
-        <v>-90500</v>
+        <v>-91200</v>
       </c>
       <c r="F94" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="G94" s="3">
-        <v>96400</v>
+        <v>97100</v>
       </c>
       <c r="H94" s="3">
-        <v>-427200</v>
+        <v>-430500</v>
       </c>
       <c r="I94" s="3">
-        <v>-299800</v>
+        <v>-302100</v>
       </c>
       <c r="J94" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="K94" s="3">
         <v>-46300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32800</v>
+        <v>-33100</v>
       </c>
       <c r="E100" s="3">
-        <v>75900</v>
+        <v>76500</v>
       </c>
       <c r="F100" s="3">
-        <v>-22700</v>
+        <v>-22900</v>
       </c>
       <c r="G100" s="3">
-        <v>-122900</v>
+        <v>-123800</v>
       </c>
       <c r="H100" s="3">
-        <v>567900</v>
+        <v>572200</v>
       </c>
       <c r="I100" s="3">
-        <v>470600</v>
+        <v>474200</v>
       </c>
       <c r="J100" s="3">
-        <v>241200</v>
+        <v>243000</v>
       </c>
       <c r="K100" s="3">
         <v>46600</v>
@@ -3720,13 +3720,13 @@
         <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>17500</v>
       </c>
       <c r="I101" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56100</v>
+        <v>-56500</v>
       </c>
       <c r="E102" s="3">
-        <v>-32600</v>
+        <v>-32900</v>
       </c>
       <c r="F102" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="G102" s="3">
-        <v>-99200</v>
+        <v>-100000</v>
       </c>
       <c r="H102" s="3">
-        <v>-192600</v>
+        <v>-194100</v>
       </c>
       <c r="I102" s="3">
-        <v>100700</v>
+        <v>101500</v>
       </c>
       <c r="J102" s="3">
-        <v>162600</v>
+        <v>163800</v>
       </c>
       <c r="K102" s="3">
         <v>18300</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71000</v>
+        <v>62800</v>
       </c>
       <c r="E8" s="3">
-        <v>359800</v>
+        <v>66400</v>
       </c>
       <c r="F8" s="3">
-        <v>353400</v>
+        <v>336100</v>
       </c>
       <c r="G8" s="3">
-        <v>345800</v>
+        <v>330100</v>
       </c>
       <c r="H8" s="3">
-        <v>1661400</v>
+        <v>323000</v>
       </c>
       <c r="I8" s="3">
-        <v>1210200</v>
+        <v>1551800</v>
       </c>
       <c r="J8" s="3">
+        <v>1130400</v>
+      </c>
+      <c r="K8" s="3">
         <v>557700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>296600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>159700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="E9" s="3">
-        <v>189300</v>
+        <v>34900</v>
       </c>
       <c r="F9" s="3">
-        <v>168000</v>
+        <v>176800</v>
       </c>
       <c r="G9" s="3">
-        <v>161600</v>
+        <v>156900</v>
       </c>
       <c r="H9" s="3">
-        <v>1560500</v>
+        <v>150900</v>
       </c>
       <c r="I9" s="3">
-        <v>1153100</v>
+        <v>1457600</v>
       </c>
       <c r="J9" s="3">
+        <v>1077100</v>
+      </c>
+      <c r="K9" s="3">
         <v>522000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>278300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>154100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>110100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33600</v>
+        <v>25300</v>
       </c>
       <c r="E10" s="3">
-        <v>170500</v>
+        <v>31400</v>
       </c>
       <c r="F10" s="3">
-        <v>185400</v>
+        <v>159300</v>
       </c>
       <c r="G10" s="3">
-        <v>184200</v>
+        <v>173200</v>
       </c>
       <c r="H10" s="3">
-        <v>100800</v>
+        <v>172100</v>
       </c>
       <c r="I10" s="3">
-        <v>57100</v>
+        <v>94200</v>
       </c>
       <c r="J10" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K10" s="3">
         <v>35700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15900</v>
+        <v>7600</v>
       </c>
       <c r="E12" s="3">
-        <v>47900</v>
+        <v>14800</v>
       </c>
       <c r="F12" s="3">
-        <v>49700</v>
+        <v>44700</v>
       </c>
       <c r="G12" s="3">
-        <v>85400</v>
+        <v>46500</v>
       </c>
       <c r="H12" s="3">
-        <v>94900</v>
+        <v>79700</v>
       </c>
       <c r="I12" s="3">
-        <v>47000</v>
+        <v>88600</v>
       </c>
       <c r="J12" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K12" s="3">
         <v>16500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,32 +964,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>282600</v>
+        <v>89600</v>
       </c>
       <c r="E17" s="3">
-        <v>497200</v>
+        <v>263900</v>
       </c>
       <c r="F17" s="3">
-        <v>408500</v>
+        <v>464500</v>
       </c>
       <c r="G17" s="3">
-        <v>485200</v>
+        <v>381500</v>
       </c>
       <c r="H17" s="3">
-        <v>2055600</v>
+        <v>453200</v>
       </c>
       <c r="I17" s="3">
-        <v>1440400</v>
+        <v>1920100</v>
       </c>
       <c r="J17" s="3">
+        <v>1345400</v>
+      </c>
+      <c r="K17" s="3">
         <v>632300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>311300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>176000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>128500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-211500</v>
+        <v>-26800</v>
       </c>
       <c r="E18" s="3">
-        <v>-137400</v>
+        <v>-197600</v>
       </c>
       <c r="F18" s="3">
-        <v>-55100</v>
+        <v>-128300</v>
       </c>
       <c r="G18" s="3">
-        <v>-139400</v>
+        <v>-51400</v>
       </c>
       <c r="H18" s="3">
-        <v>-394300</v>
+        <v>-130200</v>
       </c>
       <c r="I18" s="3">
-        <v>-230200</v>
+        <v>-368300</v>
       </c>
       <c r="J18" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-74600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,91 +1115,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>8800</v>
       </c>
       <c r="E20" s="3">
-        <v>27800</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
-        <v>23600</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="3">
-        <v>20200</v>
+        <v>22100</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>11100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-177200</v>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>-71100</v>
+        <v>-165300</v>
       </c>
       <c r="F21" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-85100</v>
-      </c>
       <c r="H21" s="3">
-        <v>-348900</v>
+        <v>-79200</v>
       </c>
       <c r="I21" s="3">
-        <v>-217800</v>
+        <v>-325700</v>
       </c>
       <c r="J21" s="3">
+        <v>-203400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-68800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>4800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>40</v>
@@ -1184,75 +1223,81 @@
       <c r="K22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-213000</v>
+        <v>-19000</v>
       </c>
       <c r="E23" s="3">
-        <v>-114900</v>
+        <v>-199000</v>
       </c>
       <c r="F23" s="3">
-        <v>-31400</v>
+        <v>-107300</v>
       </c>
       <c r="G23" s="3">
-        <v>-119200</v>
+        <v>-29400</v>
       </c>
       <c r="H23" s="3">
-        <v>-382400</v>
+        <v>-111400</v>
       </c>
       <c r="I23" s="3">
-        <v>-231400</v>
+        <v>-357200</v>
       </c>
       <c r="J23" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-70700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1262,9 +1307,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-212000</v>
+        <v>-19000</v>
       </c>
       <c r="E26" s="3">
-        <v>-115100</v>
+        <v>-198000</v>
       </c>
       <c r="F26" s="3">
-        <v>-31500</v>
+        <v>-107500</v>
       </c>
       <c r="G26" s="3">
-        <v>-121700</v>
+        <v>-29400</v>
       </c>
       <c r="H26" s="3">
-        <v>-382100</v>
+        <v>-113700</v>
       </c>
       <c r="I26" s="3">
-        <v>-231300</v>
+        <v>-357000</v>
       </c>
       <c r="J26" s="3">
+        <v>-216100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-70700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-206300</v>
+        <v>-17900</v>
       </c>
       <c r="E27" s="3">
-        <v>-110300</v>
+        <v>-192700</v>
       </c>
       <c r="F27" s="3">
-        <v>-29600</v>
+        <v>-103000</v>
       </c>
       <c r="G27" s="3">
-        <v>-122000</v>
+        <v>-27700</v>
       </c>
       <c r="H27" s="3">
-        <v>-379800</v>
+        <v>-113900</v>
       </c>
       <c r="I27" s="3">
-        <v>-230800</v>
+        <v>-354700</v>
       </c>
       <c r="J27" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-73100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-8800</v>
       </c>
       <c r="E32" s="3">
-        <v>-27800</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
-        <v>-23600</v>
+        <v>-26000</v>
       </c>
       <c r="G32" s="3">
-        <v>-20200</v>
+        <v>-22100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-18800</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>-11100</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-206300</v>
+        <v>-17900</v>
       </c>
       <c r="E33" s="3">
-        <v>-110300</v>
+        <v>-192700</v>
       </c>
       <c r="F33" s="3">
-        <v>-29600</v>
+        <v>-103000</v>
       </c>
       <c r="G33" s="3">
-        <v>-122000</v>
+        <v>-27700</v>
       </c>
       <c r="H33" s="3">
-        <v>-379800</v>
+        <v>-113900</v>
       </c>
       <c r="I33" s="3">
-        <v>-230800</v>
+        <v>-354700</v>
       </c>
       <c r="J33" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-73100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-206300</v>
+        <v>-17900</v>
       </c>
       <c r="E35" s="3">
-        <v>-110300</v>
+        <v>-192700</v>
       </c>
       <c r="F35" s="3">
-        <v>-29600</v>
+        <v>-103000</v>
       </c>
       <c r="G35" s="3">
-        <v>-122000</v>
+        <v>-27700</v>
       </c>
       <c r="H35" s="3">
-        <v>-379800</v>
+        <v>-113900</v>
       </c>
       <c r="I35" s="3">
-        <v>-230800</v>
+        <v>-354700</v>
       </c>
       <c r="J35" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-73100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,116 +1817,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>33700</v>
+        <v>51400</v>
       </c>
       <c r="E41" s="3">
-        <v>46600</v>
+        <v>31500</v>
       </c>
       <c r="F41" s="3">
-        <v>88400</v>
+        <v>43500</v>
       </c>
       <c r="G41" s="3">
-        <v>76400</v>
+        <v>82600</v>
       </c>
       <c r="H41" s="3">
-        <v>171200</v>
+        <v>71300</v>
       </c>
       <c r="I41" s="3">
-        <v>331500</v>
+        <v>159900</v>
       </c>
       <c r="J41" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K41" s="3">
         <v>230000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>213600</v>
+        <v>90800</v>
       </c>
       <c r="E42" s="3">
-        <v>205900</v>
+        <v>199500</v>
       </c>
       <c r="F42" s="3">
-        <v>135500</v>
+        <v>192400</v>
       </c>
       <c r="G42" s="3">
-        <v>486600</v>
+        <v>126600</v>
       </c>
       <c r="H42" s="3">
-        <v>568500</v>
+        <v>454600</v>
       </c>
       <c r="I42" s="3">
-        <v>193500</v>
+        <v>531000</v>
       </c>
       <c r="J42" s="3">
+        <v>180700</v>
+      </c>
+      <c r="K42" s="3">
         <v>73900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4300</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>64500</v>
+        <v>18700</v>
       </c>
       <c r="E43" s="3">
-        <v>197800</v>
+        <v>60200</v>
       </c>
       <c r="F43" s="3">
-        <v>289600</v>
+        <v>184800</v>
       </c>
       <c r="G43" s="3">
-        <v>96800</v>
+        <v>270500</v>
       </c>
       <c r="H43" s="3">
-        <v>175000</v>
+        <v>90400</v>
       </c>
       <c r="I43" s="3">
-        <v>31500</v>
+        <v>163400</v>
       </c>
       <c r="J43" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1875,101 +1970,110 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>48700</v>
+        <v>56500</v>
       </c>
       <c r="E45" s="3">
-        <v>152800</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>181900</v>
+        <v>142700</v>
       </c>
       <c r="G45" s="3">
-        <v>143100</v>
+        <v>169900</v>
       </c>
       <c r="H45" s="3">
-        <v>529400</v>
+        <v>133700</v>
       </c>
       <c r="I45" s="3">
-        <v>317400</v>
+        <v>494500</v>
       </c>
       <c r="J45" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K45" s="3">
         <v>187400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>360400</v>
+        <v>217400</v>
       </c>
       <c r="E46" s="3">
-        <v>603200</v>
+        <v>336600</v>
       </c>
       <c r="F46" s="3">
-        <v>695400</v>
+        <v>563400</v>
       </c>
       <c r="G46" s="3">
-        <v>802900</v>
+        <v>649500</v>
       </c>
       <c r="H46" s="3">
-        <v>1186500</v>
+        <v>750000</v>
       </c>
       <c r="I46" s="3">
-        <v>873900</v>
+        <v>1108300</v>
       </c>
       <c r="J46" s="3">
+        <v>816300</v>
+      </c>
+      <c r="K46" s="3">
         <v>403000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>158800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>42100</v>
+        <v>29800</v>
       </c>
       <c r="E47" s="3">
-        <v>293900</v>
+        <v>39300</v>
       </c>
       <c r="F47" s="3">
-        <v>205500</v>
+        <v>274600</v>
       </c>
       <c r="G47" s="3">
-        <v>76500</v>
+        <v>191900</v>
       </c>
       <c r="H47" s="3">
-        <v>19500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>40</v>
+        <v>71500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>18200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>40</v>
@@ -1983,71 +2087,77 @@
       <c r="M47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24300</v>
+        <v>21600</v>
       </c>
       <c r="E48" s="3">
-        <v>51900</v>
+        <v>22700</v>
       </c>
       <c r="F48" s="3">
-        <v>29600</v>
+        <v>48500</v>
       </c>
       <c r="G48" s="3">
-        <v>23400</v>
+        <v>27600</v>
       </c>
       <c r="H48" s="3">
-        <v>56100</v>
+        <v>21900</v>
       </c>
       <c r="I48" s="3">
-        <v>22900</v>
+        <v>52400</v>
       </c>
       <c r="J48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K48" s="3">
         <v>22800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>63100</v>
+        <v>42300</v>
       </c>
       <c r="E49" s="3">
-        <v>62800</v>
+        <v>59000</v>
       </c>
       <c r="F49" s="3">
-        <v>75300</v>
+        <v>58700</v>
       </c>
       <c r="G49" s="3">
-        <v>96000</v>
+        <v>70300</v>
       </c>
       <c r="H49" s="3">
-        <v>210200</v>
+        <v>89600</v>
       </c>
       <c r="I49" s="3">
-        <v>134400</v>
+        <v>196300</v>
       </c>
       <c r="J49" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K49" s="3">
         <v>500</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>40</v>
@@ -2055,9 +2165,12 @@
       <c r="M49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14400</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>28800</v>
+        <v>13400</v>
       </c>
       <c r="F52" s="3">
-        <v>28700</v>
+        <v>26900</v>
       </c>
       <c r="G52" s="3">
-        <v>51600</v>
+        <v>26800</v>
       </c>
       <c r="H52" s="3">
-        <v>96100</v>
+        <v>48200</v>
       </c>
       <c r="I52" s="3">
-        <v>102500</v>
+        <v>89800</v>
       </c>
       <c r="J52" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>700</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>504300</v>
+        <v>338600</v>
       </c>
       <c r="E54" s="3">
-        <v>1040700</v>
+        <v>471100</v>
       </c>
       <c r="F54" s="3">
-        <v>1034400</v>
+        <v>972100</v>
       </c>
       <c r="G54" s="3">
-        <v>1050300</v>
+        <v>966200</v>
       </c>
       <c r="H54" s="3">
-        <v>1446900</v>
+        <v>981100</v>
       </c>
       <c r="I54" s="3">
-        <v>1133700</v>
+        <v>1351500</v>
       </c>
       <c r="J54" s="3">
+        <v>1058900</v>
+      </c>
+      <c r="K54" s="3">
         <v>417300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,58 +2397,62 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>111400</v>
+        <v>56500</v>
       </c>
       <c r="E57" s="3">
-        <v>207000</v>
+        <v>104000</v>
       </c>
       <c r="F57" s="3">
-        <v>206000</v>
+        <v>193300</v>
       </c>
       <c r="G57" s="3">
-        <v>134500</v>
+        <v>192400</v>
       </c>
       <c r="H57" s="3">
-        <v>161300</v>
+        <v>125600</v>
       </c>
       <c r="I57" s="3">
-        <v>121100</v>
+        <v>150700</v>
       </c>
       <c r="J57" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K57" s="3">
         <v>60400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9600</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>32200</v>
+        <v>8900</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>40</v>
+        <v>30000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
@@ -2327,104 +2460,113 @@
       <c r="I58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154300</v>
+        <v>86300</v>
       </c>
       <c r="E59" s="3">
-        <v>352300</v>
+        <v>144100</v>
       </c>
       <c r="F59" s="3">
-        <v>275700</v>
+        <v>329000</v>
       </c>
       <c r="G59" s="3">
-        <v>326400</v>
+        <v>257500</v>
       </c>
       <c r="H59" s="3">
-        <v>645800</v>
+        <v>304900</v>
       </c>
       <c r="I59" s="3">
-        <v>477000</v>
+        <v>603200</v>
       </c>
       <c r="J59" s="3">
+        <v>445500</v>
+      </c>
+      <c r="K59" s="3">
         <v>148500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>275200</v>
+        <v>144300</v>
       </c>
       <c r="E60" s="3">
-        <v>591400</v>
+        <v>257100</v>
       </c>
       <c r="F60" s="3">
-        <v>489500</v>
+        <v>552400</v>
       </c>
       <c r="G60" s="3">
-        <v>460900</v>
+        <v>457200</v>
       </c>
       <c r="H60" s="3">
-        <v>714200</v>
+        <v>430500</v>
       </c>
       <c r="I60" s="3">
-        <v>598000</v>
+        <v>667100</v>
       </c>
       <c r="J60" s="3">
+        <v>558600</v>
+      </c>
+      <c r="K60" s="3">
         <v>191500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3600</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2447,45 +2589,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>14100</v>
+        <v>7700</v>
       </c>
       <c r="F62" s="3">
-        <v>6400</v>
+        <v>13200</v>
       </c>
       <c r="G62" s="3">
-        <v>6700</v>
+        <v>6000</v>
       </c>
       <c r="H62" s="3">
-        <v>12400</v>
+        <v>6300</v>
       </c>
       <c r="I62" s="3">
-        <v>9100</v>
+        <v>11600</v>
       </c>
       <c r="J62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>285900</v>
+        <v>151600</v>
       </c>
       <c r="E66" s="3">
-        <v>613100</v>
+        <v>267000</v>
       </c>
       <c r="F66" s="3">
-        <v>505900</v>
+        <v>572600</v>
       </c>
       <c r="G66" s="3">
-        <v>483200</v>
+        <v>472500</v>
       </c>
       <c r="H66" s="3">
-        <v>737200</v>
+        <v>451300</v>
       </c>
       <c r="I66" s="3">
-        <v>609700</v>
+        <v>688600</v>
       </c>
       <c r="J66" s="3">
+        <v>569500</v>
+      </c>
+      <c r="K66" s="3">
         <v>195000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2743,17 +2910,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>109000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>50300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>52100</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1216900</v>
+        <v>-1154500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1007500</v>
+        <v>-1136600</v>
       </c>
       <c r="F72" s="3">
-        <v>-897900</v>
+        <v>-941000</v>
       </c>
       <c r="G72" s="3">
-        <v>-868600</v>
+        <v>-838700</v>
       </c>
       <c r="H72" s="3">
-        <v>-747600</v>
+        <v>-811300</v>
       </c>
       <c r="I72" s="3">
-        <v>-367300</v>
+        <v>-698300</v>
       </c>
       <c r="J72" s="3">
+        <v>-343100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-137100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>218400</v>
+        <v>187000</v>
       </c>
       <c r="E76" s="3">
-        <v>427600</v>
+        <v>204000</v>
       </c>
       <c r="F76" s="3">
-        <v>528600</v>
+        <v>399400</v>
       </c>
       <c r="G76" s="3">
-        <v>567200</v>
+        <v>493700</v>
       </c>
       <c r="H76" s="3">
-        <v>709700</v>
+        <v>529800</v>
       </c>
       <c r="I76" s="3">
-        <v>524000</v>
+        <v>663000</v>
       </c>
       <c r="J76" s="3">
+        <v>489400</v>
+      </c>
+      <c r="K76" s="3">
         <v>222200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-64700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-40300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-25900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-206300</v>
+        <v>-17900</v>
       </c>
       <c r="E81" s="3">
-        <v>-110300</v>
+        <v>-192700</v>
       </c>
       <c r="F81" s="3">
-        <v>-29600</v>
+        <v>-103000</v>
       </c>
       <c r="G81" s="3">
-        <v>-122000</v>
+        <v>-27700</v>
       </c>
       <c r="H81" s="3">
-        <v>-379800</v>
+        <v>-113900</v>
       </c>
       <c r="I81" s="3">
-        <v>-230800</v>
+        <v>-354700</v>
       </c>
       <c r="J81" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-73100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>30700</v>
+      <c r="D83" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E83" s="3">
-        <v>38300</v>
+        <v>28700</v>
       </c>
       <c r="F83" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="G83" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="H83" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="I83" s="3">
-        <v>13500</v>
+        <v>31200</v>
       </c>
       <c r="J83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-207200</v>
+      <c r="D89" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E89" s="3">
-        <v>-19000</v>
+        <v>-193500</v>
       </c>
       <c r="F89" s="3">
-        <v>42300</v>
+        <v>-17800</v>
       </c>
       <c r="G89" s="3">
-        <v>-66000</v>
+        <v>39500</v>
       </c>
       <c r="H89" s="3">
-        <v>-353300</v>
+        <v>-61700</v>
       </c>
       <c r="I89" s="3">
-        <v>-81200</v>
+        <v>-330000</v>
       </c>
       <c r="J89" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4500</v>
+      <c r="D91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E91" s="3">
-        <v>-19300</v>
+        <v>-4200</v>
       </c>
       <c r="F91" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="G91" s="3">
-        <v>-25300</v>
+        <v>-17600</v>
       </c>
       <c r="H91" s="3">
-        <v>-18600</v>
+        <v>-23700</v>
       </c>
       <c r="I91" s="3">
-        <v>-24500</v>
+        <v>-17400</v>
       </c>
       <c r="J91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>182900</v>
+      <c r="D94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E94" s="3">
-        <v>-91200</v>
+        <v>170800</v>
       </c>
       <c r="F94" s="3">
-        <v>24300</v>
+        <v>-85200</v>
       </c>
       <c r="G94" s="3">
-        <v>97100</v>
+        <v>22700</v>
       </c>
       <c r="H94" s="3">
-        <v>-430500</v>
+        <v>90700</v>
       </c>
       <c r="I94" s="3">
-        <v>-302100</v>
+        <v>-402100</v>
       </c>
       <c r="J94" s="3">
+        <v>-282200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-33100</v>
+      <c r="D100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E100" s="3">
-        <v>76500</v>
+        <v>-30900</v>
       </c>
       <c r="F100" s="3">
-        <v>-22900</v>
+        <v>71500</v>
       </c>
       <c r="G100" s="3">
-        <v>-123800</v>
+        <v>-21400</v>
       </c>
       <c r="H100" s="3">
-        <v>572200</v>
+        <v>-115600</v>
       </c>
       <c r="I100" s="3">
-        <v>474200</v>
+        <v>534500</v>
       </c>
       <c r="J100" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K100" s="3">
         <v>243000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>800</v>
+      <c r="D101" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>17500</v>
+        <v>-6800</v>
       </c>
       <c r="I101" s="3">
-        <v>10700</v>
+        <v>16300</v>
       </c>
       <c r="J101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-56500</v>
+      <c r="D102" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E102" s="3">
-        <v>-32900</v>
+        <v>-52800</v>
       </c>
       <c r="F102" s="3">
-        <v>40200</v>
+        <v>-30700</v>
       </c>
       <c r="G102" s="3">
-        <v>-100000</v>
+        <v>37600</v>
       </c>
       <c r="H102" s="3">
-        <v>-194100</v>
+        <v>-93400</v>
       </c>
       <c r="I102" s="3">
-        <v>101500</v>
+        <v>-181300</v>
       </c>
       <c r="J102" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K102" s="3">
         <v>163800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62800</v>
+        <v>62300</v>
       </c>
       <c r="E8" s="3">
-        <v>66400</v>
+        <v>65800</v>
       </c>
       <c r="F8" s="3">
-        <v>336100</v>
+        <v>333100</v>
       </c>
       <c r="G8" s="3">
-        <v>330100</v>
+        <v>327100</v>
       </c>
       <c r="H8" s="3">
-        <v>323000</v>
+        <v>320100</v>
       </c>
       <c r="I8" s="3">
-        <v>1551800</v>
+        <v>1537800</v>
       </c>
       <c r="J8" s="3">
-        <v>1130400</v>
+        <v>1120200</v>
       </c>
       <c r="K8" s="3">
         <v>557700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="E9" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="F9" s="3">
-        <v>176800</v>
+        <v>175200</v>
       </c>
       <c r="G9" s="3">
-        <v>156900</v>
+        <v>155500</v>
       </c>
       <c r="H9" s="3">
-        <v>150900</v>
+        <v>149600</v>
       </c>
       <c r="I9" s="3">
-        <v>1457600</v>
+        <v>1444500</v>
       </c>
       <c r="J9" s="3">
-        <v>1077100</v>
+        <v>1067300</v>
       </c>
       <c r="K9" s="3">
         <v>522000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="E10" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="F10" s="3">
-        <v>159300</v>
+        <v>157900</v>
       </c>
       <c r="G10" s="3">
-        <v>173200</v>
+        <v>171600</v>
       </c>
       <c r="H10" s="3">
-        <v>172100</v>
+        <v>170500</v>
       </c>
       <c r="I10" s="3">
-        <v>94200</v>
+        <v>93300</v>
       </c>
       <c r="J10" s="3">
-        <v>53300</v>
+        <v>52900</v>
       </c>
       <c r="K10" s="3">
         <v>35700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="F12" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="G12" s="3">
-        <v>46500</v>
+        <v>46000</v>
       </c>
       <c r="H12" s="3">
-        <v>79700</v>
+        <v>79000</v>
       </c>
       <c r="I12" s="3">
-        <v>88600</v>
+        <v>87800</v>
       </c>
       <c r="J12" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="K12" s="3">
         <v>16500</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>89600</v>
+        <v>88800</v>
       </c>
       <c r="E17" s="3">
-        <v>263900</v>
+        <v>261500</v>
       </c>
       <c r="F17" s="3">
-        <v>464500</v>
+        <v>460300</v>
       </c>
       <c r="G17" s="3">
-        <v>381500</v>
+        <v>378100</v>
       </c>
       <c r="H17" s="3">
-        <v>453200</v>
+        <v>449100</v>
       </c>
       <c r="I17" s="3">
-        <v>1920100</v>
+        <v>1902800</v>
       </c>
       <c r="J17" s="3">
-        <v>1345400</v>
+        <v>1333300</v>
       </c>
       <c r="K17" s="3">
         <v>632300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="E18" s="3">
-        <v>-197600</v>
+        <v>-195800</v>
       </c>
       <c r="F18" s="3">
-        <v>-128300</v>
+        <v>-127200</v>
       </c>
       <c r="G18" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H18" s="3">
-        <v>-130200</v>
+        <v>-129000</v>
       </c>
       <c r="I18" s="3">
-        <v>-368300</v>
+        <v>-364900</v>
       </c>
       <c r="J18" s="3">
-        <v>-215000</v>
+        <v>-213000</v>
       </c>
       <c r="K18" s="3">
         <v>-74600</v>
@@ -1125,19 +1125,19 @@
         <v>8800</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="G20" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H20" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="I20" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
+      <c r="D21" s="3">
+        <v>-11400</v>
       </c>
       <c r="E21" s="3">
-        <v>-165300</v>
+        <v>-164100</v>
       </c>
       <c r="F21" s="3">
-        <v>-66200</v>
+        <v>-66000</v>
       </c>
       <c r="G21" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="H21" s="3">
-        <v>-79200</v>
+        <v>-78900</v>
       </c>
       <c r="I21" s="3">
-        <v>-325700</v>
+        <v>-323100</v>
       </c>
       <c r="J21" s="3">
-        <v>-203400</v>
+        <v>-201700</v>
       </c>
       <c r="K21" s="3">
         <v>-68800</v>
@@ -1203,7 +1203,7 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
         <v>5000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="E23" s="3">
-        <v>-199000</v>
+        <v>-197200</v>
       </c>
       <c r="F23" s="3">
-        <v>-107300</v>
+        <v>-106400</v>
       </c>
       <c r="G23" s="3">
-        <v>-29400</v>
+        <v>-29100</v>
       </c>
       <c r="H23" s="3">
-        <v>-111400</v>
+        <v>-110400</v>
       </c>
       <c r="I23" s="3">
-        <v>-357200</v>
+        <v>-354000</v>
       </c>
       <c r="J23" s="3">
-        <v>-216200</v>
+        <v>-214200</v>
       </c>
       <c r="K23" s="3">
         <v>-70700</v>
@@ -1293,7 +1293,7 @@
         <v>2300</v>
       </c>
       <c r="I24" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-19000</v>
+        <v>-18900</v>
       </c>
       <c r="E26" s="3">
-        <v>-198000</v>
+        <v>-196200</v>
       </c>
       <c r="F26" s="3">
-        <v>-107500</v>
+        <v>-106500</v>
       </c>
       <c r="G26" s="3">
-        <v>-29400</v>
+        <v>-29100</v>
       </c>
       <c r="H26" s="3">
-        <v>-113700</v>
+        <v>-112600</v>
       </c>
       <c r="I26" s="3">
-        <v>-357000</v>
+        <v>-353700</v>
       </c>
       <c r="J26" s="3">
-        <v>-216100</v>
+        <v>-214100</v>
       </c>
       <c r="K26" s="3">
         <v>-70700</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E27" s="3">
-        <v>-192700</v>
+        <v>-191000</v>
       </c>
       <c r="F27" s="3">
-        <v>-103000</v>
+        <v>-102100</v>
       </c>
       <c r="G27" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="H27" s="3">
-        <v>-113900</v>
+        <v>-112900</v>
       </c>
       <c r="I27" s="3">
-        <v>-354700</v>
+        <v>-351500</v>
       </c>
       <c r="J27" s="3">
-        <v>-215600</v>
+        <v>-213700</v>
       </c>
       <c r="K27" s="3">
         <v>-73100</v>
@@ -1593,19 +1593,19 @@
         <v>-8800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
-        <v>-26000</v>
+        <v>-25800</v>
       </c>
       <c r="G32" s="3">
-        <v>-22100</v>
+        <v>-21900</v>
       </c>
       <c r="H32" s="3">
-        <v>-18800</v>
+        <v>-18700</v>
       </c>
       <c r="I32" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E33" s="3">
-        <v>-192700</v>
+        <v>-191000</v>
       </c>
       <c r="F33" s="3">
-        <v>-103000</v>
+        <v>-102100</v>
       </c>
       <c r="G33" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="H33" s="3">
-        <v>-113900</v>
+        <v>-112900</v>
       </c>
       <c r="I33" s="3">
-        <v>-354700</v>
+        <v>-351500</v>
       </c>
       <c r="J33" s="3">
-        <v>-215600</v>
+        <v>-213700</v>
       </c>
       <c r="K33" s="3">
         <v>-73100</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E35" s="3">
-        <v>-192700</v>
+        <v>-191000</v>
       </c>
       <c r="F35" s="3">
-        <v>-103000</v>
+        <v>-102100</v>
       </c>
       <c r="G35" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="H35" s="3">
-        <v>-113900</v>
+        <v>-112900</v>
       </c>
       <c r="I35" s="3">
-        <v>-354700</v>
+        <v>-351500</v>
       </c>
       <c r="J35" s="3">
-        <v>-215600</v>
+        <v>-213700</v>
       </c>
       <c r="K35" s="3">
         <v>-73100</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>51400</v>
+        <v>51000</v>
       </c>
       <c r="E41" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="F41" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="G41" s="3">
-        <v>82600</v>
+        <v>81800</v>
       </c>
       <c r="H41" s="3">
-        <v>71300</v>
+        <v>70700</v>
       </c>
       <c r="I41" s="3">
-        <v>159900</v>
+        <v>158500</v>
       </c>
       <c r="J41" s="3">
-        <v>309600</v>
+        <v>306800</v>
       </c>
       <c r="K41" s="3">
         <v>230000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>90800</v>
+        <v>89900</v>
       </c>
       <c r="E42" s="3">
-        <v>199500</v>
+        <v>197700</v>
       </c>
       <c r="F42" s="3">
-        <v>192400</v>
+        <v>190600</v>
       </c>
       <c r="G42" s="3">
-        <v>126600</v>
+        <v>125500</v>
       </c>
       <c r="H42" s="3">
-        <v>454600</v>
+        <v>450400</v>
       </c>
       <c r="I42" s="3">
-        <v>531000</v>
+        <v>526200</v>
       </c>
       <c r="J42" s="3">
-        <v>180700</v>
+        <v>179100</v>
       </c>
       <c r="K42" s="3">
         <v>73900</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18700</v>
+        <v>54100</v>
       </c>
       <c r="E43" s="3">
-        <v>60200</v>
+        <v>59700</v>
       </c>
       <c r="F43" s="3">
-        <v>184800</v>
+        <v>183100</v>
       </c>
       <c r="G43" s="3">
-        <v>270500</v>
+        <v>268000</v>
       </c>
       <c r="H43" s="3">
-        <v>90400</v>
+        <v>89600</v>
       </c>
       <c r="I43" s="3">
-        <v>163400</v>
+        <v>162000</v>
       </c>
       <c r="J43" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="K43" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>56500</v>
+        <v>20500</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="F45" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="G45" s="3">
-        <v>169900</v>
+        <v>168300</v>
       </c>
       <c r="H45" s="3">
-        <v>133700</v>
+        <v>132500</v>
       </c>
       <c r="I45" s="3">
-        <v>494500</v>
+        <v>490000</v>
       </c>
       <c r="J45" s="3">
-        <v>296500</v>
+        <v>293800</v>
       </c>
       <c r="K45" s="3">
         <v>187400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>217400</v>
+        <v>215500</v>
       </c>
       <c r="E46" s="3">
-        <v>336600</v>
+        <v>333600</v>
       </c>
       <c r="F46" s="3">
-        <v>563400</v>
+        <v>558300</v>
       </c>
       <c r="G46" s="3">
-        <v>649500</v>
+        <v>643700</v>
       </c>
       <c r="H46" s="3">
-        <v>750000</v>
+        <v>743200</v>
       </c>
       <c r="I46" s="3">
-        <v>1108300</v>
+        <v>1098300</v>
       </c>
       <c r="J46" s="3">
-        <v>816300</v>
+        <v>808900</v>
       </c>
       <c r="K46" s="3">
         <v>403000</v>
@@ -2058,22 +2058,22 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="E47" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="F47" s="3">
-        <v>274600</v>
+        <v>272100</v>
       </c>
       <c r="G47" s="3">
-        <v>191900</v>
+        <v>190200</v>
       </c>
       <c r="H47" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="I47" s="3">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>40</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="E48" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="F48" s="3">
-        <v>48500</v>
+        <v>48100</v>
       </c>
       <c r="G48" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="H48" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="I48" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="J48" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="K48" s="3">
         <v>22800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42300</v>
+        <v>55800</v>
       </c>
       <c r="E49" s="3">
-        <v>59000</v>
+        <v>58400</v>
       </c>
       <c r="F49" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="G49" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="H49" s="3">
-        <v>89600</v>
+        <v>88800</v>
       </c>
       <c r="I49" s="3">
-        <v>196300</v>
+        <v>194500</v>
       </c>
       <c r="J49" s="3">
-        <v>125600</v>
+        <v>124400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="E52" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="F52" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="G52" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="H52" s="3">
-        <v>48200</v>
+        <v>47700</v>
       </c>
       <c r="I52" s="3">
-        <v>89800</v>
+        <v>88900</v>
       </c>
       <c r="J52" s="3">
-        <v>95700</v>
+        <v>94800</v>
       </c>
       <c r="K52" s="3">
         <v>2400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>338600</v>
+        <v>335500</v>
       </c>
       <c r="E54" s="3">
-        <v>471100</v>
+        <v>466800</v>
       </c>
       <c r="F54" s="3">
-        <v>972100</v>
+        <v>963300</v>
       </c>
       <c r="G54" s="3">
-        <v>966200</v>
+        <v>957500</v>
       </c>
       <c r="H54" s="3">
-        <v>981100</v>
+        <v>972200</v>
       </c>
       <c r="I54" s="3">
-        <v>1351500</v>
+        <v>1339300</v>
       </c>
       <c r="J54" s="3">
-        <v>1058900</v>
+        <v>1049400</v>
       </c>
       <c r="K54" s="3">
         <v>417300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="E57" s="3">
-        <v>104000</v>
+        <v>103100</v>
       </c>
       <c r="F57" s="3">
-        <v>193300</v>
+        <v>191600</v>
       </c>
       <c r="G57" s="3">
-        <v>192400</v>
+        <v>190700</v>
       </c>
       <c r="H57" s="3">
-        <v>125600</v>
+        <v>124500</v>
       </c>
       <c r="I57" s="3">
-        <v>150700</v>
+        <v>149300</v>
       </c>
       <c r="J57" s="3">
-        <v>113100</v>
+        <v>112000</v>
       </c>
       <c r="K57" s="3">
         <v>60400</v>
@@ -2449,10 +2449,10 @@
         <v>8900</v>
       </c>
       <c r="F58" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="G58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86300</v>
+        <v>85500</v>
       </c>
       <c r="E59" s="3">
-        <v>144100</v>
+        <v>142800</v>
       </c>
       <c r="F59" s="3">
-        <v>329000</v>
+        <v>326100</v>
       </c>
       <c r="G59" s="3">
-        <v>257500</v>
+        <v>255200</v>
       </c>
       <c r="H59" s="3">
-        <v>304900</v>
+        <v>302100</v>
       </c>
       <c r="I59" s="3">
-        <v>603200</v>
+        <v>597800</v>
       </c>
       <c r="J59" s="3">
-        <v>445500</v>
+        <v>441500</v>
       </c>
       <c r="K59" s="3">
         <v>148500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144300</v>
+        <v>143000</v>
       </c>
       <c r="E60" s="3">
-        <v>257100</v>
+        <v>254800</v>
       </c>
       <c r="F60" s="3">
-        <v>552400</v>
+        <v>547400</v>
       </c>
       <c r="G60" s="3">
-        <v>457200</v>
+        <v>453100</v>
       </c>
       <c r="H60" s="3">
-        <v>430500</v>
+        <v>426600</v>
       </c>
       <c r="I60" s="3">
-        <v>667100</v>
+        <v>661100</v>
       </c>
       <c r="J60" s="3">
-        <v>558600</v>
+        <v>553500</v>
       </c>
       <c r="K60" s="3">
         <v>191500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
-        <v>7700</v>
-      </c>
       <c r="F62" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="G62" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H62" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I62" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="J62" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="K62" s="3">
         <v>3500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151600</v>
+        <v>150200</v>
       </c>
       <c r="E66" s="3">
-        <v>267000</v>
+        <v>264600</v>
       </c>
       <c r="F66" s="3">
-        <v>572600</v>
+        <v>567500</v>
       </c>
       <c r="G66" s="3">
-        <v>472500</v>
+        <v>468300</v>
       </c>
       <c r="H66" s="3">
-        <v>451300</v>
+        <v>447200</v>
       </c>
       <c r="I66" s="3">
-        <v>688600</v>
+        <v>682400</v>
       </c>
       <c r="J66" s="3">
-        <v>569500</v>
+        <v>564400</v>
       </c>
       <c r="K66" s="3">
         <v>195000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1154500</v>
+        <v>-1144100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1136600</v>
+        <v>-1126400</v>
       </c>
       <c r="F72" s="3">
-        <v>-941000</v>
+        <v>-932500</v>
       </c>
       <c r="G72" s="3">
-        <v>-838700</v>
+        <v>-831100</v>
       </c>
       <c r="H72" s="3">
-        <v>-811300</v>
+        <v>-804000</v>
       </c>
       <c r="I72" s="3">
-        <v>-698300</v>
+        <v>-692000</v>
       </c>
       <c r="J72" s="3">
-        <v>-343100</v>
+        <v>-340000</v>
       </c>
       <c r="K72" s="3">
         <v>-137100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>187000</v>
+        <v>185300</v>
       </c>
       <c r="E76" s="3">
-        <v>204000</v>
+        <v>202200</v>
       </c>
       <c r="F76" s="3">
-        <v>399400</v>
+        <v>395800</v>
       </c>
       <c r="G76" s="3">
-        <v>493700</v>
+        <v>489300</v>
       </c>
       <c r="H76" s="3">
-        <v>529800</v>
+        <v>525000</v>
       </c>
       <c r="I76" s="3">
-        <v>663000</v>
+        <v>657000</v>
       </c>
       <c r="J76" s="3">
-        <v>489400</v>
+        <v>485000</v>
       </c>
       <c r="K76" s="3">
         <v>222200</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E81" s="3">
-        <v>-192700</v>
+        <v>-191000</v>
       </c>
       <c r="F81" s="3">
-        <v>-103000</v>
+        <v>-102100</v>
       </c>
       <c r="G81" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="H81" s="3">
-        <v>-113900</v>
+        <v>-112900</v>
       </c>
       <c r="I81" s="3">
-        <v>-354700</v>
+        <v>-351500</v>
       </c>
       <c r="J81" s="3">
-        <v>-215600</v>
+        <v>-213700</v>
       </c>
       <c r="K81" s="3">
         <v>-73100</v>
@@ -3300,26 +3300,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>40</v>
+      <c r="D83" s="3">
+        <v>6300</v>
       </c>
       <c r="E83" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="F83" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="G83" s="3">
-        <v>32400</v>
+        <v>32200</v>
       </c>
       <c r="H83" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="I83" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="J83" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
@@ -3534,26 +3534,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>40</v>
+      <c r="D89" s="3">
+        <v>-33100</v>
       </c>
       <c r="E89" s="3">
-        <v>-193500</v>
+        <v>-191800</v>
       </c>
       <c r="F89" s="3">
-        <v>-17800</v>
+        <v>-17600</v>
       </c>
       <c r="G89" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="H89" s="3">
-        <v>-61700</v>
+        <v>-61100</v>
       </c>
       <c r="I89" s="3">
-        <v>-330000</v>
+        <v>-327000</v>
       </c>
       <c r="J89" s="3">
-        <v>-75900</v>
+        <v>-75200</v>
       </c>
       <c r="K89" s="3">
         <v>-42800</v>
@@ -3590,26 +3590,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>40</v>
+      <c r="D91" s="3">
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="H91" s="3">
-        <v>-23700</v>
+        <v>-23400</v>
       </c>
       <c r="I91" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="J91" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="K91" s="3">
         <v>-8000</v>
@@ -3707,26 +3707,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>40</v>
+      <c r="D94" s="3">
+        <v>102800</v>
       </c>
       <c r="E94" s="3">
-        <v>170800</v>
+        <v>169300</v>
       </c>
       <c r="F94" s="3">
-        <v>-85200</v>
+        <v>-84400</v>
       </c>
       <c r="G94" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="H94" s="3">
-        <v>90700</v>
+        <v>89900</v>
       </c>
       <c r="I94" s="3">
-        <v>-402100</v>
+        <v>-398500</v>
       </c>
       <c r="J94" s="3">
-        <v>-282200</v>
+        <v>-279700</v>
       </c>
       <c r="K94" s="3">
         <v>-36000</v>
@@ -3919,26 +3919,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>40</v>
+      <c r="D100" s="3">
+        <v>-50300</v>
       </c>
       <c r="E100" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="F100" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="G100" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="H100" s="3">
-        <v>-115600</v>
+        <v>-114600</v>
       </c>
       <c r="I100" s="3">
-        <v>534500</v>
+        <v>529700</v>
       </c>
       <c r="J100" s="3">
-        <v>442900</v>
+        <v>438900</v>
       </c>
       <c r="K100" s="3">
         <v>243000</v>
@@ -3958,8 +3958,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>40</v>
+      <c r="D101" s="3">
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3971,13 +3971,13 @@
         <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I101" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="J101" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3997,26 +3997,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>40</v>
+      <c r="D102" s="3">
+        <v>19200</v>
       </c>
       <c r="E102" s="3">
-        <v>-52800</v>
+        <v>-52300</v>
       </c>
       <c r="F102" s="3">
-        <v>-30700</v>
+        <v>-30400</v>
       </c>
       <c r="G102" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="H102" s="3">
-        <v>-93400</v>
+        <v>-92600</v>
       </c>
       <c r="I102" s="3">
-        <v>-181300</v>
+        <v>-179700</v>
       </c>
       <c r="J102" s="3">
-        <v>94800</v>
+        <v>94000</v>
       </c>
       <c r="K102" s="3">
         <v>163800</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62300</v>
+        <v>59300</v>
       </c>
       <c r="E8" s="3">
-        <v>65800</v>
+        <v>62700</v>
       </c>
       <c r="F8" s="3">
-        <v>333100</v>
+        <v>317500</v>
       </c>
       <c r="G8" s="3">
-        <v>327100</v>
+        <v>311800</v>
       </c>
       <c r="H8" s="3">
-        <v>320100</v>
+        <v>305100</v>
       </c>
       <c r="I8" s="3">
-        <v>1537800</v>
+        <v>1465900</v>
       </c>
       <c r="J8" s="3">
-        <v>1120200</v>
+        <v>1067800</v>
       </c>
       <c r="K8" s="3">
         <v>557700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="E9" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="F9" s="3">
-        <v>175200</v>
+        <v>167000</v>
       </c>
       <c r="G9" s="3">
-        <v>155500</v>
+        <v>148300</v>
       </c>
       <c r="H9" s="3">
-        <v>149600</v>
+        <v>142600</v>
       </c>
       <c r="I9" s="3">
-        <v>1444500</v>
+        <v>1376900</v>
       </c>
       <c r="J9" s="3">
-        <v>1067300</v>
+        <v>1017400</v>
       </c>
       <c r="K9" s="3">
         <v>522000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="E10" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="F10" s="3">
-        <v>157900</v>
+        <v>150500</v>
       </c>
       <c r="G10" s="3">
-        <v>171600</v>
+        <v>163600</v>
       </c>
       <c r="H10" s="3">
-        <v>170500</v>
+        <v>162600</v>
       </c>
       <c r="I10" s="3">
-        <v>93300</v>
+        <v>89000</v>
       </c>
       <c r="J10" s="3">
-        <v>52900</v>
+        <v>50400</v>
       </c>
       <c r="K10" s="3">
         <v>35700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="E12" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="F12" s="3">
-        <v>44300</v>
+        <v>42300</v>
       </c>
       <c r="G12" s="3">
-        <v>46000</v>
+        <v>43900</v>
       </c>
       <c r="H12" s="3">
-        <v>79000</v>
+        <v>75300</v>
       </c>
       <c r="I12" s="3">
-        <v>87800</v>
+        <v>83700</v>
       </c>
       <c r="J12" s="3">
-        <v>43500</v>
+        <v>41500</v>
       </c>
       <c r="K12" s="3">
         <v>16500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>88800</v>
+        <v>84600</v>
       </c>
       <c r="E17" s="3">
-        <v>261500</v>
+        <v>249300</v>
       </c>
       <c r="F17" s="3">
-        <v>460300</v>
+        <v>438700</v>
       </c>
       <c r="G17" s="3">
-        <v>378100</v>
+        <v>360400</v>
       </c>
       <c r="H17" s="3">
-        <v>449100</v>
+        <v>428100</v>
       </c>
       <c r="I17" s="3">
-        <v>1902800</v>
+        <v>1813800</v>
       </c>
       <c r="J17" s="3">
-        <v>1333300</v>
+        <v>1270900</v>
       </c>
       <c r="K17" s="3">
         <v>632300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26500</v>
+        <v>-25300</v>
       </c>
       <c r="E18" s="3">
-        <v>-195800</v>
+        <v>-186600</v>
       </c>
       <c r="F18" s="3">
-        <v>-127200</v>
+        <v>-121200</v>
       </c>
       <c r="G18" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H18" s="3">
-        <v>-129000</v>
+        <v>-123000</v>
       </c>
       <c r="I18" s="3">
-        <v>-364900</v>
+        <v>-347900</v>
       </c>
       <c r="J18" s="3">
-        <v>-213000</v>
+        <v>-203100</v>
       </c>
       <c r="K18" s="3">
         <v>-74600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>25800</v>
+        <v>24600</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="H20" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="I20" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K20" s="3">
         <v>4000</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-11400</v>
+        <v>-10900</v>
       </c>
       <c r="E21" s="3">
-        <v>-164100</v>
+        <v>-156600</v>
       </c>
       <c r="F21" s="3">
-        <v>-66000</v>
+        <v>-63100</v>
       </c>
       <c r="G21" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H21" s="3">
-        <v>-78900</v>
+        <v>-75400</v>
       </c>
       <c r="I21" s="3">
-        <v>-323100</v>
+        <v>-308200</v>
       </c>
       <c r="J21" s="3">
-        <v>-201700</v>
+        <v>-192300</v>
       </c>
       <c r="K21" s="3">
         <v>-68800</v>
@@ -1200,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>40</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="E23" s="3">
-        <v>-197200</v>
+        <v>-188000</v>
       </c>
       <c r="F23" s="3">
-        <v>-106400</v>
+        <v>-101400</v>
       </c>
       <c r="G23" s="3">
-        <v>-29100</v>
+        <v>-27700</v>
       </c>
       <c r="H23" s="3">
-        <v>-110400</v>
+        <v>-105200</v>
       </c>
       <c r="I23" s="3">
-        <v>-354000</v>
+        <v>-337400</v>
       </c>
       <c r="J23" s="3">
-        <v>-214200</v>
+        <v>-204200</v>
       </c>
       <c r="K23" s="3">
         <v>-70700</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="E26" s="3">
-        <v>-196200</v>
+        <v>-187000</v>
       </c>
       <c r="F26" s="3">
-        <v>-106500</v>
+        <v>-101500</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>-27800</v>
       </c>
       <c r="H26" s="3">
-        <v>-112600</v>
+        <v>-107400</v>
       </c>
       <c r="I26" s="3">
-        <v>-353700</v>
+        <v>-337200</v>
       </c>
       <c r="J26" s="3">
-        <v>-214100</v>
+        <v>-204100</v>
       </c>
       <c r="K26" s="3">
         <v>-70700</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="E27" s="3">
-        <v>-191000</v>
+        <v>-182100</v>
       </c>
       <c r="F27" s="3">
-        <v>-102100</v>
+        <v>-97300</v>
       </c>
       <c r="G27" s="3">
-        <v>-27400</v>
+        <v>-26200</v>
       </c>
       <c r="H27" s="3">
-        <v>-112900</v>
+        <v>-107600</v>
       </c>
       <c r="I27" s="3">
-        <v>-351500</v>
+        <v>-335100</v>
       </c>
       <c r="J27" s="3">
-        <v>-213700</v>
+        <v>-203700</v>
       </c>
       <c r="K27" s="3">
         <v>-73100</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>-25800</v>
+        <v>-24600</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-20800</v>
       </c>
       <c r="H32" s="3">
-        <v>-18700</v>
+        <v>-17800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="J32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K32" s="3">
         <v>-4000</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="E33" s="3">
-        <v>-191000</v>
+        <v>-182100</v>
       </c>
       <c r="F33" s="3">
-        <v>-102100</v>
+        <v>-97300</v>
       </c>
       <c r="G33" s="3">
-        <v>-27400</v>
+        <v>-26200</v>
       </c>
       <c r="H33" s="3">
-        <v>-112900</v>
+        <v>-107600</v>
       </c>
       <c r="I33" s="3">
-        <v>-351500</v>
+        <v>-335100</v>
       </c>
       <c r="J33" s="3">
-        <v>-213700</v>
+        <v>-203700</v>
       </c>
       <c r="K33" s="3">
         <v>-73100</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="E35" s="3">
-        <v>-191000</v>
+        <v>-182100</v>
       </c>
       <c r="F35" s="3">
-        <v>-102100</v>
+        <v>-97300</v>
       </c>
       <c r="G35" s="3">
-        <v>-27400</v>
+        <v>-26200</v>
       </c>
       <c r="H35" s="3">
-        <v>-112900</v>
+        <v>-107600</v>
       </c>
       <c r="I35" s="3">
-        <v>-351500</v>
+        <v>-335100</v>
       </c>
       <c r="J35" s="3">
-        <v>-213700</v>
+        <v>-203700</v>
       </c>
       <c r="K35" s="3">
         <v>-73100</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E41" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="F41" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="G41" s="3">
-        <v>81800</v>
+        <v>78000</v>
       </c>
       <c r="H41" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="I41" s="3">
-        <v>158500</v>
+        <v>151100</v>
       </c>
       <c r="J41" s="3">
-        <v>306800</v>
+        <v>292500</v>
       </c>
       <c r="K41" s="3">
         <v>230000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>89900</v>
+        <v>85700</v>
       </c>
       <c r="E42" s="3">
-        <v>197700</v>
+        <v>188400</v>
       </c>
       <c r="F42" s="3">
-        <v>190600</v>
+        <v>181700</v>
       </c>
       <c r="G42" s="3">
-        <v>125500</v>
+        <v>119600</v>
       </c>
       <c r="H42" s="3">
-        <v>450400</v>
+        <v>429400</v>
       </c>
       <c r="I42" s="3">
-        <v>526200</v>
+        <v>501600</v>
       </c>
       <c r="J42" s="3">
-        <v>179100</v>
+        <v>170700</v>
       </c>
       <c r="K42" s="3">
         <v>73900</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>54100</v>
+        <v>51500</v>
       </c>
       <c r="E43" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="F43" s="3">
-        <v>183100</v>
+        <v>174600</v>
       </c>
       <c r="G43" s="3">
-        <v>268000</v>
+        <v>255500</v>
       </c>
       <c r="H43" s="3">
-        <v>89600</v>
+        <v>85400</v>
       </c>
       <c r="I43" s="3">
-        <v>162000</v>
+        <v>154400</v>
       </c>
       <c r="J43" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="K43" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="E45" s="3">
-        <v>45100</v>
+        <v>42900</v>
       </c>
       <c r="F45" s="3">
-        <v>141400</v>
+        <v>134800</v>
       </c>
       <c r="G45" s="3">
-        <v>168300</v>
+        <v>160500</v>
       </c>
       <c r="H45" s="3">
-        <v>132500</v>
+        <v>126300</v>
       </c>
       <c r="I45" s="3">
-        <v>490000</v>
+        <v>467100</v>
       </c>
       <c r="J45" s="3">
-        <v>293800</v>
+        <v>280100</v>
       </c>
       <c r="K45" s="3">
         <v>187400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>215500</v>
+        <v>205400</v>
       </c>
       <c r="E46" s="3">
-        <v>333600</v>
+        <v>318000</v>
       </c>
       <c r="F46" s="3">
-        <v>558300</v>
+        <v>532200</v>
       </c>
       <c r="G46" s="3">
-        <v>643700</v>
+        <v>613600</v>
       </c>
       <c r="H46" s="3">
-        <v>743200</v>
+        <v>708400</v>
       </c>
       <c r="I46" s="3">
-        <v>1098300</v>
+        <v>1046900</v>
       </c>
       <c r="J46" s="3">
-        <v>808900</v>
+        <v>771100</v>
       </c>
       <c r="K46" s="3">
         <v>403000</v>
@@ -2058,22 +2058,22 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29500</v>
+        <v>28100</v>
       </c>
       <c r="E47" s="3">
-        <v>39000</v>
+        <v>37100</v>
       </c>
       <c r="F47" s="3">
-        <v>272100</v>
+        <v>259400</v>
       </c>
       <c r="G47" s="3">
-        <v>190200</v>
+        <v>181300</v>
       </c>
       <c r="H47" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="I47" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>40</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E48" s="3">
         <v>21400</v>
       </c>
-      <c r="E48" s="3">
-        <v>22500</v>
-      </c>
       <c r="F48" s="3">
-        <v>48100</v>
+        <v>45800</v>
       </c>
       <c r="G48" s="3">
-        <v>27400</v>
+        <v>26100</v>
       </c>
       <c r="H48" s="3">
-        <v>21700</v>
+        <v>20600</v>
       </c>
       <c r="I48" s="3">
-        <v>51900</v>
+        <v>49500</v>
       </c>
       <c r="J48" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="K48" s="3">
         <v>22800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55800</v>
+        <v>53200</v>
       </c>
       <c r="E49" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="F49" s="3">
-        <v>58200</v>
+        <v>55400</v>
       </c>
       <c r="G49" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="H49" s="3">
-        <v>88800</v>
+        <v>84700</v>
       </c>
       <c r="I49" s="3">
-        <v>194500</v>
+        <v>185400</v>
       </c>
       <c r="J49" s="3">
-        <v>124400</v>
+        <v>118600</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="E52" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="F52" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="G52" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="H52" s="3">
-        <v>47700</v>
+        <v>45500</v>
       </c>
       <c r="I52" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="J52" s="3">
-        <v>94800</v>
+        <v>90400</v>
       </c>
       <c r="K52" s="3">
         <v>2400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335500</v>
+        <v>319900</v>
       </c>
       <c r="E54" s="3">
-        <v>466800</v>
+        <v>445000</v>
       </c>
       <c r="F54" s="3">
-        <v>963300</v>
+        <v>918200</v>
       </c>
       <c r="G54" s="3">
-        <v>957500</v>
+        <v>912700</v>
       </c>
       <c r="H54" s="3">
-        <v>972200</v>
+        <v>926800</v>
       </c>
       <c r="I54" s="3">
-        <v>1339300</v>
+        <v>1276700</v>
       </c>
       <c r="J54" s="3">
-        <v>1049400</v>
+        <v>1000300</v>
       </c>
       <c r="K54" s="3">
         <v>417300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="E57" s="3">
-        <v>103100</v>
+        <v>98300</v>
       </c>
       <c r="F57" s="3">
-        <v>191600</v>
+        <v>182600</v>
       </c>
       <c r="G57" s="3">
-        <v>190700</v>
+        <v>181700</v>
       </c>
       <c r="H57" s="3">
-        <v>124500</v>
+        <v>118700</v>
       </c>
       <c r="I57" s="3">
-        <v>149300</v>
+        <v>142400</v>
       </c>
       <c r="J57" s="3">
-        <v>112000</v>
+        <v>106800</v>
       </c>
       <c r="K57" s="3">
         <v>60400</v>
@@ -2443,16 +2443,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="F58" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="G58" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="E59" s="3">
-        <v>142800</v>
+        <v>136100</v>
       </c>
       <c r="F59" s="3">
-        <v>326100</v>
+        <v>310800</v>
       </c>
       <c r="G59" s="3">
-        <v>255200</v>
+        <v>243300</v>
       </c>
       <c r="H59" s="3">
-        <v>302100</v>
+        <v>288000</v>
       </c>
       <c r="I59" s="3">
-        <v>597800</v>
+        <v>569800</v>
       </c>
       <c r="J59" s="3">
-        <v>441500</v>
+        <v>420800</v>
       </c>
       <c r="K59" s="3">
         <v>148500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>143000</v>
+        <v>136300</v>
       </c>
       <c r="E60" s="3">
-        <v>254800</v>
+        <v>242800</v>
       </c>
       <c r="F60" s="3">
-        <v>547400</v>
+        <v>521800</v>
       </c>
       <c r="G60" s="3">
-        <v>453100</v>
+        <v>431900</v>
       </c>
       <c r="H60" s="3">
-        <v>426600</v>
+        <v>406600</v>
       </c>
       <c r="I60" s="3">
-        <v>661100</v>
+        <v>630200</v>
       </c>
       <c r="J60" s="3">
-        <v>553500</v>
+        <v>527700</v>
       </c>
       <c r="K60" s="3">
         <v>191500</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F61" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="E62" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3">
-        <v>6200</v>
-      </c>
       <c r="I62" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="J62" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="K62" s="3">
         <v>3500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>150200</v>
+        <v>143200</v>
       </c>
       <c r="E66" s="3">
-        <v>264600</v>
+        <v>252200</v>
       </c>
       <c r="F66" s="3">
-        <v>567500</v>
+        <v>540900</v>
       </c>
       <c r="G66" s="3">
-        <v>468300</v>
+        <v>446400</v>
       </c>
       <c r="H66" s="3">
-        <v>447200</v>
+        <v>426300</v>
       </c>
       <c r="I66" s="3">
-        <v>682400</v>
+        <v>650500</v>
       </c>
       <c r="J66" s="3">
-        <v>564400</v>
+        <v>538000</v>
       </c>
       <c r="K66" s="3">
         <v>195000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1144100</v>
+        <v>-1090600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1126400</v>
+        <v>-1073700</v>
       </c>
       <c r="F72" s="3">
-        <v>-932500</v>
+        <v>-888900</v>
       </c>
       <c r="G72" s="3">
-        <v>-831100</v>
+        <v>-792200</v>
       </c>
       <c r="H72" s="3">
-        <v>-804000</v>
+        <v>-766400</v>
       </c>
       <c r="I72" s="3">
-        <v>-692000</v>
+        <v>-659600</v>
       </c>
       <c r="J72" s="3">
-        <v>-340000</v>
+        <v>-324100</v>
       </c>
       <c r="K72" s="3">
         <v>-137100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>185300</v>
+        <v>176700</v>
       </c>
       <c r="E76" s="3">
-        <v>202200</v>
+        <v>192700</v>
       </c>
       <c r="F76" s="3">
-        <v>395800</v>
+        <v>377300</v>
       </c>
       <c r="G76" s="3">
-        <v>489300</v>
+        <v>466400</v>
       </c>
       <c r="H76" s="3">
-        <v>525000</v>
+        <v>500400</v>
       </c>
       <c r="I76" s="3">
-        <v>657000</v>
+        <v>626200</v>
       </c>
       <c r="J76" s="3">
-        <v>485000</v>
+        <v>462300</v>
       </c>
       <c r="K76" s="3">
         <v>222200</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="E81" s="3">
-        <v>-191000</v>
+        <v>-182100</v>
       </c>
       <c r="F81" s="3">
-        <v>-102100</v>
+        <v>-97300</v>
       </c>
       <c r="G81" s="3">
-        <v>-27400</v>
+        <v>-26200</v>
       </c>
       <c r="H81" s="3">
-        <v>-112900</v>
+        <v>-107600</v>
       </c>
       <c r="I81" s="3">
-        <v>-351500</v>
+        <v>-335100</v>
       </c>
       <c r="J81" s="3">
-        <v>-213700</v>
+        <v>-203700</v>
       </c>
       <c r="K81" s="3">
         <v>-73100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="F83" s="3">
-        <v>35500</v>
+        <v>33800</v>
       </c>
       <c r="G83" s="3">
-        <v>32200</v>
+        <v>30600</v>
       </c>
       <c r="H83" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="I83" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="J83" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="E89" s="3">
-        <v>-191800</v>
+        <v>-182800</v>
       </c>
       <c r="F89" s="3">
-        <v>-17600</v>
+        <v>-16800</v>
       </c>
       <c r="G89" s="3">
-        <v>39100</v>
+        <v>37300</v>
       </c>
       <c r="H89" s="3">
-        <v>-61100</v>
+        <v>-58300</v>
       </c>
       <c r="I89" s="3">
-        <v>-327000</v>
+        <v>-311700</v>
       </c>
       <c r="J89" s="3">
-        <v>-75200</v>
+        <v>-71700</v>
       </c>
       <c r="K89" s="3">
         <v>-42800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="F91" s="3">
-        <v>-17900</v>
+        <v>-17000</v>
       </c>
       <c r="G91" s="3">
-        <v>-17400</v>
+        <v>-16600</v>
       </c>
       <c r="H91" s="3">
-        <v>-23400</v>
+        <v>-22300</v>
       </c>
       <c r="I91" s="3">
-        <v>-17200</v>
+        <v>-16400</v>
       </c>
       <c r="J91" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K91" s="3">
         <v>-8000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="E94" s="3">
-        <v>169300</v>
+        <v>161300</v>
       </c>
       <c r="F94" s="3">
-        <v>-84400</v>
+        <v>-80500</v>
       </c>
       <c r="G94" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="H94" s="3">
-        <v>89900</v>
+        <v>85700</v>
       </c>
       <c r="I94" s="3">
-        <v>-398500</v>
+        <v>-379800</v>
       </c>
       <c r="J94" s="3">
-        <v>-279700</v>
+        <v>-266600</v>
       </c>
       <c r="K94" s="3">
         <v>-36000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-50300</v>
+        <v>-48000</v>
       </c>
       <c r="E100" s="3">
-        <v>-30600</v>
+        <v>-29200</v>
       </c>
       <c r="F100" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="G100" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="H100" s="3">
-        <v>-114600</v>
+        <v>-109200</v>
       </c>
       <c r="I100" s="3">
-        <v>529700</v>
+        <v>504900</v>
       </c>
       <c r="J100" s="3">
-        <v>438900</v>
+        <v>418400</v>
       </c>
       <c r="K100" s="3">
         <v>243000</v>
@@ -3962,22 +3962,22 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="I101" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="J101" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="E102" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="F102" s="3">
-        <v>-30400</v>
+        <v>-29000</v>
       </c>
       <c r="G102" s="3">
-        <v>37300</v>
+        <v>35500</v>
       </c>
       <c r="H102" s="3">
-        <v>-92600</v>
+        <v>-88200</v>
       </c>
       <c r="I102" s="3">
-        <v>-179700</v>
+        <v>-171300</v>
       </c>
       <c r="J102" s="3">
-        <v>94000</v>
+        <v>89600</v>
       </c>
       <c r="K102" s="3">
         <v>163800</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59300</v>
+        <v>61200</v>
       </c>
       <c r="E8" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F8" s="3">
-        <v>317500</v>
+        <v>327600</v>
       </c>
       <c r="G8" s="3">
-        <v>311800</v>
+        <v>321700</v>
       </c>
       <c r="H8" s="3">
-        <v>305100</v>
+        <v>314800</v>
       </c>
       <c r="I8" s="3">
-        <v>1465900</v>
+        <v>1512500</v>
       </c>
       <c r="J8" s="3">
-        <v>1067800</v>
+        <v>1101700</v>
       </c>
       <c r="K8" s="3">
         <v>557700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35500</v>
+        <v>36600</v>
       </c>
       <c r="E9" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F9" s="3">
-        <v>167000</v>
+        <v>172300</v>
       </c>
       <c r="G9" s="3">
-        <v>148300</v>
+        <v>153000</v>
       </c>
       <c r="H9" s="3">
-        <v>142600</v>
+        <v>147100</v>
       </c>
       <c r="I9" s="3">
-        <v>1376900</v>
+        <v>1420700</v>
       </c>
       <c r="J9" s="3">
-        <v>1017400</v>
+        <v>1049700</v>
       </c>
       <c r="K9" s="3">
         <v>522000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="E10" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="F10" s="3">
-        <v>150500</v>
+        <v>155200</v>
       </c>
       <c r="G10" s="3">
-        <v>163600</v>
+        <v>168800</v>
       </c>
       <c r="H10" s="3">
-        <v>162600</v>
+        <v>167700</v>
       </c>
       <c r="I10" s="3">
-        <v>89000</v>
+        <v>91800</v>
       </c>
       <c r="J10" s="3">
-        <v>50400</v>
+        <v>52000</v>
       </c>
       <c r="K10" s="3">
         <v>35700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E12" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="F12" s="3">
-        <v>42300</v>
+        <v>43600</v>
       </c>
       <c r="G12" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="H12" s="3">
-        <v>75300</v>
+        <v>77700</v>
       </c>
       <c r="I12" s="3">
-        <v>83700</v>
+        <v>86400</v>
       </c>
       <c r="J12" s="3">
-        <v>41500</v>
+        <v>42800</v>
       </c>
       <c r="K12" s="3">
         <v>16500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>84600</v>
+        <v>87300</v>
       </c>
       <c r="E17" s="3">
-        <v>249300</v>
+        <v>257200</v>
       </c>
       <c r="F17" s="3">
-        <v>438700</v>
+        <v>452700</v>
       </c>
       <c r="G17" s="3">
-        <v>360400</v>
+        <v>371900</v>
       </c>
       <c r="H17" s="3">
-        <v>428100</v>
+        <v>441700</v>
       </c>
       <c r="I17" s="3">
-        <v>1813800</v>
+        <v>1871400</v>
       </c>
       <c r="J17" s="3">
-        <v>1270900</v>
+        <v>1311300</v>
       </c>
       <c r="K17" s="3">
         <v>632300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-25300</v>
+        <v>-26100</v>
       </c>
       <c r="E18" s="3">
-        <v>-186600</v>
+        <v>-192600</v>
       </c>
       <c r="F18" s="3">
-        <v>-121200</v>
+        <v>-125100</v>
       </c>
       <c r="G18" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H18" s="3">
-        <v>-123000</v>
+        <v>-126900</v>
       </c>
       <c r="I18" s="3">
-        <v>-347900</v>
+        <v>-358900</v>
       </c>
       <c r="J18" s="3">
-        <v>-203100</v>
+        <v>-209500</v>
       </c>
       <c r="K18" s="3">
         <v>-74600</v>
@@ -1122,22 +1122,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="E20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
-        <v>24600</v>
+        <v>25300</v>
       </c>
       <c r="G20" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="H20" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="I20" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="J20" s="3">
         <v>-1100</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-10900</v>
+        <v>-11200</v>
       </c>
       <c r="E21" s="3">
-        <v>-156600</v>
+        <v>-161300</v>
       </c>
       <c r="F21" s="3">
-        <v>-63100</v>
+        <v>-64800</v>
       </c>
       <c r="G21" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="H21" s="3">
-        <v>-75400</v>
+        <v>-77500</v>
       </c>
       <c r="I21" s="3">
-        <v>-308200</v>
+        <v>-317700</v>
       </c>
       <c r="J21" s="3">
-        <v>-192300</v>
+        <v>-198300</v>
       </c>
       <c r="K21" s="3">
         <v>-68800</v>
@@ -1200,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>40</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="E23" s="3">
-        <v>-188000</v>
+        <v>-193900</v>
       </c>
       <c r="F23" s="3">
-        <v>-101400</v>
+        <v>-104600</v>
       </c>
       <c r="G23" s="3">
-        <v>-27700</v>
+        <v>-28600</v>
       </c>
       <c r="H23" s="3">
-        <v>-105200</v>
+        <v>-108500</v>
       </c>
       <c r="I23" s="3">
-        <v>-337400</v>
+        <v>-348100</v>
       </c>
       <c r="J23" s="3">
-        <v>-204200</v>
+        <v>-210700</v>
       </c>
       <c r="K23" s="3">
         <v>-70700</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="E26" s="3">
-        <v>-187000</v>
+        <v>-193000</v>
       </c>
       <c r="F26" s="3">
-        <v>-101500</v>
+        <v>-104800</v>
       </c>
       <c r="G26" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="H26" s="3">
-        <v>-107400</v>
+        <v>-110800</v>
       </c>
       <c r="I26" s="3">
-        <v>-337200</v>
+        <v>-347900</v>
       </c>
       <c r="J26" s="3">
-        <v>-204100</v>
+        <v>-210600</v>
       </c>
       <c r="K26" s="3">
         <v>-70700</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="E27" s="3">
-        <v>-182100</v>
+        <v>-187800</v>
       </c>
       <c r="F27" s="3">
-        <v>-97300</v>
+        <v>-100400</v>
       </c>
       <c r="G27" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="H27" s="3">
-        <v>-107600</v>
+        <v>-111000</v>
       </c>
       <c r="I27" s="3">
-        <v>-335100</v>
+        <v>-345700</v>
       </c>
       <c r="J27" s="3">
-        <v>-203700</v>
+        <v>-210200</v>
       </c>
       <c r="K27" s="3">
         <v>-73100</v>
@@ -1590,22 +1590,22 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
-        <v>-24600</v>
+        <v>-25300</v>
       </c>
       <c r="G32" s="3">
-        <v>-20800</v>
+        <v>-21500</v>
       </c>
       <c r="H32" s="3">
-        <v>-17800</v>
+        <v>-18300</v>
       </c>
       <c r="I32" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="J32" s="3">
         <v>1100</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="E33" s="3">
-        <v>-182100</v>
+        <v>-187800</v>
       </c>
       <c r="F33" s="3">
-        <v>-97300</v>
+        <v>-100400</v>
       </c>
       <c r="G33" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="H33" s="3">
-        <v>-107600</v>
+        <v>-111000</v>
       </c>
       <c r="I33" s="3">
-        <v>-335100</v>
+        <v>-345700</v>
       </c>
       <c r="J33" s="3">
-        <v>-203700</v>
+        <v>-210200</v>
       </c>
       <c r="K33" s="3">
         <v>-73100</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="E35" s="3">
-        <v>-182100</v>
+        <v>-187800</v>
       </c>
       <c r="F35" s="3">
-        <v>-97300</v>
+        <v>-100400</v>
       </c>
       <c r="G35" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="H35" s="3">
-        <v>-107600</v>
+        <v>-111000</v>
       </c>
       <c r="I35" s="3">
-        <v>-335100</v>
+        <v>-345700</v>
       </c>
       <c r="J35" s="3">
-        <v>-203700</v>
+        <v>-210200</v>
       </c>
       <c r="K35" s="3">
         <v>-73100</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="E41" s="3">
-        <v>29700</v>
+        <v>30700</v>
       </c>
       <c r="F41" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="G41" s="3">
-        <v>78000</v>
+        <v>80500</v>
       </c>
       <c r="H41" s="3">
-        <v>67400</v>
+        <v>69500</v>
       </c>
       <c r="I41" s="3">
-        <v>151100</v>
+        <v>155900</v>
       </c>
       <c r="J41" s="3">
-        <v>292500</v>
+        <v>301800</v>
       </c>
       <c r="K41" s="3">
         <v>230000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>85700</v>
+        <v>88500</v>
       </c>
       <c r="E42" s="3">
-        <v>188400</v>
+        <v>194400</v>
       </c>
       <c r="F42" s="3">
-        <v>181700</v>
+        <v>187500</v>
       </c>
       <c r="G42" s="3">
-        <v>119600</v>
+        <v>123400</v>
       </c>
       <c r="H42" s="3">
-        <v>429400</v>
+        <v>443000</v>
       </c>
       <c r="I42" s="3">
-        <v>501600</v>
+        <v>517500</v>
       </c>
       <c r="J42" s="3">
-        <v>170700</v>
+        <v>176100</v>
       </c>
       <c r="K42" s="3">
         <v>73900</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>51500</v>
+        <v>53200</v>
       </c>
       <c r="E43" s="3">
-        <v>56900</v>
+        <v>58700</v>
       </c>
       <c r="F43" s="3">
-        <v>174600</v>
+        <v>180100</v>
       </c>
       <c r="G43" s="3">
-        <v>255500</v>
+        <v>263600</v>
       </c>
       <c r="H43" s="3">
-        <v>85400</v>
+        <v>88100</v>
       </c>
       <c r="I43" s="3">
-        <v>154400</v>
+        <v>159300</v>
       </c>
       <c r="J43" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="K43" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="E45" s="3">
-        <v>42900</v>
+        <v>44300</v>
       </c>
       <c r="F45" s="3">
-        <v>134800</v>
+        <v>139100</v>
       </c>
       <c r="G45" s="3">
-        <v>160500</v>
+        <v>165600</v>
       </c>
       <c r="H45" s="3">
-        <v>126300</v>
+        <v>130300</v>
       </c>
       <c r="I45" s="3">
-        <v>467100</v>
+        <v>481900</v>
       </c>
       <c r="J45" s="3">
-        <v>280100</v>
+        <v>289000</v>
       </c>
       <c r="K45" s="3">
         <v>187400</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>205400</v>
+        <v>211900</v>
       </c>
       <c r="E46" s="3">
-        <v>318000</v>
+        <v>328100</v>
       </c>
       <c r="F46" s="3">
-        <v>532200</v>
+        <v>549100</v>
       </c>
       <c r="G46" s="3">
-        <v>613600</v>
+        <v>633100</v>
       </c>
       <c r="H46" s="3">
-        <v>708400</v>
+        <v>730900</v>
       </c>
       <c r="I46" s="3">
-        <v>1046900</v>
+        <v>1080200</v>
       </c>
       <c r="J46" s="3">
-        <v>771100</v>
+        <v>795600</v>
       </c>
       <c r="K46" s="3">
         <v>403000</v>
@@ -2058,22 +2058,22 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>28100</v>
+        <v>29000</v>
       </c>
       <c r="E47" s="3">
-        <v>37100</v>
+        <v>38300</v>
       </c>
       <c r="F47" s="3">
-        <v>259400</v>
+        <v>267600</v>
       </c>
       <c r="G47" s="3">
-        <v>181300</v>
+        <v>187100</v>
       </c>
       <c r="H47" s="3">
-        <v>67500</v>
+        <v>69700</v>
       </c>
       <c r="I47" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>40</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="E48" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="F48" s="3">
-        <v>45800</v>
+        <v>47300</v>
       </c>
       <c r="G48" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="H48" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="I48" s="3">
-        <v>49500</v>
+        <v>51100</v>
       </c>
       <c r="J48" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="K48" s="3">
         <v>22800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53200</v>
+        <v>54900</v>
       </c>
       <c r="E49" s="3">
-        <v>55700</v>
+        <v>57500</v>
       </c>
       <c r="F49" s="3">
-        <v>55400</v>
+        <v>57200</v>
       </c>
       <c r="G49" s="3">
-        <v>66400</v>
+        <v>68500</v>
       </c>
       <c r="H49" s="3">
-        <v>84700</v>
+        <v>87400</v>
       </c>
       <c r="I49" s="3">
-        <v>185400</v>
+        <v>191300</v>
       </c>
       <c r="J49" s="3">
-        <v>118600</v>
+        <v>122400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="E52" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="G52" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>45500</v>
+        <v>47000</v>
       </c>
       <c r="I52" s="3">
-        <v>84800</v>
+        <v>87500</v>
       </c>
       <c r="J52" s="3">
-        <v>90400</v>
+        <v>93300</v>
       </c>
       <c r="K52" s="3">
         <v>2400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>319900</v>
+        <v>330000</v>
       </c>
       <c r="E54" s="3">
-        <v>445000</v>
+        <v>459100</v>
       </c>
       <c r="F54" s="3">
-        <v>918200</v>
+        <v>947400</v>
       </c>
       <c r="G54" s="3">
-        <v>912700</v>
+        <v>941700</v>
       </c>
       <c r="H54" s="3">
-        <v>926800</v>
+        <v>956200</v>
       </c>
       <c r="I54" s="3">
-        <v>1276700</v>
+        <v>1317200</v>
       </c>
       <c r="J54" s="3">
-        <v>1000300</v>
+        <v>1032100</v>
       </c>
       <c r="K54" s="3">
         <v>417300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="E57" s="3">
-        <v>98300</v>
+        <v>101400</v>
       </c>
       <c r="F57" s="3">
-        <v>182600</v>
+        <v>188400</v>
       </c>
       <c r="G57" s="3">
-        <v>181700</v>
+        <v>187500</v>
       </c>
       <c r="H57" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="I57" s="3">
-        <v>142400</v>
+        <v>146900</v>
       </c>
       <c r="J57" s="3">
-        <v>106800</v>
+        <v>110200</v>
       </c>
       <c r="K57" s="3">
         <v>60400</v>
@@ -2446,13 +2446,13 @@
         <v>1400</v>
       </c>
       <c r="E58" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F58" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="G58" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81500</v>
+        <v>84100</v>
       </c>
       <c r="E59" s="3">
-        <v>136100</v>
+        <v>140500</v>
       </c>
       <c r="F59" s="3">
-        <v>310800</v>
+        <v>320700</v>
       </c>
       <c r="G59" s="3">
-        <v>243300</v>
+        <v>251000</v>
       </c>
       <c r="H59" s="3">
-        <v>288000</v>
+        <v>297100</v>
       </c>
       <c r="I59" s="3">
-        <v>569800</v>
+        <v>587900</v>
       </c>
       <c r="J59" s="3">
-        <v>420800</v>
+        <v>434200</v>
       </c>
       <c r="K59" s="3">
         <v>148500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>136300</v>
+        <v>140600</v>
       </c>
       <c r="E60" s="3">
-        <v>242800</v>
+        <v>250600</v>
       </c>
       <c r="F60" s="3">
-        <v>521800</v>
+        <v>538400</v>
       </c>
       <c r="G60" s="3">
-        <v>431900</v>
+        <v>445600</v>
       </c>
       <c r="H60" s="3">
-        <v>406600</v>
+        <v>419600</v>
       </c>
       <c r="I60" s="3">
-        <v>630200</v>
+        <v>650200</v>
       </c>
       <c r="J60" s="3">
-        <v>527700</v>
+        <v>544400</v>
       </c>
       <c r="K60" s="3">
         <v>191500</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F62" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="G62" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I62" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="J62" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="K62" s="3">
         <v>3500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>143200</v>
+        <v>147700</v>
       </c>
       <c r="E66" s="3">
-        <v>252200</v>
+        <v>260200</v>
       </c>
       <c r="F66" s="3">
-        <v>540900</v>
+        <v>558100</v>
       </c>
       <c r="G66" s="3">
-        <v>446400</v>
+        <v>460500</v>
       </c>
       <c r="H66" s="3">
-        <v>426300</v>
+        <v>439900</v>
       </c>
       <c r="I66" s="3">
-        <v>650500</v>
+        <v>671100</v>
       </c>
       <c r="J66" s="3">
-        <v>538000</v>
+        <v>555100</v>
       </c>
       <c r="K66" s="3">
         <v>195000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1090600</v>
+        <v>-1125200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1073700</v>
+        <v>-1107800</v>
       </c>
       <c r="F72" s="3">
-        <v>-888900</v>
+        <v>-917200</v>
       </c>
       <c r="G72" s="3">
-        <v>-792200</v>
+        <v>-817400</v>
       </c>
       <c r="H72" s="3">
-        <v>-766400</v>
+        <v>-790800</v>
       </c>
       <c r="I72" s="3">
-        <v>-659600</v>
+        <v>-680600</v>
       </c>
       <c r="J72" s="3">
-        <v>-324100</v>
+        <v>-334400</v>
       </c>
       <c r="K72" s="3">
         <v>-137100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>176700</v>
+        <v>182300</v>
       </c>
       <c r="E76" s="3">
-        <v>192700</v>
+        <v>198900</v>
       </c>
       <c r="F76" s="3">
-        <v>377300</v>
+        <v>389300</v>
       </c>
       <c r="G76" s="3">
-        <v>466400</v>
+        <v>481200</v>
       </c>
       <c r="H76" s="3">
-        <v>500400</v>
+        <v>516300</v>
       </c>
       <c r="I76" s="3">
-        <v>626200</v>
+        <v>646100</v>
       </c>
       <c r="J76" s="3">
-        <v>462300</v>
+        <v>477000</v>
       </c>
       <c r="K76" s="3">
         <v>222200</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="E81" s="3">
-        <v>-182100</v>
+        <v>-187800</v>
       </c>
       <c r="F81" s="3">
-        <v>-97300</v>
+        <v>-100400</v>
       </c>
       <c r="G81" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="H81" s="3">
-        <v>-107600</v>
+        <v>-111000</v>
       </c>
       <c r="I81" s="3">
-        <v>-335100</v>
+        <v>-345700</v>
       </c>
       <c r="J81" s="3">
-        <v>-203700</v>
+        <v>-210200</v>
       </c>
       <c r="K81" s="3">
         <v>-73100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="F83" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="G83" s="3">
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="H83" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="I83" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="J83" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31500</v>
+        <v>-32500</v>
       </c>
       <c r="E89" s="3">
-        <v>-182800</v>
+        <v>-188600</v>
       </c>
       <c r="F89" s="3">
-        <v>-16800</v>
+        <v>-17300</v>
       </c>
       <c r="G89" s="3">
-        <v>37300</v>
+        <v>38500</v>
       </c>
       <c r="H89" s="3">
-        <v>-58300</v>
+        <v>-60100</v>
       </c>
       <c r="I89" s="3">
-        <v>-311700</v>
+        <v>-321600</v>
       </c>
       <c r="J89" s="3">
-        <v>-71700</v>
+        <v>-73900</v>
       </c>
       <c r="K89" s="3">
         <v>-42800</v>
@@ -3594,22 +3594,22 @@
         <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="G91" s="3">
-        <v>-16600</v>
+        <v>-17200</v>
       </c>
       <c r="H91" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-22300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-21600</v>
       </c>
       <c r="K91" s="3">
         <v>-8000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>98000</v>
+        <v>101100</v>
       </c>
       <c r="E94" s="3">
-        <v>161300</v>
+        <v>166500</v>
       </c>
       <c r="F94" s="3">
-        <v>-80500</v>
+        <v>-83000</v>
       </c>
       <c r="G94" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="H94" s="3">
-        <v>85700</v>
+        <v>88400</v>
       </c>
       <c r="I94" s="3">
-        <v>-379800</v>
+        <v>-391900</v>
       </c>
       <c r="J94" s="3">
-        <v>-266600</v>
+        <v>-275100</v>
       </c>
       <c r="K94" s="3">
         <v>-36000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-48000</v>
+        <v>-49500</v>
       </c>
       <c r="E100" s="3">
-        <v>-29200</v>
+        <v>-30100</v>
       </c>
       <c r="F100" s="3">
-        <v>67500</v>
+        <v>69700</v>
       </c>
       <c r="G100" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="H100" s="3">
-        <v>-109200</v>
+        <v>-112700</v>
       </c>
       <c r="I100" s="3">
-        <v>504900</v>
+        <v>520900</v>
       </c>
       <c r="J100" s="3">
-        <v>418400</v>
+        <v>431700</v>
       </c>
       <c r="K100" s="3">
         <v>243000</v>
@@ -3968,16 +3968,16 @@
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="I101" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="J101" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="E102" s="3">
-        <v>-49900</v>
+        <v>-51500</v>
       </c>
       <c r="F102" s="3">
-        <v>-29000</v>
+        <v>-29900</v>
       </c>
       <c r="G102" s="3">
-        <v>35500</v>
+        <v>36600</v>
       </c>
       <c r="H102" s="3">
-        <v>-88200</v>
+        <v>-91000</v>
       </c>
       <c r="I102" s="3">
-        <v>-171300</v>
+        <v>-176700</v>
       </c>
       <c r="J102" s="3">
-        <v>89600</v>
+        <v>92400</v>
       </c>
       <c r="K102" s="3">
         <v>163800</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61200</v>
+        <v>26100</v>
       </c>
       <c r="E8" s="3">
-        <v>64700</v>
+        <v>60600</v>
       </c>
       <c r="F8" s="3">
-        <v>327600</v>
+        <v>64000</v>
       </c>
       <c r="G8" s="3">
-        <v>321700</v>
+        <v>324200</v>
       </c>
       <c r="H8" s="3">
-        <v>314800</v>
+        <v>318400</v>
       </c>
       <c r="I8" s="3">
-        <v>1512500</v>
+        <v>311600</v>
       </c>
       <c r="J8" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1101700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>557700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>296600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>159700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36600</v>
+        <v>13400</v>
       </c>
       <c r="E9" s="3">
-        <v>34000</v>
+        <v>36200</v>
       </c>
       <c r="F9" s="3">
-        <v>172300</v>
+        <v>33700</v>
       </c>
       <c r="G9" s="3">
-        <v>153000</v>
+        <v>170600</v>
       </c>
       <c r="H9" s="3">
-        <v>147100</v>
+        <v>151400</v>
       </c>
       <c r="I9" s="3">
-        <v>1420700</v>
+        <v>145600</v>
       </c>
       <c r="J9" s="3">
+        <v>1406100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1049700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>522000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>278300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>154100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>110100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24600</v>
+        <v>12700</v>
       </c>
       <c r="E10" s="3">
-        <v>30600</v>
+        <v>24400</v>
       </c>
       <c r="F10" s="3">
-        <v>155200</v>
+        <v>30300</v>
       </c>
       <c r="G10" s="3">
-        <v>168800</v>
+        <v>153700</v>
       </c>
       <c r="H10" s="3">
-        <v>167700</v>
+        <v>167000</v>
       </c>
       <c r="I10" s="3">
-        <v>91800</v>
+        <v>166000</v>
       </c>
       <c r="J10" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K10" s="3">
         <v>52000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
-        <v>14400</v>
-      </c>
       <c r="F12" s="3">
-        <v>43600</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>45300</v>
+        <v>43200</v>
       </c>
       <c r="H12" s="3">
-        <v>77700</v>
+        <v>44800</v>
       </c>
       <c r="I12" s="3">
-        <v>86400</v>
+        <v>76900</v>
       </c>
       <c r="J12" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K12" s="3">
         <v>42800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,32 +944,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>15900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>87300</v>
+        <v>56000</v>
       </c>
       <c r="E17" s="3">
-        <v>257200</v>
+        <v>86400</v>
       </c>
       <c r="F17" s="3">
-        <v>452700</v>
+        <v>254600</v>
       </c>
       <c r="G17" s="3">
-        <v>371900</v>
+        <v>448000</v>
       </c>
       <c r="H17" s="3">
-        <v>441700</v>
+        <v>368000</v>
       </c>
       <c r="I17" s="3">
-        <v>1871400</v>
+        <v>437200</v>
       </c>
       <c r="J17" s="3">
+        <v>1852200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1311300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>632300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>311300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>176000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>128500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26100</v>
+        <v>-29900</v>
       </c>
       <c r="E18" s="3">
-        <v>-192600</v>
+        <v>-25800</v>
       </c>
       <c r="F18" s="3">
-        <v>-125100</v>
+        <v>-190600</v>
       </c>
       <c r="G18" s="3">
-        <v>-50100</v>
+        <v>-123800</v>
       </c>
       <c r="H18" s="3">
-        <v>-126900</v>
+        <v>-49600</v>
       </c>
       <c r="I18" s="3">
-        <v>-358900</v>
+        <v>-125600</v>
       </c>
       <c r="J18" s="3">
+        <v>-355200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-209500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-74600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,100 +1148,107 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8600</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
-        <v>25300</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>21500</v>
+        <v>25100</v>
       </c>
       <c r="H20" s="3">
-        <v>18300</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
-        <v>10800</v>
+        <v>18200</v>
       </c>
       <c r="J20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-11200</v>
+        <v>-24400</v>
       </c>
       <c r="E21" s="3">
-        <v>-161300</v>
+        <v>-11100</v>
       </c>
       <c r="F21" s="3">
-        <v>-64800</v>
+        <v>-159600</v>
       </c>
       <c r="G21" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-77500</v>
-      </c>
       <c r="I21" s="3">
-        <v>-317700</v>
+        <v>-76600</v>
       </c>
       <c r="J21" s="3">
+        <v>-314300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-198300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-68800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>40</v>
+      <c r="G22" s="3">
+        <v>4800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>40</v>
@@ -1226,81 +1265,87 @@
       <c r="L22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18500</v>
+        <v>-29000</v>
       </c>
       <c r="E23" s="3">
-        <v>-193900</v>
+        <v>-18300</v>
       </c>
       <c r="F23" s="3">
-        <v>-104600</v>
+        <v>-191900</v>
       </c>
       <c r="G23" s="3">
-        <v>-28600</v>
+        <v>-103500</v>
       </c>
       <c r="H23" s="3">
-        <v>-108500</v>
+        <v>-28300</v>
       </c>
       <c r="I23" s="3">
-        <v>-348100</v>
+        <v>-107400</v>
       </c>
       <c r="J23" s="3">
+        <v>-344600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-210700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1310,9 +1355,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-18600</v>
+        <v>-28900</v>
       </c>
       <c r="E26" s="3">
-        <v>-193000</v>
+        <v>-18400</v>
       </c>
       <c r="F26" s="3">
-        <v>-104800</v>
+        <v>-191000</v>
       </c>
       <c r="G26" s="3">
-        <v>-28600</v>
+        <v>-103700</v>
       </c>
       <c r="H26" s="3">
-        <v>-110800</v>
+        <v>-28300</v>
       </c>
       <c r="I26" s="3">
-        <v>-347900</v>
+        <v>-109600</v>
       </c>
       <c r="J26" s="3">
+        <v>-344300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-210600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-17500</v>
+        <v>-27500</v>
       </c>
       <c r="E27" s="3">
-        <v>-187800</v>
+        <v>-17300</v>
       </c>
       <c r="F27" s="3">
-        <v>-100400</v>
+        <v>-185900</v>
       </c>
       <c r="G27" s="3">
-        <v>-27000</v>
+        <v>-99400</v>
       </c>
       <c r="H27" s="3">
-        <v>-111000</v>
+        <v>-26700</v>
       </c>
       <c r="I27" s="3">
-        <v>-345700</v>
+        <v>-109900</v>
       </c>
       <c r="J27" s="3">
+        <v>-342200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-210200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-73100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-8600</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-25300</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-21500</v>
+        <v>-25100</v>
       </c>
       <c r="H32" s="3">
-        <v>-18300</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
-        <v>-10800</v>
+        <v>-18200</v>
       </c>
       <c r="J32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-17500</v>
+        <v>-27500</v>
       </c>
       <c r="E33" s="3">
-        <v>-187800</v>
+        <v>-17300</v>
       </c>
       <c r="F33" s="3">
-        <v>-100400</v>
+        <v>-185900</v>
       </c>
       <c r="G33" s="3">
-        <v>-27000</v>
+        <v>-99400</v>
       </c>
       <c r="H33" s="3">
-        <v>-111000</v>
+        <v>-26700</v>
       </c>
       <c r="I33" s="3">
-        <v>-345700</v>
+        <v>-109900</v>
       </c>
       <c r="J33" s="3">
+        <v>-342200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-210200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-73100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-17500</v>
+        <v>-27500</v>
       </c>
       <c r="E35" s="3">
-        <v>-187800</v>
+        <v>-17300</v>
       </c>
       <c r="F35" s="3">
-        <v>-100400</v>
+        <v>-185900</v>
       </c>
       <c r="G35" s="3">
-        <v>-27000</v>
+        <v>-99400</v>
       </c>
       <c r="H35" s="3">
-        <v>-111000</v>
+        <v>-26700</v>
       </c>
       <c r="I35" s="3">
-        <v>-345700</v>
+        <v>-109900</v>
       </c>
       <c r="J35" s="3">
+        <v>-342200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-210200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-73100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,125 +1903,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>50100</v>
+        <v>21900</v>
       </c>
       <c r="E41" s="3">
-        <v>30700</v>
+        <v>49600</v>
       </c>
       <c r="F41" s="3">
-        <v>42400</v>
+        <v>30400</v>
       </c>
       <c r="G41" s="3">
-        <v>80500</v>
+        <v>42000</v>
       </c>
       <c r="H41" s="3">
-        <v>69500</v>
+        <v>79700</v>
       </c>
       <c r="I41" s="3">
-        <v>155900</v>
+        <v>68800</v>
       </c>
       <c r="J41" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K41" s="3">
         <v>301800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>230000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>88500</v>
+        <v>103000</v>
       </c>
       <c r="E42" s="3">
-        <v>194400</v>
+        <v>87600</v>
       </c>
       <c r="F42" s="3">
-        <v>187500</v>
+        <v>192400</v>
       </c>
       <c r="G42" s="3">
-        <v>123400</v>
+        <v>185600</v>
       </c>
       <c r="H42" s="3">
-        <v>443000</v>
+        <v>122100</v>
       </c>
       <c r="I42" s="3">
-        <v>517500</v>
+        <v>438500</v>
       </c>
       <c r="J42" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K42" s="3">
         <v>176100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>73900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4300</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>53200</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="3">
-        <v>58700</v>
+        <v>52600</v>
       </c>
       <c r="F43" s="3">
-        <v>180100</v>
+        <v>58100</v>
       </c>
       <c r="G43" s="3">
-        <v>263600</v>
+        <v>178300</v>
       </c>
       <c r="H43" s="3">
-        <v>88100</v>
+        <v>260900</v>
       </c>
       <c r="I43" s="3">
-        <v>159300</v>
+        <v>87200</v>
       </c>
       <c r="J43" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K43" s="3">
         <v>28700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,110 +2068,119 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>20100</v>
+        <v>15700</v>
       </c>
       <c r="E45" s="3">
-        <v>44300</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>139100</v>
+        <v>43900</v>
       </c>
       <c r="G45" s="3">
-        <v>165600</v>
+        <v>137600</v>
       </c>
       <c r="H45" s="3">
-        <v>130300</v>
+        <v>163900</v>
       </c>
       <c r="I45" s="3">
-        <v>481900</v>
+        <v>128900</v>
       </c>
       <c r="J45" s="3">
+        <v>477000</v>
+      </c>
+      <c r="K45" s="3">
         <v>289000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>211900</v>
+        <v>170600</v>
       </c>
       <c r="E46" s="3">
-        <v>328100</v>
+        <v>209700</v>
       </c>
       <c r="F46" s="3">
-        <v>549100</v>
+        <v>324700</v>
       </c>
       <c r="G46" s="3">
-        <v>633100</v>
+        <v>543500</v>
       </c>
       <c r="H46" s="3">
-        <v>730900</v>
+        <v>626600</v>
       </c>
       <c r="I46" s="3">
-        <v>1080200</v>
+        <v>723400</v>
       </c>
       <c r="J46" s="3">
+        <v>1069100</v>
+      </c>
+      <c r="K46" s="3">
         <v>795600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>403000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>158800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>67300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29000</v>
+        <v>32800</v>
       </c>
       <c r="E47" s="3">
-        <v>38300</v>
+        <v>28700</v>
       </c>
       <c r="F47" s="3">
-        <v>267600</v>
+        <v>37900</v>
       </c>
       <c r="G47" s="3">
-        <v>187100</v>
+        <v>264900</v>
       </c>
       <c r="H47" s="3">
-        <v>69700</v>
+        <v>185200</v>
       </c>
       <c r="I47" s="3">
-        <v>17800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>40</v>
+        <v>68900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>40</v>
@@ -2090,77 +2194,83 @@
       <c r="N47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21000</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
-        <v>22100</v>
+        <v>20800</v>
       </c>
       <c r="F48" s="3">
-        <v>47300</v>
+        <v>21900</v>
       </c>
       <c r="G48" s="3">
-        <v>26900</v>
+        <v>46800</v>
       </c>
       <c r="H48" s="3">
-        <v>21300</v>
+        <v>26600</v>
       </c>
       <c r="I48" s="3">
-        <v>51100</v>
+        <v>21100</v>
       </c>
       <c r="J48" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54900</v>
+        <v>33800</v>
       </c>
       <c r="E49" s="3">
-        <v>57500</v>
+        <v>54300</v>
       </c>
       <c r="F49" s="3">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="G49" s="3">
-        <v>68500</v>
+        <v>56600</v>
       </c>
       <c r="H49" s="3">
-        <v>87400</v>
+        <v>67800</v>
       </c>
       <c r="I49" s="3">
-        <v>191300</v>
+        <v>86500</v>
       </c>
       <c r="J49" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K49" s="3">
         <v>122400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>40</v>
@@ -2168,9 +2278,12 @@
       <c r="N49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="E52" s="3">
         <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>26200</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="H52" s="3">
-        <v>47000</v>
+        <v>25900</v>
       </c>
       <c r="I52" s="3">
-        <v>87500</v>
+        <v>46500</v>
       </c>
       <c r="J52" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K52" s="3">
         <v>93300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>700</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330000</v>
+        <v>266900</v>
       </c>
       <c r="E54" s="3">
-        <v>459100</v>
+        <v>326600</v>
       </c>
       <c r="F54" s="3">
-        <v>947400</v>
+        <v>454400</v>
       </c>
       <c r="G54" s="3">
-        <v>941700</v>
+        <v>937700</v>
       </c>
       <c r="H54" s="3">
-        <v>956200</v>
+        <v>932100</v>
       </c>
       <c r="I54" s="3">
-        <v>1317200</v>
+        <v>946400</v>
       </c>
       <c r="J54" s="3">
+        <v>1303800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1032100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>417300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,64 +2527,68 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55100</v>
+        <v>37200</v>
       </c>
       <c r="E57" s="3">
-        <v>101400</v>
+        <v>54500</v>
       </c>
       <c r="F57" s="3">
-        <v>188400</v>
+        <v>100300</v>
       </c>
       <c r="G57" s="3">
-        <v>187500</v>
+        <v>186500</v>
       </c>
       <c r="H57" s="3">
-        <v>122400</v>
+        <v>185600</v>
       </c>
       <c r="I57" s="3">
-        <v>146900</v>
+        <v>121200</v>
       </c>
       <c r="J57" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K57" s="3">
         <v>110200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
-        <v>8700</v>
-      </c>
       <c r="F58" s="3">
-        <v>29300</v>
+        <v>8600</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>40</v>
+        <v>29000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>40</v>
@@ -2463,114 +2596,123 @@
       <c r="J58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84100</v>
+        <v>71800</v>
       </c>
       <c r="E59" s="3">
-        <v>140500</v>
+        <v>83200</v>
       </c>
       <c r="F59" s="3">
-        <v>320700</v>
+        <v>139000</v>
       </c>
       <c r="G59" s="3">
-        <v>251000</v>
+        <v>317400</v>
       </c>
       <c r="H59" s="3">
-        <v>297100</v>
+        <v>248400</v>
       </c>
       <c r="I59" s="3">
-        <v>587900</v>
+        <v>294100</v>
       </c>
       <c r="J59" s="3">
+        <v>581900</v>
+      </c>
+      <c r="K59" s="3">
         <v>434200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>140600</v>
+        <v>110100</v>
       </c>
       <c r="E60" s="3">
-        <v>250600</v>
+        <v>139200</v>
       </c>
       <c r="F60" s="3">
-        <v>538400</v>
+        <v>248000</v>
       </c>
       <c r="G60" s="3">
-        <v>445600</v>
+        <v>532900</v>
       </c>
       <c r="H60" s="3">
-        <v>419600</v>
+        <v>441000</v>
       </c>
       <c r="I60" s="3">
-        <v>650200</v>
+        <v>415300</v>
       </c>
       <c r="J60" s="3">
+        <v>643500</v>
+      </c>
+      <c r="K60" s="3">
         <v>544400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>191500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2592,48 +2734,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="E62" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12800</v>
-      </c>
       <c r="G62" s="3">
-        <v>5800</v>
+        <v>12700</v>
       </c>
       <c r="H62" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I62" s="3">
-        <v>11300</v>
+        <v>6000</v>
       </c>
       <c r="J62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147700</v>
+        <v>109400</v>
       </c>
       <c r="E66" s="3">
-        <v>260200</v>
+        <v>146200</v>
       </c>
       <c r="F66" s="3">
-        <v>558100</v>
+        <v>257600</v>
       </c>
       <c r="G66" s="3">
-        <v>460500</v>
+        <v>552400</v>
       </c>
       <c r="H66" s="3">
-        <v>439900</v>
+        <v>455800</v>
       </c>
       <c r="I66" s="3">
-        <v>671100</v>
+        <v>435400</v>
       </c>
       <c r="J66" s="3">
+        <v>664200</v>
+      </c>
+      <c r="K66" s="3">
         <v>555100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2913,17 +3080,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>109000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>50300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>52100</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1125200</v>
+        <v>-1141200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1107800</v>
+        <v>-1113700</v>
       </c>
       <c r="F72" s="3">
-        <v>-917200</v>
+        <v>-1096500</v>
       </c>
       <c r="G72" s="3">
-        <v>-817400</v>
+        <v>-907800</v>
       </c>
       <c r="H72" s="3">
-        <v>-790800</v>
+        <v>-809000</v>
       </c>
       <c r="I72" s="3">
-        <v>-680600</v>
+        <v>-782700</v>
       </c>
       <c r="J72" s="3">
+        <v>-673600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-334400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>182300</v>
+        <v>157500</v>
       </c>
       <c r="E76" s="3">
-        <v>198900</v>
+        <v>180400</v>
       </c>
       <c r="F76" s="3">
-        <v>389300</v>
+        <v>196800</v>
       </c>
       <c r="G76" s="3">
-        <v>481200</v>
+        <v>385300</v>
       </c>
       <c r="H76" s="3">
-        <v>516300</v>
+        <v>476300</v>
       </c>
       <c r="I76" s="3">
-        <v>646100</v>
+        <v>511000</v>
       </c>
       <c r="J76" s="3">
+        <v>639500</v>
+      </c>
+      <c r="K76" s="3">
         <v>477000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>222200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-64700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-40300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-25900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-17500</v>
+        <v>-27500</v>
       </c>
       <c r="E81" s="3">
-        <v>-187800</v>
+        <v>-17300</v>
       </c>
       <c r="F81" s="3">
-        <v>-100400</v>
+        <v>-185900</v>
       </c>
       <c r="G81" s="3">
-        <v>-27000</v>
+        <v>-99400</v>
       </c>
       <c r="H81" s="3">
-        <v>-111000</v>
+        <v>-26700</v>
       </c>
       <c r="I81" s="3">
-        <v>-345700</v>
+        <v>-109900</v>
       </c>
       <c r="J81" s="3">
+        <v>-342200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-210200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-73100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
-        <v>27900</v>
-      </c>
       <c r="F83" s="3">
-        <v>34900</v>
+        <v>27600</v>
       </c>
       <c r="G83" s="3">
-        <v>31600</v>
+        <v>34500</v>
       </c>
       <c r="H83" s="3">
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="I83" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="J83" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32500</v>
+        <v>-20300</v>
       </c>
       <c r="E89" s="3">
-        <v>-188600</v>
+        <v>-32200</v>
       </c>
       <c r="F89" s="3">
-        <v>-17300</v>
+        <v>-186700</v>
       </c>
       <c r="G89" s="3">
-        <v>38500</v>
+        <v>-17100</v>
       </c>
       <c r="H89" s="3">
-        <v>-60100</v>
+        <v>38100</v>
       </c>
       <c r="I89" s="3">
-        <v>-321600</v>
+        <v>-59500</v>
       </c>
       <c r="J89" s="3">
+        <v>-318300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-73900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="O89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4100</v>
-      </c>
       <c r="F91" s="3">
-        <v>-17600</v>
+        <v>-4000</v>
       </c>
       <c r="G91" s="3">
-        <v>-17200</v>
+        <v>-17400</v>
       </c>
       <c r="H91" s="3">
-        <v>-23100</v>
+        <v>-17000</v>
       </c>
       <c r="I91" s="3">
-        <v>-16900</v>
+        <v>-22800</v>
       </c>
       <c r="J91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>101100</v>
+        <v>-7400</v>
       </c>
       <c r="E94" s="3">
-        <v>166500</v>
+        <v>100000</v>
       </c>
       <c r="F94" s="3">
-        <v>-83000</v>
+        <v>164800</v>
       </c>
       <c r="G94" s="3">
-        <v>22100</v>
+        <v>-82200</v>
       </c>
       <c r="H94" s="3">
-        <v>88400</v>
+        <v>21900</v>
       </c>
       <c r="I94" s="3">
-        <v>-391900</v>
+        <v>87500</v>
       </c>
       <c r="J94" s="3">
+        <v>-387900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-275100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49500</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-30100</v>
+        <v>-49000</v>
       </c>
       <c r="F100" s="3">
-        <v>69700</v>
+        <v>-29800</v>
       </c>
       <c r="G100" s="3">
-        <v>-20900</v>
+        <v>69000</v>
       </c>
       <c r="H100" s="3">
-        <v>-112700</v>
+        <v>-20600</v>
       </c>
       <c r="I100" s="3">
-        <v>520900</v>
+        <v>-111600</v>
       </c>
       <c r="J100" s="3">
+        <v>515600</v>
+      </c>
+      <c r="K100" s="3">
         <v>431700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>243000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>700</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
       </c>
       <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I101" s="3">
-        <v>15900</v>
+        <v>-6500</v>
       </c>
       <c r="J101" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K101" s="3">
         <v>9700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18900</v>
+        <v>-28100</v>
       </c>
       <c r="E102" s="3">
-        <v>-51500</v>
+        <v>18700</v>
       </c>
       <c r="F102" s="3">
-        <v>-29900</v>
+        <v>-50900</v>
       </c>
       <c r="G102" s="3">
-        <v>36600</v>
+        <v>-29600</v>
       </c>
       <c r="H102" s="3">
-        <v>-91000</v>
+        <v>36300</v>
       </c>
       <c r="I102" s="3">
-        <v>-176700</v>
+        <v>-90100</v>
       </c>
       <c r="J102" s="3">
+        <v>-174900</v>
+      </c>
+      <c r="K102" s="3">
         <v>92400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>163800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="E8" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="F8" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="G8" s="3">
-        <v>324200</v>
+        <v>314300</v>
       </c>
       <c r="H8" s="3">
-        <v>318400</v>
+        <v>308600</v>
       </c>
       <c r="I8" s="3">
-        <v>311600</v>
+        <v>302000</v>
       </c>
       <c r="J8" s="3">
-        <v>1497000</v>
+        <v>1451000</v>
       </c>
       <c r="K8" s="3">
         <v>1101700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="E9" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="F9" s="3">
-        <v>33700</v>
+        <v>32700</v>
       </c>
       <c r="G9" s="3">
-        <v>170600</v>
+        <v>165300</v>
       </c>
       <c r="H9" s="3">
-        <v>151400</v>
+        <v>146700</v>
       </c>
       <c r="I9" s="3">
-        <v>145600</v>
+        <v>141100</v>
       </c>
       <c r="J9" s="3">
-        <v>1406100</v>
+        <v>1362900</v>
       </c>
       <c r="K9" s="3">
         <v>1049700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="F10" s="3">
-        <v>30300</v>
+        <v>29400</v>
       </c>
       <c r="G10" s="3">
-        <v>153700</v>
+        <v>148900</v>
       </c>
       <c r="H10" s="3">
-        <v>167000</v>
+        <v>161900</v>
       </c>
       <c r="I10" s="3">
-        <v>166000</v>
+        <v>160900</v>
       </c>
       <c r="J10" s="3">
-        <v>90900</v>
+        <v>88100</v>
       </c>
       <c r="K10" s="3">
         <v>52000</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="G12" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="H12" s="3">
-        <v>44800</v>
+        <v>43400</v>
       </c>
       <c r="I12" s="3">
-        <v>76900</v>
+        <v>74600</v>
       </c>
       <c r="J12" s="3">
-        <v>85500</v>
+        <v>82900</v>
       </c>
       <c r="K12" s="3">
         <v>42800</v>
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>56000</v>
+        <v>54300</v>
       </c>
       <c r="E17" s="3">
-        <v>86400</v>
+        <v>83800</v>
       </c>
       <c r="F17" s="3">
-        <v>254600</v>
+        <v>246800</v>
       </c>
       <c r="G17" s="3">
-        <v>448000</v>
+        <v>434300</v>
       </c>
       <c r="H17" s="3">
-        <v>368000</v>
+        <v>356700</v>
       </c>
       <c r="I17" s="3">
-        <v>437200</v>
+        <v>423700</v>
       </c>
       <c r="J17" s="3">
-        <v>1852200</v>
+        <v>1795300</v>
       </c>
       <c r="K17" s="3">
         <v>1311300</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-29900</v>
+        <v>-29000</v>
       </c>
       <c r="E18" s="3">
-        <v>-25800</v>
+        <v>-25000</v>
       </c>
       <c r="F18" s="3">
-        <v>-190600</v>
+        <v>-184700</v>
       </c>
       <c r="G18" s="3">
-        <v>-123800</v>
+        <v>-120000</v>
       </c>
       <c r="H18" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I18" s="3">
-        <v>-125600</v>
+        <v>-121700</v>
       </c>
       <c r="J18" s="3">
-        <v>-355200</v>
+        <v>-344300</v>
       </c>
       <c r="K18" s="3">
         <v>-209500</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="I20" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="J20" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="K20" s="3">
         <v>-1100</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="E21" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="F21" s="3">
-        <v>-159600</v>
+        <v>-154800</v>
       </c>
       <c r="G21" s="3">
-        <v>-64000</v>
+        <v>-62200</v>
       </c>
       <c r="H21" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I21" s="3">
-        <v>-76600</v>
+        <v>-74400</v>
       </c>
       <c r="J21" s="3">
-        <v>-314300</v>
+        <v>-304800</v>
       </c>
       <c r="K21" s="3">
         <v>-198300</v>
@@ -1242,13 +1242,13 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>40</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-29000</v>
+        <v>-28100</v>
       </c>
       <c r="E23" s="3">
-        <v>-18300</v>
+        <v>-17800</v>
       </c>
       <c r="F23" s="3">
-        <v>-191900</v>
+        <v>-186000</v>
       </c>
       <c r="G23" s="3">
-        <v>-103500</v>
+        <v>-100400</v>
       </c>
       <c r="H23" s="3">
-        <v>-28300</v>
+        <v>-27400</v>
       </c>
       <c r="I23" s="3">
-        <v>-107400</v>
+        <v>-104100</v>
       </c>
       <c r="J23" s="3">
-        <v>-344600</v>
+        <v>-334000</v>
       </c>
       <c r="K23" s="3">
         <v>-210700</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-28900</v>
+        <v>-28000</v>
       </c>
       <c r="E26" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="F26" s="3">
-        <v>-191000</v>
+        <v>-185100</v>
       </c>
       <c r="G26" s="3">
-        <v>-103700</v>
+        <v>-100500</v>
       </c>
       <c r="H26" s="3">
-        <v>-28300</v>
+        <v>-27500</v>
       </c>
       <c r="I26" s="3">
-        <v>-109600</v>
+        <v>-106300</v>
       </c>
       <c r="J26" s="3">
-        <v>-344300</v>
+        <v>-333700</v>
       </c>
       <c r="K26" s="3">
         <v>-210600</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="E27" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="F27" s="3">
-        <v>-185900</v>
+        <v>-180200</v>
       </c>
       <c r="G27" s="3">
-        <v>-99400</v>
+        <v>-96300</v>
       </c>
       <c r="H27" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="I27" s="3">
-        <v>-109900</v>
+        <v>-106500</v>
       </c>
       <c r="J27" s="3">
-        <v>-342200</v>
+        <v>-331700</v>
       </c>
       <c r="K27" s="3">
         <v>-210200</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-25100</v>
+        <v>-24300</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>-20600</v>
       </c>
       <c r="I32" s="3">
-        <v>-18200</v>
+        <v>-17600</v>
       </c>
       <c r="J32" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="K32" s="3">
         <v>1100</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="E33" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="F33" s="3">
-        <v>-185900</v>
+        <v>-180200</v>
       </c>
       <c r="G33" s="3">
-        <v>-99400</v>
+        <v>-96300</v>
       </c>
       <c r="H33" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="I33" s="3">
-        <v>-109900</v>
+        <v>-106500</v>
       </c>
       <c r="J33" s="3">
-        <v>-342200</v>
+        <v>-331700</v>
       </c>
       <c r="K33" s="3">
         <v>-210200</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="E35" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="F35" s="3">
-        <v>-185900</v>
+        <v>-180200</v>
       </c>
       <c r="G35" s="3">
-        <v>-99400</v>
+        <v>-96300</v>
       </c>
       <c r="H35" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="I35" s="3">
-        <v>-109900</v>
+        <v>-106500</v>
       </c>
       <c r="J35" s="3">
-        <v>-342200</v>
+        <v>-331700</v>
       </c>
       <c r="K35" s="3">
         <v>-210200</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="E41" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="F41" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="G41" s="3">
-        <v>42000</v>
+        <v>40700</v>
       </c>
       <c r="H41" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="I41" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="J41" s="3">
-        <v>154300</v>
+        <v>149500</v>
       </c>
       <c r="K41" s="3">
         <v>301800</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>103000</v>
+        <v>99800</v>
       </c>
       <c r="E42" s="3">
-        <v>87600</v>
+        <v>84900</v>
       </c>
       <c r="F42" s="3">
-        <v>192400</v>
+        <v>186500</v>
       </c>
       <c r="G42" s="3">
-        <v>185600</v>
+        <v>179900</v>
       </c>
       <c r="H42" s="3">
-        <v>122100</v>
+        <v>118400</v>
       </c>
       <c r="I42" s="3">
-        <v>438500</v>
+        <v>425000</v>
       </c>
       <c r="J42" s="3">
-        <v>512200</v>
+        <v>496500</v>
       </c>
       <c r="K42" s="3">
         <v>176100</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="E43" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="F43" s="3">
-        <v>58100</v>
+        <v>56300</v>
       </c>
       <c r="G43" s="3">
-        <v>178300</v>
+        <v>172800</v>
       </c>
       <c r="H43" s="3">
-        <v>260900</v>
+        <v>252900</v>
       </c>
       <c r="I43" s="3">
-        <v>87200</v>
+        <v>84500</v>
       </c>
       <c r="J43" s="3">
-        <v>157700</v>
+        <v>152800</v>
       </c>
       <c r="K43" s="3">
         <v>28700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="F45" s="3">
-        <v>43900</v>
+        <v>42500</v>
       </c>
       <c r="G45" s="3">
-        <v>137600</v>
+        <v>133400</v>
       </c>
       <c r="H45" s="3">
-        <v>163900</v>
+        <v>158800</v>
       </c>
       <c r="I45" s="3">
-        <v>128900</v>
+        <v>125000</v>
       </c>
       <c r="J45" s="3">
-        <v>477000</v>
+        <v>462300</v>
       </c>
       <c r="K45" s="3">
         <v>289000</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>170600</v>
+        <v>165300</v>
       </c>
       <c r="E46" s="3">
-        <v>209700</v>
+        <v>203300</v>
       </c>
       <c r="F46" s="3">
-        <v>324700</v>
+        <v>314800</v>
       </c>
       <c r="G46" s="3">
-        <v>543500</v>
+        <v>526800</v>
       </c>
       <c r="H46" s="3">
-        <v>626600</v>
+        <v>607300</v>
       </c>
       <c r="I46" s="3">
-        <v>723400</v>
+        <v>701200</v>
       </c>
       <c r="J46" s="3">
-        <v>1069100</v>
+        <v>1036300</v>
       </c>
       <c r="K46" s="3">
         <v>795600</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="E47" s="3">
-        <v>28700</v>
+        <v>27800</v>
       </c>
       <c r="F47" s="3">
-        <v>37900</v>
+        <v>36800</v>
       </c>
       <c r="G47" s="3">
-        <v>264900</v>
+        <v>256700</v>
       </c>
       <c r="H47" s="3">
-        <v>185200</v>
+        <v>179500</v>
       </c>
       <c r="I47" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="J47" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>40</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="E48" s="3">
-        <v>20800</v>
+        <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="G48" s="3">
-        <v>46800</v>
+        <v>45400</v>
       </c>
       <c r="H48" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="I48" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="J48" s="3">
-        <v>50600</v>
+        <v>49000</v>
       </c>
       <c r="K48" s="3">
         <v>20900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="E49" s="3">
-        <v>54300</v>
+        <v>52600</v>
       </c>
       <c r="F49" s="3">
-        <v>56900</v>
+        <v>55100</v>
       </c>
       <c r="G49" s="3">
-        <v>56600</v>
+        <v>54900</v>
       </c>
       <c r="H49" s="3">
-        <v>67800</v>
+        <v>65800</v>
       </c>
       <c r="I49" s="3">
-        <v>86500</v>
+        <v>83800</v>
       </c>
       <c r="J49" s="3">
-        <v>189400</v>
+        <v>183500</v>
       </c>
       <c r="K49" s="3">
         <v>122400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G52" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="H52" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="I52" s="3">
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="J52" s="3">
-        <v>86600</v>
+        <v>83900</v>
       </c>
       <c r="K52" s="3">
         <v>93300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266900</v>
+        <v>258700</v>
       </c>
       <c r="E54" s="3">
-        <v>326600</v>
+        <v>316600</v>
       </c>
       <c r="F54" s="3">
-        <v>454400</v>
+        <v>440400</v>
       </c>
       <c r="G54" s="3">
-        <v>937700</v>
+        <v>908900</v>
       </c>
       <c r="H54" s="3">
-        <v>932100</v>
+        <v>903400</v>
       </c>
       <c r="I54" s="3">
-        <v>946400</v>
+        <v>917300</v>
       </c>
       <c r="J54" s="3">
-        <v>1303800</v>
+        <v>1263700</v>
       </c>
       <c r="K54" s="3">
         <v>1032100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="E57" s="3">
-        <v>54500</v>
+        <v>52900</v>
       </c>
       <c r="F57" s="3">
-        <v>100300</v>
+        <v>97300</v>
       </c>
       <c r="G57" s="3">
-        <v>186500</v>
+        <v>180800</v>
       </c>
       <c r="H57" s="3">
-        <v>185600</v>
+        <v>179900</v>
       </c>
       <c r="I57" s="3">
-        <v>121200</v>
+        <v>117500</v>
       </c>
       <c r="J57" s="3">
-        <v>145400</v>
+        <v>140900</v>
       </c>
       <c r="K57" s="3">
         <v>110200</v>
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
       </c>
       <c r="F58" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G58" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>40</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71800</v>
+        <v>69600</v>
       </c>
       <c r="E59" s="3">
-        <v>83200</v>
+        <v>80700</v>
       </c>
       <c r="F59" s="3">
-        <v>139000</v>
+        <v>134800</v>
       </c>
       <c r="G59" s="3">
-        <v>317400</v>
+        <v>307700</v>
       </c>
       <c r="H59" s="3">
-        <v>248400</v>
+        <v>240800</v>
       </c>
       <c r="I59" s="3">
-        <v>294100</v>
+        <v>285000</v>
       </c>
       <c r="J59" s="3">
-        <v>581900</v>
+        <v>564000</v>
       </c>
       <c r="K59" s="3">
         <v>434200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>110100</v>
+        <v>106700</v>
       </c>
       <c r="E60" s="3">
-        <v>139200</v>
+        <v>134900</v>
       </c>
       <c r="F60" s="3">
-        <v>248000</v>
+        <v>240400</v>
       </c>
       <c r="G60" s="3">
-        <v>532900</v>
+        <v>516500</v>
       </c>
       <c r="H60" s="3">
-        <v>441000</v>
+        <v>427500</v>
       </c>
       <c r="I60" s="3">
-        <v>415300</v>
+        <v>402500</v>
       </c>
       <c r="J60" s="3">
-        <v>643500</v>
+        <v>623700</v>
       </c>
       <c r="K60" s="3">
         <v>544400</v>
@@ -2702,16 +2702,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
         <v>2000</v>
       </c>
       <c r="F61" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G61" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="H62" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="I62" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J62" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="K62" s="3">
         <v>8300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109400</v>
+        <v>106100</v>
       </c>
       <c r="E66" s="3">
-        <v>146200</v>
+        <v>141700</v>
       </c>
       <c r="F66" s="3">
-        <v>257600</v>
+        <v>249700</v>
       </c>
       <c r="G66" s="3">
-        <v>552400</v>
+        <v>535400</v>
       </c>
       <c r="H66" s="3">
-        <v>455800</v>
+        <v>441800</v>
       </c>
       <c r="I66" s="3">
-        <v>435400</v>
+        <v>422000</v>
       </c>
       <c r="J66" s="3">
-        <v>664200</v>
+        <v>643800</v>
       </c>
       <c r="K66" s="3">
         <v>555100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1141200</v>
+        <v>-1106100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1113700</v>
+        <v>-1079500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1096500</v>
+        <v>-1062700</v>
       </c>
       <c r="G72" s="3">
-        <v>-907800</v>
+        <v>-879900</v>
       </c>
       <c r="H72" s="3">
-        <v>-809000</v>
+        <v>-784200</v>
       </c>
       <c r="I72" s="3">
-        <v>-782700</v>
+        <v>-758600</v>
       </c>
       <c r="J72" s="3">
-        <v>-673600</v>
+        <v>-652900</v>
       </c>
       <c r="K72" s="3">
         <v>-334400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157500</v>
+        <v>152700</v>
       </c>
       <c r="E76" s="3">
-        <v>180400</v>
+        <v>174900</v>
       </c>
       <c r="F76" s="3">
-        <v>196800</v>
+        <v>190800</v>
       </c>
       <c r="G76" s="3">
-        <v>385300</v>
+        <v>373500</v>
       </c>
       <c r="H76" s="3">
-        <v>476300</v>
+        <v>461600</v>
       </c>
       <c r="I76" s="3">
-        <v>511000</v>
+        <v>495300</v>
       </c>
       <c r="J76" s="3">
-        <v>639500</v>
+        <v>619900</v>
       </c>
       <c r="K76" s="3">
         <v>477000</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="E81" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="F81" s="3">
-        <v>-185900</v>
+        <v>-180200</v>
       </c>
       <c r="G81" s="3">
-        <v>-99400</v>
+        <v>-96300</v>
       </c>
       <c r="H81" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="I81" s="3">
-        <v>-109900</v>
+        <v>-106500</v>
       </c>
       <c r="J81" s="3">
-        <v>-342200</v>
+        <v>-331700</v>
       </c>
       <c r="K81" s="3">
         <v>-210200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="G83" s="3">
-        <v>34500</v>
+        <v>33500</v>
       </c>
       <c r="H83" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="I83" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="J83" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="K83" s="3">
         <v>12300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-20300</v>
+        <v>-19700</v>
       </c>
       <c r="E89" s="3">
-        <v>-32200</v>
+        <v>-31200</v>
       </c>
       <c r="F89" s="3">
-        <v>-186700</v>
+        <v>-180900</v>
       </c>
       <c r="G89" s="3">
-        <v>-17100</v>
+        <v>-16600</v>
       </c>
       <c r="H89" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="I89" s="3">
-        <v>-59500</v>
+        <v>-57700</v>
       </c>
       <c r="J89" s="3">
-        <v>-318300</v>
+        <v>-308600</v>
       </c>
       <c r="K89" s="3">
         <v>-73900</v>
@@ -3814,22 +3814,22 @@
         <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17400</v>
+        <v>-16900</v>
       </c>
       <c r="H91" s="3">
-        <v>-17000</v>
+        <v>-16500</v>
       </c>
       <c r="I91" s="3">
-        <v>-22800</v>
+        <v>-22100</v>
       </c>
       <c r="J91" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="K91" s="3">
         <v>-22300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="E94" s="3">
-        <v>100000</v>
+        <v>97000</v>
       </c>
       <c r="F94" s="3">
-        <v>164800</v>
+        <v>159700</v>
       </c>
       <c r="G94" s="3">
-        <v>-82200</v>
+        <v>-79700</v>
       </c>
       <c r="H94" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="I94" s="3">
-        <v>87500</v>
+        <v>84800</v>
       </c>
       <c r="J94" s="3">
-        <v>-387900</v>
+        <v>-376000</v>
       </c>
       <c r="K94" s="3">
         <v>-275100</v>
@@ -4168,22 +4168,22 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-49000</v>
+        <v>-47500</v>
       </c>
       <c r="F100" s="3">
-        <v>-29800</v>
+        <v>-28900</v>
       </c>
       <c r="G100" s="3">
-        <v>69000</v>
+        <v>66800</v>
       </c>
       <c r="H100" s="3">
-        <v>-20600</v>
+        <v>-20000</v>
       </c>
       <c r="I100" s="3">
-        <v>-111600</v>
+        <v>-108100</v>
       </c>
       <c r="J100" s="3">
-        <v>515600</v>
+        <v>499700</v>
       </c>
       <c r="K100" s="3">
         <v>431700</v>
@@ -4219,13 +4219,13 @@
         <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="J101" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="K101" s="3">
         <v>9700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28100</v>
+        <v>-27200</v>
       </c>
       <c r="E102" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="F102" s="3">
-        <v>-50900</v>
+        <v>-49400</v>
       </c>
       <c r="G102" s="3">
-        <v>-29600</v>
+        <v>-28700</v>
       </c>
       <c r="H102" s="3">
-        <v>36300</v>
+        <v>35100</v>
       </c>
       <c r="I102" s="3">
-        <v>-90100</v>
+        <v>-87300</v>
       </c>
       <c r="J102" s="3">
-        <v>-174900</v>
+        <v>-169500</v>
       </c>
       <c r="K102" s="3">
         <v>92400</v>

--- a/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOUR_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="E8" s="3">
-        <v>58700</v>
+        <v>58900</v>
       </c>
       <c r="F8" s="3">
-        <v>62000</v>
+        <v>62200</v>
       </c>
       <c r="G8" s="3">
-        <v>314300</v>
+        <v>315000</v>
       </c>
       <c r="H8" s="3">
-        <v>308600</v>
+        <v>309300</v>
       </c>
       <c r="I8" s="3">
-        <v>302000</v>
+        <v>302700</v>
       </c>
       <c r="J8" s="3">
-        <v>1451000</v>
+        <v>1454100</v>
       </c>
       <c r="K8" s="3">
         <v>1101700</v>
@@ -771,22 +771,22 @@
         <v>13000</v>
       </c>
       <c r="E9" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="F9" s="3">
         <v>32700</v>
       </c>
       <c r="G9" s="3">
-        <v>165300</v>
+        <v>165700</v>
       </c>
       <c r="H9" s="3">
-        <v>146700</v>
+        <v>147100</v>
       </c>
       <c r="I9" s="3">
-        <v>141100</v>
+        <v>141400</v>
       </c>
       <c r="J9" s="3">
-        <v>1362900</v>
+        <v>1365900</v>
       </c>
       <c r="K9" s="3">
         <v>1049700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E10" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="F10" s="3">
         <v>29400</v>
       </c>
       <c r="G10" s="3">
-        <v>148900</v>
+        <v>149300</v>
       </c>
       <c r="H10" s="3">
-        <v>161900</v>
+        <v>162300</v>
       </c>
       <c r="I10" s="3">
-        <v>160900</v>
+        <v>161300</v>
       </c>
       <c r="J10" s="3">
-        <v>88100</v>
+        <v>88300</v>
       </c>
       <c r="K10" s="3">
         <v>52000</v>
@@ -876,19 +876,19 @@
         <v>7500</v>
       </c>
       <c r="F12" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="G12" s="3">
-        <v>41800</v>
+        <v>41900</v>
       </c>
       <c r="H12" s="3">
-        <v>43400</v>
+        <v>43500</v>
       </c>
       <c r="I12" s="3">
-        <v>74600</v>
+        <v>74700</v>
       </c>
       <c r="J12" s="3">
-        <v>82900</v>
+        <v>83000</v>
       </c>
       <c r="K12" s="3">
         <v>42800</v>
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>54300</v>
+        <v>54400</v>
       </c>
       <c r="E17" s="3">
-        <v>83800</v>
+        <v>83900</v>
       </c>
       <c r="F17" s="3">
-        <v>246800</v>
+        <v>247300</v>
       </c>
       <c r="G17" s="3">
-        <v>434300</v>
+        <v>435200</v>
       </c>
       <c r="H17" s="3">
-        <v>356700</v>
+        <v>357500</v>
       </c>
       <c r="I17" s="3">
-        <v>423700</v>
+        <v>424700</v>
       </c>
       <c r="J17" s="3">
-        <v>1795300</v>
+        <v>1799200</v>
       </c>
       <c r="K17" s="3">
         <v>1311300</v>
@@ -1098,22 +1098,22 @@
         <v>-29000</v>
       </c>
       <c r="E18" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="F18" s="3">
-        <v>-184700</v>
+        <v>-185100</v>
       </c>
       <c r="G18" s="3">
-        <v>-120000</v>
+        <v>-120200</v>
       </c>
       <c r="H18" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I18" s="3">
-        <v>-121700</v>
+        <v>-122000</v>
       </c>
       <c r="J18" s="3">
-        <v>-344300</v>
+        <v>-345100</v>
       </c>
       <c r="K18" s="3">
         <v>-209500</v>
@@ -1164,16 +1164,16 @@
         <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H20" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="I20" s="3">
         <v>17600</v>
       </c>
       <c r="J20" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="K20" s="3">
         <v>-1100</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-23700</v>
+        <v>-23800</v>
       </c>
       <c r="E21" s="3">
         <v>-10800</v>
       </c>
       <c r="F21" s="3">
-        <v>-154800</v>
+        <v>-155200</v>
       </c>
       <c r="G21" s="3">
-        <v>-62200</v>
+        <v>-62400</v>
       </c>
       <c r="H21" s="3">
         <v>2900</v>
       </c>
       <c r="I21" s="3">
-        <v>-74400</v>
+        <v>-74600</v>
       </c>
       <c r="J21" s="3">
-        <v>-304800</v>
+        <v>-305500</v>
       </c>
       <c r="K21" s="3">
         <v>-198300</v>
@@ -1245,7 +1245,7 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="3">
         <v>4700</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E23" s="3">
         <v>-17800</v>
       </c>
       <c r="F23" s="3">
-        <v>-186000</v>
+        <v>-186400</v>
       </c>
       <c r="G23" s="3">
-        <v>-100400</v>
+        <v>-100600</v>
       </c>
       <c r="H23" s="3">
-        <v>-27400</v>
+        <v>-27500</v>
       </c>
       <c r="I23" s="3">
-        <v>-104100</v>
+        <v>-104300</v>
       </c>
       <c r="J23" s="3">
-        <v>-334000</v>
+        <v>-334700</v>
       </c>
       <c r="K23" s="3">
         <v>-210700</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-28000</v>
+        <v>-28100</v>
       </c>
       <c r="E26" s="3">
         <v>-17800</v>
       </c>
       <c r="F26" s="3">
-        <v>-185100</v>
+        <v>-185500</v>
       </c>
       <c r="G26" s="3">
-        <v>-100500</v>
+        <v>-100700</v>
       </c>
       <c r="H26" s="3">
         <v>-27500</v>
       </c>
       <c r="I26" s="3">
-        <v>-106300</v>
+        <v>-106500</v>
       </c>
       <c r="J26" s="3">
-        <v>-333700</v>
+        <v>-334500</v>
       </c>
       <c r="K26" s="3">
         <v>-210600</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="E27" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F27" s="3">
-        <v>-180200</v>
+        <v>-180600</v>
       </c>
       <c r="G27" s="3">
-        <v>-96300</v>
+        <v>-96500</v>
       </c>
       <c r="H27" s="3">
         <v>-25900</v>
       </c>
       <c r="I27" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="J27" s="3">
-        <v>-331700</v>
+        <v>-332400</v>
       </c>
       <c r="K27" s="3">
         <v>-210200</v>
@@ -1668,16 +1668,16 @@
         <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-24300</v>
+        <v>-24400</v>
       </c>
       <c r="H32" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="I32" s="3">
         <v>-17600</v>
       </c>
       <c r="J32" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K32" s="3">
         <v>1100</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="E33" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F33" s="3">
-        <v>-180200</v>
+        <v>-180600</v>
       </c>
       <c r="G33" s="3">
-        <v>-96300</v>
+        <v>-96500</v>
       </c>
       <c r="H33" s="3">
         <v>-25900</v>
       </c>
       <c r="I33" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="J33" s="3">
-        <v>-331700</v>
+        <v>-332400</v>
       </c>
       <c r="K33" s="3">
         <v>-210200</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="E35" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F35" s="3">
-        <v>-180200</v>
+        <v>-180600</v>
       </c>
       <c r="G35" s="3">
-        <v>-96300</v>
+        <v>-96500</v>
       </c>
       <c r="H35" s="3">
         <v>-25900</v>
       </c>
       <c r="I35" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="J35" s="3">
-        <v>-331700</v>
+        <v>-332400</v>
       </c>
       <c r="K35" s="3">
         <v>-210200</v>
@@ -1913,22 +1913,22 @@
         <v>21200</v>
       </c>
       <c r="E41" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="F41" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="G41" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="H41" s="3">
-        <v>77200</v>
+        <v>77400</v>
       </c>
       <c r="I41" s="3">
-        <v>66700</v>
+        <v>66800</v>
       </c>
       <c r="J41" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="K41" s="3">
         <v>301800</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>99800</v>
+        <v>100000</v>
       </c>
       <c r="E42" s="3">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="F42" s="3">
-        <v>186500</v>
+        <v>186900</v>
       </c>
       <c r="G42" s="3">
-        <v>179900</v>
+        <v>180200</v>
       </c>
       <c r="H42" s="3">
-        <v>118400</v>
+        <v>118600</v>
       </c>
       <c r="I42" s="3">
-        <v>425000</v>
+        <v>425900</v>
       </c>
       <c r="J42" s="3">
-        <v>496500</v>
+        <v>497600</v>
       </c>
       <c r="K42" s="3">
         <v>176100</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="E43" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="F43" s="3">
-        <v>56300</v>
+        <v>56400</v>
       </c>
       <c r="G43" s="3">
-        <v>172800</v>
+        <v>173200</v>
       </c>
       <c r="H43" s="3">
-        <v>252900</v>
+        <v>253500</v>
       </c>
       <c r="I43" s="3">
-        <v>84500</v>
+        <v>84700</v>
       </c>
       <c r="J43" s="3">
-        <v>152800</v>
+        <v>153100</v>
       </c>
       <c r="K43" s="3">
         <v>28700</v>
@@ -2081,22 +2081,22 @@
         <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>42500</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>133400</v>
+        <v>133700</v>
       </c>
       <c r="H45" s="3">
-        <v>158800</v>
+        <v>159200</v>
       </c>
       <c r="I45" s="3">
-        <v>125000</v>
+        <v>125300</v>
       </c>
       <c r="J45" s="3">
-        <v>462300</v>
+        <v>463400</v>
       </c>
       <c r="K45" s="3">
         <v>289000</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>165300</v>
+        <v>165700</v>
       </c>
       <c r="E46" s="3">
-        <v>203300</v>
+        <v>203700</v>
       </c>
       <c r="F46" s="3">
-        <v>314800</v>
+        <v>315400</v>
       </c>
       <c r="G46" s="3">
-        <v>526800</v>
+        <v>527900</v>
       </c>
       <c r="H46" s="3">
-        <v>607300</v>
+        <v>608600</v>
       </c>
       <c r="I46" s="3">
-        <v>701200</v>
+        <v>702700</v>
       </c>
       <c r="J46" s="3">
-        <v>1036300</v>
+        <v>1038500</v>
       </c>
       <c r="K46" s="3">
         <v>795600</v>
@@ -2165,22 +2165,22 @@
         <v>31800</v>
       </c>
       <c r="E47" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="F47" s="3">
         <v>36800</v>
       </c>
       <c r="G47" s="3">
-        <v>256700</v>
+        <v>257300</v>
       </c>
       <c r="H47" s="3">
-        <v>179500</v>
+        <v>179900</v>
       </c>
       <c r="I47" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="J47" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>40</v>
@@ -2210,19 +2210,19 @@
         <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="G48" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="H48" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="I48" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="J48" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="K48" s="3">
         <v>20900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="E49" s="3">
-        <v>52600</v>
+        <v>52800</v>
       </c>
       <c r="F49" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="G49" s="3">
-        <v>54900</v>
+        <v>55000</v>
       </c>
       <c r="H49" s="3">
-        <v>65800</v>
+        <v>65900</v>
       </c>
       <c r="I49" s="3">
-        <v>83800</v>
+        <v>84000</v>
       </c>
       <c r="J49" s="3">
-        <v>183500</v>
+        <v>183900</v>
       </c>
       <c r="K49" s="3">
         <v>122400</v>
@@ -2387,10 +2387,10 @@
         <v>25100</v>
       </c>
       <c r="I52" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="J52" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="K52" s="3">
         <v>93300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>258700</v>
+        <v>259300</v>
       </c>
       <c r="E54" s="3">
-        <v>316600</v>
+        <v>317300</v>
       </c>
       <c r="F54" s="3">
-        <v>440400</v>
+        <v>441400</v>
       </c>
       <c r="G54" s="3">
-        <v>908900</v>
+        <v>910900</v>
       </c>
       <c r="H54" s="3">
-        <v>903400</v>
+        <v>905400</v>
       </c>
       <c r="I54" s="3">
-        <v>917300</v>
+        <v>919300</v>
       </c>
       <c r="J54" s="3">
-        <v>1263700</v>
+        <v>1266400</v>
       </c>
       <c r="K54" s="3">
         <v>1032100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="E57" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="F57" s="3">
-        <v>97300</v>
+        <v>97500</v>
       </c>
       <c r="G57" s="3">
-        <v>180800</v>
+        <v>181200</v>
       </c>
       <c r="H57" s="3">
-        <v>179900</v>
+        <v>180300</v>
       </c>
       <c r="I57" s="3">
-        <v>117500</v>
+        <v>117700</v>
       </c>
       <c r="J57" s="3">
-        <v>140900</v>
+        <v>141200</v>
       </c>
       <c r="K57" s="3">
         <v>110200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69600</v>
+        <v>69700</v>
       </c>
       <c r="E59" s="3">
-        <v>80700</v>
+        <v>80800</v>
       </c>
       <c r="F59" s="3">
-        <v>134800</v>
+        <v>135000</v>
       </c>
       <c r="G59" s="3">
-        <v>307700</v>
+        <v>308300</v>
       </c>
       <c r="H59" s="3">
-        <v>240800</v>
+        <v>241300</v>
       </c>
       <c r="I59" s="3">
-        <v>285000</v>
+        <v>285700</v>
       </c>
       <c r="J59" s="3">
-        <v>564000</v>
+        <v>565200</v>
       </c>
       <c r="K59" s="3">
         <v>434200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="E60" s="3">
-        <v>134900</v>
+        <v>135200</v>
       </c>
       <c r="F60" s="3">
-        <v>240400</v>
+        <v>240900</v>
       </c>
       <c r="G60" s="3">
-        <v>516500</v>
+        <v>517600</v>
       </c>
       <c r="H60" s="3">
-        <v>427500</v>
+        <v>428400</v>
       </c>
       <c r="I60" s="3">
-        <v>402500</v>
+        <v>403400</v>
       </c>
       <c r="J60" s="3">
-        <v>623700</v>
+        <v>625100</v>
       </c>
       <c r="K60" s="3">
         <v>544400</v>
@@ -2702,7 +2702,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
         <v>2000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106100</v>
+        <v>106300</v>
       </c>
       <c r="E66" s="3">
-        <v>141700</v>
+        <v>142000</v>
       </c>
       <c r="F66" s="3">
-        <v>249700</v>
+        <v>250200</v>
       </c>
       <c r="G66" s="3">
-        <v>535400</v>
+        <v>536600</v>
       </c>
       <c r="H66" s="3">
-        <v>441800</v>
+        <v>442800</v>
       </c>
       <c r="I66" s="3">
-        <v>422000</v>
+        <v>422900</v>
       </c>
       <c r="J66" s="3">
-        <v>643800</v>
+        <v>645200</v>
       </c>
       <c r="K66" s="3">
         <v>555100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1106100</v>
+        <v>-1108500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1079500</v>
+        <v>-1081800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1062700</v>
+        <v>-1065100</v>
       </c>
       <c r="G72" s="3">
-        <v>-879900</v>
+        <v>-881800</v>
       </c>
       <c r="H72" s="3">
-        <v>-784200</v>
+        <v>-785900</v>
       </c>
       <c r="I72" s="3">
-        <v>-758600</v>
+        <v>-760300</v>
       </c>
       <c r="J72" s="3">
-        <v>-652900</v>
+        <v>-654300</v>
       </c>
       <c r="K72" s="3">
         <v>-334400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>152700</v>
+        <v>153000</v>
       </c>
       <c r="E76" s="3">
-        <v>174900</v>
+        <v>175200</v>
       </c>
       <c r="F76" s="3">
-        <v>190800</v>
+        <v>191200</v>
       </c>
       <c r="G76" s="3">
-        <v>373500</v>
+        <v>374300</v>
       </c>
       <c r="H76" s="3">
-        <v>461600</v>
+        <v>462600</v>
       </c>
       <c r="I76" s="3">
-        <v>495300</v>
+        <v>496400</v>
       </c>
       <c r="J76" s="3">
-        <v>619900</v>
+        <v>621200</v>
       </c>
       <c r="K76" s="3">
         <v>477000</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="E81" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F81" s="3">
-        <v>-180200</v>
+        <v>-180600</v>
       </c>
       <c r="G81" s="3">
-        <v>-96300</v>
+        <v>-96500</v>
       </c>
       <c r="H81" s="3">
         <v>-25900</v>
       </c>
       <c r="I81" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="J81" s="3">
-        <v>-331700</v>
+        <v>-332400</v>
       </c>
       <c r="K81" s="3">
         <v>-210200</v>
@@ -3511,10 +3511,10 @@
         <v>33500</v>
       </c>
       <c r="H83" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="I83" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="J83" s="3">
         <v>29200</v>
@@ -3754,22 +3754,22 @@
         <v>-19700</v>
       </c>
       <c r="E89" s="3">
-        <v>-31200</v>
+        <v>-31300</v>
       </c>
       <c r="F89" s="3">
-        <v>-180900</v>
+        <v>-181300</v>
       </c>
       <c r="G89" s="3">
         <v>-16600</v>
       </c>
       <c r="H89" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="I89" s="3">
-        <v>-57700</v>
+        <v>-57800</v>
       </c>
       <c r="J89" s="3">
-        <v>-308600</v>
+        <v>-309200</v>
       </c>
       <c r="K89" s="3">
         <v>-73900</v>
@@ -3826,10 +3826,10 @@
         <v>-16500</v>
       </c>
       <c r="I91" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="K91" s="3">
         <v>-22300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="E94" s="3">
-        <v>97000</v>
+        <v>97200</v>
       </c>
       <c r="F94" s="3">
-        <v>159700</v>
+        <v>160000</v>
       </c>
       <c r="G94" s="3">
-        <v>-79700</v>
+        <v>-79800</v>
       </c>
       <c r="H94" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="I94" s="3">
-        <v>84800</v>
+        <v>85000</v>
       </c>
       <c r="J94" s="3">
-        <v>-376000</v>
+        <v>-376800</v>
       </c>
       <c r="K94" s="3">
         <v>-275100</v>
@@ -4168,22 +4168,22 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-47500</v>
+        <v>-47600</v>
       </c>
       <c r="F100" s="3">
         <v>-28900</v>
       </c>
       <c r="G100" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="H100" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="I100" s="3">
-        <v>-108100</v>
+        <v>-108400</v>
       </c>
       <c r="J100" s="3">
-        <v>499700</v>
+        <v>500800</v>
       </c>
       <c r="K100" s="3">
         <v>431700</v>
@@ -4222,10 +4222,10 @@
         <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="J101" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="K101" s="3">
         <v>9700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="E102" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="F102" s="3">
-        <v>-49400</v>
+        <v>-49500</v>
       </c>
       <c r="G102" s="3">
-        <v>-28700</v>
+        <v>-28800</v>
       </c>
       <c r="H102" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="I102" s="3">
-        <v>-87300</v>
+        <v>-87500</v>
       </c>
       <c r="J102" s="3">
-        <v>-169500</v>
+        <v>-169900</v>
       </c>
       <c r="K102" s="3">
         <v>92400</v>
